--- a/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="90" windowWidth="14490" windowHeight="12510"/>
+    <workbookView xWindow="105" yWindow="90" windowWidth="20115" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -263,28 +263,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログテーブルにデータ登録内容(登録件数等)を登録。</t>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>例)</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -334,16 +312,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10件のデータを登録しました。</t>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1577,6 +1545,38 @@
   </si>
   <si>
     <t>UPDATE_USER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログテーブルにデータ登録内容(更新件数等)を登録。</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10件のデータを更新しました。</t>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2097,53 +2097,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2157,6 +2116,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -2169,15 +2137,6 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2190,17 +2149,124 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2215,80 +2281,28 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2302,7 +2316,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2323,21 +2337,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2665,273 +2665,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="72" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="88"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="86" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="86" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="82">
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="68">
         <v>41557</v>
       </c>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="72" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="82">
-        <v>41558</v>
-      </c>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="68">
+        <v>41562</v>
+      </c>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="85" t="s">
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="57" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="62"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="76"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="9" t="s">
@@ -3336,7 +3336,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2"/>
       <c r="P16" s="2"/>
@@ -3444,7 +3444,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N18" s="2"/>
       <c r="P18" s="2"/>
@@ -3499,7 +3499,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -3607,10 +3607,10 @@
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3719,7 +3719,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="O23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -3773,7 +3773,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -3877,7 +3877,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="4"/>
       <c r="O26" s="53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -3984,10 +3984,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4258,7 +4258,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N33" s="2"/>
       <c r="P33" s="2"/>
@@ -4528,7 +4528,7 @@
         <v>33</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N38" s="2"/>
       <c r="P38" s="2"/>
@@ -4636,7 +4636,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -4743,7 +4743,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -4849,7 +4849,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4955,10 +4955,10 @@
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="O46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -5060,10 +5060,10 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -5169,10 +5169,10 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -5278,7 +5278,7 @@
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -5334,7 +5334,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -5434,7 +5434,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -5488,7 +5488,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="O56" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -5592,7 +5592,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="P58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -5645,7 +5645,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="Q59" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -5697,7 +5697,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="Q60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -5797,7 +5797,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="4"/>
       <c r="P62" s="53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -5902,7 +5902,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="O64" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -6055,7 +6055,7 @@
       <c r="K67" s="1"/>
       <c r="M67" s="2"/>
       <c r="N67" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -6157,7 +6157,7 @@
       <c r="K69" s="1"/>
       <c r="M69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -6262,7 +6262,7 @@
       <c r="M71" s="14"/>
       <c r="N71" s="2"/>
       <c r="O71" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -6316,7 +6316,7 @@
       <c r="M72" s="14"/>
       <c r="N72" s="2"/>
       <c r="P72" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -6367,7 +6367,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -6460,7 +6460,7 @@
       <c r="M75" s="14"/>
       <c r="N75" s="2"/>
       <c r="P75" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
@@ -6549,7 +6549,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -6602,7 +6602,7 @@
       <c r="M78" s="14"/>
       <c r="N78" s="2"/>
       <c r="P78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -6655,7 +6655,7 @@
       <c r="M79" s="14"/>
       <c r="N79" s="2"/>
       <c r="P79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
@@ -6760,7 +6760,7 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="P81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
@@ -6814,7 +6814,7 @@
       <c r="M82" s="14"/>
       <c r="N82" s="2"/>
       <c r="Q82" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -6867,7 +6867,7 @@
       <c r="N83" s="2"/>
       <c r="P83" s="53"/>
       <c r="Q83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
@@ -6971,7 +6971,7 @@
       <c r="M85" s="14"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
@@ -7024,7 +7024,7 @@
       <c r="M86" s="14"/>
       <c r="N86" s="2"/>
       <c r="P86" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
@@ -7229,7 +7229,7 @@
         <v>25</v>
       </c>
       <c r="M90" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
@@ -7332,7 +7332,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="2"/>
       <c r="N92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O92" s="2"/>
       <c r="R92" s="2"/>
@@ -7385,7 +7385,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="2"/>
       <c r="O93" s="2" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
@@ -7490,7 +7490,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="2"/>
       <c r="N95" s="53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -7751,7 +7751,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="2"/>
       <c r="M100" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N100" s="2"/>
       <c r="P100" s="2"/>
@@ -8301,16 +8301,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8327,6 +8317,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8352,290 +8352,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="72" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="88"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="86" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="86" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="82">
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="68">
         <v>41557</v>
       </c>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="72" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
+      <c r="A8" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="108"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="104" t="s">
+      <c r="W8" s="96"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="102"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="112"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="94"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -8645,7 +8645,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -8655,7 +8655,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -8664,7 +8664,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -8674,7 +8674,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -8684,7 +8684,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -8717,12 +8717,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -8761,35 +8761,35 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
+      <c r="B11" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="102"/>
       <c r="U11" s="19"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
@@ -8807,7 +8807,7 @@
       <c r="AM11" s="25"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP11" s="20"/>
       <c r="AQ11" s="20"/>
@@ -8826,37 +8826,37 @@
         <f t="shared" ref="A12:A17" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
+      <c r="B12" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102"/>
       <c r="U12" s="19"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
@@ -8874,7 +8874,7 @@
       <c r="AM12" s="25"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -8893,31 +8893,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
+      <c r="B13" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="101"/>
+      <c r="T13" s="102"/>
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -8939,7 +8939,7 @@
       <c r="AM13" s="25"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AP13" s="20"/>
       <c r="AQ13" s="20"/>
@@ -8958,31 +8958,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
+      <c r="B14" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="101"/>
+      <c r="T14" s="102"/>
       <c r="U14" s="27"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -9004,7 +9004,7 @@
       <c r="AM14" s="25"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AP14" s="20"/>
       <c r="AQ14" s="20"/>
@@ -9023,29 +9023,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
+      <c r="B15" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="102"/>
       <c r="U15" s="27"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -9066,49 +9066,49 @@
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="26"/>
-      <c r="AO15" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP15" s="109"/>
-      <c r="AQ15" s="109"/>
-      <c r="AR15" s="109"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
-      <c r="AV15" s="109"/>
-      <c r="AW15" s="109"/>
-      <c r="AX15" s="109"/>
-      <c r="AY15" s="109"/>
-      <c r="AZ15" s="110"/>
+      <c r="AO15" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="91"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
+      <c r="B16" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
       <c r="U16" s="27"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -9130,7 +9130,7 @@
       <c r="AM16" s="25"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP16" s="20"/>
       <c r="AQ16" s="20"/>
@@ -9149,29 +9149,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
+      <c r="B17" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="102"/>
       <c r="U17" s="27"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -9193,7 +9193,7 @@
       <c r="AM17" s="25"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AP17" s="20"/>
       <c r="AQ17" s="20"/>
@@ -9209,26 +9209,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
@@ -9245,21 +9240,26 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
     <mergeCell ref="V8:X8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9285,294 +9285,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="72" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="88"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="86" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="86" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="82">
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="68">
         <v>41557</v>
       </c>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="72" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="82">
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="68">
         <v>41558</v>
       </c>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="85" t="s">
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
+      <c r="A8" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="108"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="104" t="s">
+      <c r="W8" s="96"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="102"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="112"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="94"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -9582,7 +9582,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -9592,7 +9592,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -9601,7 +9601,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -9611,7 +9611,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -9621,7 +9621,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -9654,12 +9654,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -9698,2781 +9698,2873 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="117"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="120"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="120"/>
-      <c r="AW11" s="120"/>
-      <c r="AX11" s="120"/>
-      <c r="AY11" s="120"/>
-      <c r="AZ11" s="121"/>
+      <c r="B11" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="101"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="121"/>
+      <c r="AN11" s="122"/>
+      <c r="AO11" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="124"/>
+      <c r="AS11" s="124"/>
+      <c r="AT11" s="124"/>
+      <c r="AU11" s="124"/>
+      <c r="AV11" s="124"/>
+      <c r="AW11" s="124"/>
+      <c r="AX11" s="124"/>
+      <c r="AY11" s="124"/>
+      <c r="AZ11" s="125"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="55">
         <f>ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="115"/>
-      <c r="Y12" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH12" s="117"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP12" s="120"/>
-      <c r="AQ12" s="120"/>
-      <c r="AR12" s="120"/>
-      <c r="AS12" s="120"/>
-      <c r="AT12" s="120"/>
-      <c r="AU12" s="120"/>
-      <c r="AV12" s="120"/>
-      <c r="AW12" s="120"/>
-      <c r="AX12" s="120"/>
-      <c r="AY12" s="120"/>
-      <c r="AZ12" s="121"/>
+      <c r="B12" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
+      <c r="AX12" s="124"/>
+      <c r="AY12" s="124"/>
+      <c r="AZ12" s="125"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="55">
         <f t="shared" ref="A13:A49" si="0">ROW()-10</f>
         <v>3</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="122" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="123"/>
-      <c r="AJ13" s="123"/>
-      <c r="AK13" s="123"/>
-      <c r="AL13" s="123"/>
-      <c r="AM13" s="123"/>
-      <c r="AN13" s="124"/>
-      <c r="AO13" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP13" s="120"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="120"/>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="120"/>
-      <c r="AY13" s="120"/>
-      <c r="AZ13" s="121"/>
+      <c r="B13" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="101"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH13" s="127"/>
+      <c r="AI13" s="127"/>
+      <c r="AJ13" s="127"/>
+      <c r="AK13" s="127"/>
+      <c r="AL13" s="127"/>
+      <c r="AM13" s="127"/>
+      <c r="AN13" s="128"/>
+      <c r="AO13" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="124"/>
+      <c r="AT13" s="124"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="124"/>
+      <c r="AW13" s="124"/>
+      <c r="AX13" s="124"/>
+      <c r="AY13" s="124"/>
+      <c r="AZ13" s="125"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="122" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
-      <c r="AV14" s="120"/>
-      <c r="AW14" s="120"/>
-      <c r="AX14" s="120"/>
-      <c r="AY14" s="120"/>
-      <c r="AZ14" s="121"/>
+      <c r="B14" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="101"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH14" s="127"/>
+      <c r="AI14" s="127"/>
+      <c r="AJ14" s="127"/>
+      <c r="AK14" s="127"/>
+      <c r="AL14" s="127"/>
+      <c r="AM14" s="127"/>
+      <c r="AN14" s="128"/>
+      <c r="AO14" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP14" s="124"/>
+      <c r="AQ14" s="124"/>
+      <c r="AR14" s="124"/>
+      <c r="AS14" s="124"/>
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="124"/>
+      <c r="AW14" s="124"/>
+      <c r="AX14" s="124"/>
+      <c r="AY14" s="124"/>
+      <c r="AZ14" s="125"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="120"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="120"/>
-      <c r="AU15" s="120"/>
-      <c r="AV15" s="120"/>
-      <c r="AW15" s="120"/>
-      <c r="AX15" s="120"/>
-      <c r="AY15" s="120"/>
-      <c r="AZ15" s="121"/>
+      <c r="B15" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="101"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="122"/>
+      <c r="AO15" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="124"/>
+      <c r="AT15" s="124"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
+      <c r="AX15" s="124"/>
+      <c r="AY15" s="124"/>
+      <c r="AZ15" s="125"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="120"/>
-      <c r="AR16" s="120"/>
-      <c r="AS16" s="120"/>
-      <c r="AT16" s="120"/>
-      <c r="AU16" s="120"/>
-      <c r="AV16" s="120"/>
-      <c r="AW16" s="120"/>
-      <c r="AX16" s="120"/>
-      <c r="AY16" s="120"/>
-      <c r="AZ16" s="121"/>
+      <c r="B16" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="121"/>
+      <c r="AM16" s="121"/>
+      <c r="AN16" s="122"/>
+      <c r="AO16" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="124"/>
+      <c r="AT16" s="124"/>
+      <c r="AU16" s="124"/>
+      <c r="AV16" s="124"/>
+      <c r="AW16" s="124"/>
+      <c r="AX16" s="124"/>
+      <c r="AY16" s="124"/>
+      <c r="AZ16" s="125"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="120"/>
-      <c r="AR17" s="120"/>
-      <c r="AS17" s="120"/>
-      <c r="AT17" s="120"/>
-      <c r="AU17" s="120"/>
-      <c r="AV17" s="120"/>
-      <c r="AW17" s="120"/>
-      <c r="AX17" s="120"/>
-      <c r="AY17" s="120"/>
-      <c r="AZ17" s="121"/>
+      <c r="B17" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="101"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="122"/>
+      <c r="AO17" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP17" s="124"/>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="124"/>
+      <c r="AT17" s="124"/>
+      <c r="AU17" s="124"/>
+      <c r="AV17" s="124"/>
+      <c r="AW17" s="124"/>
+      <c r="AX17" s="124"/>
+      <c r="AY17" s="124"/>
+      <c r="AZ17" s="125"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S18" s="95"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="115"/>
-      <c r="Y18" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP18" s="120"/>
-      <c r="AQ18" s="120"/>
-      <c r="AR18" s="120"/>
-      <c r="AS18" s="120"/>
-      <c r="AT18" s="120"/>
-      <c r="AU18" s="120"/>
-      <c r="AV18" s="120"/>
-      <c r="AW18" s="120"/>
-      <c r="AX18" s="120"/>
-      <c r="AY18" s="120"/>
-      <c r="AZ18" s="121"/>
+      <c r="B18" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S18" s="101"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="121"/>
+      <c r="AJ18" s="121"/>
+      <c r="AK18" s="121"/>
+      <c r="AL18" s="121"/>
+      <c r="AM18" s="121"/>
+      <c r="AN18" s="122"/>
+      <c r="AO18" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="124"/>
+      <c r="AT18" s="124"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="124"/>
+      <c r="AW18" s="124"/>
+      <c r="AX18" s="124"/>
+      <c r="AY18" s="124"/>
+      <c r="AZ18" s="125"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S19" s="95"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="120"/>
-      <c r="AT19" s="120"/>
-      <c r="AU19" s="120"/>
-      <c r="AV19" s="120"/>
-      <c r="AW19" s="120"/>
-      <c r="AX19" s="120"/>
-      <c r="AY19" s="120"/>
-      <c r="AZ19" s="121"/>
+      <c r="B19" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S19" s="101"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="121"/>
+      <c r="AK19" s="121"/>
+      <c r="AL19" s="121"/>
+      <c r="AM19" s="121"/>
+      <c r="AN19" s="122"/>
+      <c r="AO19" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="124"/>
+      <c r="AR19" s="124"/>
+      <c r="AS19" s="124"/>
+      <c r="AT19" s="124"/>
+      <c r="AU19" s="124"/>
+      <c r="AV19" s="124"/>
+      <c r="AW19" s="124"/>
+      <c r="AX19" s="124"/>
+      <c r="AY19" s="124"/>
+      <c r="AZ19" s="125"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S20" s="95"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP20" s="120"/>
-      <c r="AQ20" s="120"/>
-      <c r="AR20" s="120"/>
-      <c r="AS20" s="120"/>
-      <c r="AT20" s="120"/>
-      <c r="AU20" s="120"/>
-      <c r="AV20" s="120"/>
-      <c r="AW20" s="120"/>
-      <c r="AX20" s="120"/>
-      <c r="AY20" s="120"/>
-      <c r="AZ20" s="121"/>
+      <c r="B20" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" s="101"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="121"/>
+      <c r="AL20" s="121"/>
+      <c r="AM20" s="121"/>
+      <c r="AN20" s="122"/>
+      <c r="AO20" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP20" s="124"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="124"/>
+      <c r="AS20" s="124"/>
+      <c r="AT20" s="124"/>
+      <c r="AU20" s="124"/>
+      <c r="AV20" s="124"/>
+      <c r="AW20" s="124"/>
+      <c r="AX20" s="124"/>
+      <c r="AY20" s="124"/>
+      <c r="AZ20" s="125"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="55">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S21" s="95"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP21" s="120"/>
-      <c r="AQ21" s="120"/>
-      <c r="AR21" s="120"/>
-      <c r="AS21" s="120"/>
-      <c r="AT21" s="120"/>
-      <c r="AU21" s="120"/>
-      <c r="AV21" s="120"/>
-      <c r="AW21" s="120"/>
-      <c r="AX21" s="120"/>
-      <c r="AY21" s="120"/>
-      <c r="AZ21" s="121"/>
+      <c r="B21" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S21" s="101"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
+      <c r="AJ21" s="121"/>
+      <c r="AK21" s="121"/>
+      <c r="AL21" s="121"/>
+      <c r="AM21" s="121"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP21" s="124"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="124"/>
+      <c r="AS21" s="124"/>
+      <c r="AT21" s="124"/>
+      <c r="AU21" s="124"/>
+      <c r="AV21" s="124"/>
+      <c r="AW21" s="124"/>
+      <c r="AX21" s="124"/>
+      <c r="AY21" s="124"/>
+      <c r="AZ21" s="125"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="55">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S22" s="95"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="115"/>
-      <c r="Y22" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP22" s="120"/>
-      <c r="AQ22" s="120"/>
-      <c r="AR22" s="120"/>
-      <c r="AS22" s="120"/>
-      <c r="AT22" s="120"/>
-      <c r="AU22" s="120"/>
-      <c r="AV22" s="120"/>
-      <c r="AW22" s="120"/>
-      <c r="AX22" s="120"/>
-      <c r="AY22" s="120"/>
-      <c r="AZ22" s="121"/>
+      <c r="B22" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S22" s="101"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="121"/>
+      <c r="AK22" s="121"/>
+      <c r="AL22" s="121"/>
+      <c r="AM22" s="121"/>
+      <c r="AN22" s="122"/>
+      <c r="AO22" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP22" s="124"/>
+      <c r="AQ22" s="124"/>
+      <c r="AR22" s="124"/>
+      <c r="AS22" s="124"/>
+      <c r="AT22" s="124"/>
+      <c r="AU22" s="124"/>
+      <c r="AV22" s="124"/>
+      <c r="AW22" s="124"/>
+      <c r="AX22" s="124"/>
+      <c r="AY22" s="124"/>
+      <c r="AZ22" s="125"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="55">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP23" s="120"/>
-      <c r="AQ23" s="120"/>
-      <c r="AR23" s="120"/>
-      <c r="AS23" s="120"/>
-      <c r="AT23" s="120"/>
-      <c r="AU23" s="120"/>
-      <c r="AV23" s="120"/>
-      <c r="AW23" s="120"/>
-      <c r="AX23" s="120"/>
-      <c r="AY23" s="120"/>
-      <c r="AZ23" s="121"/>
+      <c r="B23" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S23" s="101"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="121"/>
+      <c r="AJ23" s="121"/>
+      <c r="AK23" s="121"/>
+      <c r="AL23" s="121"/>
+      <c r="AM23" s="121"/>
+      <c r="AN23" s="122"/>
+      <c r="AO23" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP23" s="124"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="124"/>
+      <c r="AS23" s="124"/>
+      <c r="AT23" s="124"/>
+      <c r="AU23" s="124"/>
+      <c r="AV23" s="124"/>
+      <c r="AW23" s="124"/>
+      <c r="AX23" s="124"/>
+      <c r="AY23" s="124"/>
+      <c r="AZ23" s="125"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="55">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S24" s="95"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="120"/>
-      <c r="AR24" s="120"/>
-      <c r="AS24" s="120"/>
-      <c r="AT24" s="120"/>
-      <c r="AU24" s="120"/>
-      <c r="AV24" s="120"/>
-      <c r="AW24" s="120"/>
-      <c r="AX24" s="120"/>
-      <c r="AY24" s="120"/>
-      <c r="AZ24" s="121"/>
+      <c r="B24" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S24" s="101"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="121"/>
+      <c r="AM24" s="121"/>
+      <c r="AN24" s="122"/>
+      <c r="AO24" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP24" s="124"/>
+      <c r="AQ24" s="124"/>
+      <c r="AR24" s="124"/>
+      <c r="AS24" s="124"/>
+      <c r="AT24" s="124"/>
+      <c r="AU24" s="124"/>
+      <c r="AV24" s="124"/>
+      <c r="AW24" s="124"/>
+      <c r="AX24" s="124"/>
+      <c r="AY24" s="124"/>
+      <c r="AZ24" s="125"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="55">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S25" s="95"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP25" s="120"/>
-      <c r="AQ25" s="120"/>
-      <c r="AR25" s="120"/>
-      <c r="AS25" s="120"/>
-      <c r="AT25" s="120"/>
-      <c r="AU25" s="120"/>
-      <c r="AV25" s="120"/>
-      <c r="AW25" s="120"/>
-      <c r="AX25" s="120"/>
-      <c r="AY25" s="120"/>
-      <c r="AZ25" s="121"/>
+      <c r="B25" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S25" s="101"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="121"/>
+      <c r="AJ25" s="121"/>
+      <c r="AK25" s="121"/>
+      <c r="AL25" s="121"/>
+      <c r="AM25" s="121"/>
+      <c r="AN25" s="122"/>
+      <c r="AO25" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP25" s="124"/>
+      <c r="AQ25" s="124"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="124"/>
+      <c r="AT25" s="124"/>
+      <c r="AU25" s="124"/>
+      <c r="AV25" s="124"/>
+      <c r="AW25" s="124"/>
+      <c r="AX25" s="124"/>
+      <c r="AY25" s="124"/>
+      <c r="AZ25" s="125"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="55">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S26" s="95"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP26" s="120"/>
-      <c r="AQ26" s="120"/>
-      <c r="AR26" s="120"/>
-      <c r="AS26" s="120"/>
-      <c r="AT26" s="120"/>
-      <c r="AU26" s="120"/>
-      <c r="AV26" s="120"/>
-      <c r="AW26" s="120"/>
-      <c r="AX26" s="120"/>
-      <c r="AY26" s="120"/>
-      <c r="AZ26" s="121"/>
+      <c r="B26" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S26" s="101"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
+      <c r="AL26" s="121"/>
+      <c r="AM26" s="121"/>
+      <c r="AN26" s="122"/>
+      <c r="AO26" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP26" s="124"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="124"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="124"/>
+      <c r="AU26" s="124"/>
+      <c r="AV26" s="124"/>
+      <c r="AW26" s="124"/>
+      <c r="AX26" s="124"/>
+      <c r="AY26" s="124"/>
+      <c r="AZ26" s="125"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="55">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S27" s="95"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP27" s="120"/>
-      <c r="AQ27" s="120"/>
-      <c r="AR27" s="120"/>
-      <c r="AS27" s="120"/>
-      <c r="AT27" s="120"/>
-      <c r="AU27" s="120"/>
-      <c r="AV27" s="120"/>
-      <c r="AW27" s="120"/>
-      <c r="AX27" s="120"/>
-      <c r="AY27" s="120"/>
-      <c r="AZ27" s="121"/>
+      <c r="B27" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S27" s="101"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="121"/>
+      <c r="AM27" s="121"/>
+      <c r="AN27" s="122"/>
+      <c r="AO27" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP27" s="124"/>
+      <c r="AQ27" s="124"/>
+      <c r="AR27" s="124"/>
+      <c r="AS27" s="124"/>
+      <c r="AT27" s="124"/>
+      <c r="AU27" s="124"/>
+      <c r="AV27" s="124"/>
+      <c r="AW27" s="124"/>
+      <c r="AX27" s="124"/>
+      <c r="AY27" s="124"/>
+      <c r="AZ27" s="125"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="55">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S28" s="95"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP28" s="120"/>
-      <c r="AQ28" s="120"/>
-      <c r="AR28" s="120"/>
-      <c r="AS28" s="120"/>
-      <c r="AT28" s="120"/>
-      <c r="AU28" s="120"/>
-      <c r="AV28" s="120"/>
-      <c r="AW28" s="120"/>
-      <c r="AX28" s="120"/>
-      <c r="AY28" s="120"/>
-      <c r="AZ28" s="121"/>
+      <c r="B28" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S28" s="101"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="121"/>
+      <c r="AJ28" s="121"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="121"/>
+      <c r="AM28" s="121"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP28" s="124"/>
+      <c r="AQ28" s="124"/>
+      <c r="AR28" s="124"/>
+      <c r="AS28" s="124"/>
+      <c r="AT28" s="124"/>
+      <c r="AU28" s="124"/>
+      <c r="AV28" s="124"/>
+      <c r="AW28" s="124"/>
+      <c r="AX28" s="124"/>
+      <c r="AY28" s="124"/>
+      <c r="AZ28" s="125"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="55">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="115"/>
-      <c r="Y29" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP29" s="120"/>
-      <c r="AQ29" s="120"/>
-      <c r="AR29" s="120"/>
-      <c r="AS29" s="120"/>
-      <c r="AT29" s="120"/>
-      <c r="AU29" s="120"/>
-      <c r="AV29" s="120"/>
-      <c r="AW29" s="120"/>
-      <c r="AX29" s="120"/>
-      <c r="AY29" s="120"/>
-      <c r="AZ29" s="121"/>
+      <c r="B29" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="121"/>
+      <c r="AJ29" s="121"/>
+      <c r="AK29" s="121"/>
+      <c r="AL29" s="121"/>
+      <c r="AM29" s="121"/>
+      <c r="AN29" s="122"/>
+      <c r="AO29" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP29" s="124"/>
+      <c r="AQ29" s="124"/>
+      <c r="AR29" s="124"/>
+      <c r="AS29" s="124"/>
+      <c r="AT29" s="124"/>
+      <c r="AU29" s="124"/>
+      <c r="AV29" s="124"/>
+      <c r="AW29" s="124"/>
+      <c r="AX29" s="124"/>
+      <c r="AY29" s="124"/>
+      <c r="AZ29" s="125"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="55">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S30" s="95"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP30" s="120"/>
-      <c r="AQ30" s="120"/>
-      <c r="AR30" s="120"/>
-      <c r="AS30" s="120"/>
-      <c r="AT30" s="120"/>
-      <c r="AU30" s="120"/>
-      <c r="AV30" s="120"/>
-      <c r="AW30" s="120"/>
-      <c r="AX30" s="120"/>
-      <c r="AY30" s="120"/>
-      <c r="AZ30" s="121"/>
+      <c r="B30" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S30" s="101"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
+      <c r="AJ30" s="121"/>
+      <c r="AK30" s="121"/>
+      <c r="AL30" s="121"/>
+      <c r="AM30" s="121"/>
+      <c r="AN30" s="122"/>
+      <c r="AO30" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP30" s="124"/>
+      <c r="AQ30" s="124"/>
+      <c r="AR30" s="124"/>
+      <c r="AS30" s="124"/>
+      <c r="AT30" s="124"/>
+      <c r="AU30" s="124"/>
+      <c r="AV30" s="124"/>
+      <c r="AW30" s="124"/>
+      <c r="AX30" s="124"/>
+      <c r="AY30" s="124"/>
+      <c r="AZ30" s="125"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="55">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S31" s="95"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="115"/>
-      <c r="Y31" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="117"/>
-      <c r="AL31" s="117"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP31" s="120"/>
-      <c r="AQ31" s="120"/>
-      <c r="AR31" s="120"/>
-      <c r="AS31" s="120"/>
-      <c r="AT31" s="120"/>
-      <c r="AU31" s="120"/>
-      <c r="AV31" s="120"/>
-      <c r="AW31" s="120"/>
-      <c r="AX31" s="120"/>
-      <c r="AY31" s="120"/>
-      <c r="AZ31" s="121"/>
+      <c r="B31" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S31" s="101"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="104"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="121"/>
+      <c r="AJ31" s="121"/>
+      <c r="AK31" s="121"/>
+      <c r="AL31" s="121"/>
+      <c r="AM31" s="121"/>
+      <c r="AN31" s="122"/>
+      <c r="AO31" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP31" s="124"/>
+      <c r="AQ31" s="124"/>
+      <c r="AR31" s="124"/>
+      <c r="AS31" s="124"/>
+      <c r="AT31" s="124"/>
+      <c r="AU31" s="124"/>
+      <c r="AV31" s="124"/>
+      <c r="AW31" s="124"/>
+      <c r="AX31" s="124"/>
+      <c r="AY31" s="124"/>
+      <c r="AZ31" s="125"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="55">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S32" s="95"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="99"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="117"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="120"/>
-      <c r="AR32" s="120"/>
-      <c r="AS32" s="120"/>
-      <c r="AT32" s="120"/>
-      <c r="AU32" s="120"/>
-      <c r="AV32" s="120"/>
-      <c r="AW32" s="120"/>
-      <c r="AX32" s="120"/>
-      <c r="AY32" s="120"/>
-      <c r="AZ32" s="121"/>
+      <c r="B32" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S32" s="101"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="104"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="121"/>
+      <c r="AM32" s="121"/>
+      <c r="AN32" s="122"/>
+      <c r="AO32" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP32" s="124"/>
+      <c r="AQ32" s="124"/>
+      <c r="AR32" s="124"/>
+      <c r="AS32" s="124"/>
+      <c r="AT32" s="124"/>
+      <c r="AU32" s="124"/>
+      <c r="AV32" s="124"/>
+      <c r="AW32" s="124"/>
+      <c r="AX32" s="124"/>
+      <c r="AY32" s="124"/>
+      <c r="AZ32" s="125"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="55">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S33" s="95"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="99"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP33" s="120"/>
-      <c r="AQ33" s="120"/>
-      <c r="AR33" s="120"/>
-      <c r="AS33" s="120"/>
-      <c r="AT33" s="120"/>
-      <c r="AU33" s="120"/>
-      <c r="AV33" s="120"/>
-      <c r="AW33" s="120"/>
-      <c r="AX33" s="120"/>
-      <c r="AY33" s="120"/>
-      <c r="AZ33" s="121"/>
+      <c r="B33" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S33" s="101"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="104"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="121"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AL33" s="121"/>
+      <c r="AM33" s="121"/>
+      <c r="AN33" s="122"/>
+      <c r="AO33" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP33" s="124"/>
+      <c r="AQ33" s="124"/>
+      <c r="AR33" s="124"/>
+      <c r="AS33" s="124"/>
+      <c r="AT33" s="124"/>
+      <c r="AU33" s="124"/>
+      <c r="AV33" s="124"/>
+      <c r="AW33" s="124"/>
+      <c r="AX33" s="124"/>
+      <c r="AY33" s="124"/>
+      <c r="AZ33" s="125"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="55">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="100"/>
-      <c r="AG34" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="120"/>
-      <c r="AR34" s="120"/>
-      <c r="AS34" s="120"/>
-      <c r="AT34" s="120"/>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="120"/>
-      <c r="AX34" s="120"/>
-      <c r="AY34" s="120"/>
-      <c r="AZ34" s="121"/>
+      <c r="B34" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S34" s="101"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="121"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="121"/>
+      <c r="AL34" s="121"/>
+      <c r="AM34" s="121"/>
+      <c r="AN34" s="122"/>
+      <c r="AO34" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP34" s="124"/>
+      <c r="AQ34" s="124"/>
+      <c r="AR34" s="124"/>
+      <c r="AS34" s="124"/>
+      <c r="AT34" s="124"/>
+      <c r="AU34" s="124"/>
+      <c r="AV34" s="124"/>
+      <c r="AW34" s="124"/>
+      <c r="AX34" s="124"/>
+      <c r="AY34" s="124"/>
+      <c r="AZ34" s="125"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="55">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S35" s="95"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="100"/>
-      <c r="AG35" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH35" s="117"/>
-      <c r="AI35" s="117"/>
-      <c r="AJ35" s="117"/>
-      <c r="AK35" s="117"/>
-      <c r="AL35" s="117"/>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP35" s="120"/>
-      <c r="AQ35" s="120"/>
-      <c r="AR35" s="120"/>
-      <c r="AS35" s="120"/>
-      <c r="AT35" s="120"/>
-      <c r="AU35" s="120"/>
-      <c r="AV35" s="120"/>
-      <c r="AW35" s="120"/>
-      <c r="AX35" s="120"/>
-      <c r="AY35" s="120"/>
-      <c r="AZ35" s="121"/>
+      <c r="B35" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S35" s="101"/>
+      <c r="T35" s="102"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="116"/>
+      <c r="W35" s="116"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="104"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH35" s="121"/>
+      <c r="AI35" s="121"/>
+      <c r="AJ35" s="121"/>
+      <c r="AK35" s="121"/>
+      <c r="AL35" s="121"/>
+      <c r="AM35" s="121"/>
+      <c r="AN35" s="122"/>
+      <c r="AO35" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP35" s="124"/>
+      <c r="AQ35" s="124"/>
+      <c r="AR35" s="124"/>
+      <c r="AS35" s="124"/>
+      <c r="AT35" s="124"/>
+      <c r="AU35" s="124"/>
+      <c r="AV35" s="124"/>
+      <c r="AW35" s="124"/>
+      <c r="AX35" s="124"/>
+      <c r="AY35" s="124"/>
+      <c r="AZ35" s="125"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="55">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S36" s="95"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="115"/>
-      <c r="Y36" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="99"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="100"/>
-      <c r="AG36" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH36" s="117"/>
-      <c r="AI36" s="117"/>
-      <c r="AJ36" s="117"/>
-      <c r="AK36" s="117"/>
-      <c r="AL36" s="117"/>
-      <c r="AM36" s="117"/>
-      <c r="AN36" s="118"/>
-      <c r="AO36" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP36" s="120"/>
-      <c r="AQ36" s="120"/>
-      <c r="AR36" s="120"/>
-      <c r="AS36" s="120"/>
-      <c r="AT36" s="120"/>
-      <c r="AU36" s="120"/>
-      <c r="AV36" s="120"/>
-      <c r="AW36" s="120"/>
-      <c r="AX36" s="120"/>
-      <c r="AY36" s="120"/>
-      <c r="AZ36" s="121"/>
+      <c r="B36" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S36" s="101"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="104"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH36" s="121"/>
+      <c r="AI36" s="121"/>
+      <c r="AJ36" s="121"/>
+      <c r="AK36" s="121"/>
+      <c r="AL36" s="121"/>
+      <c r="AM36" s="121"/>
+      <c r="AN36" s="122"/>
+      <c r="AO36" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP36" s="124"/>
+      <c r="AQ36" s="124"/>
+      <c r="AR36" s="124"/>
+      <c r="AS36" s="124"/>
+      <c r="AT36" s="124"/>
+      <c r="AU36" s="124"/>
+      <c r="AV36" s="124"/>
+      <c r="AW36" s="124"/>
+      <c r="AX36" s="124"/>
+      <c r="AY36" s="124"/>
+      <c r="AZ36" s="125"/>
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="55">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S37" s="95"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="115"/>
-      <c r="Y37" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z37" s="99"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="99"/>
-      <c r="AC37" s="99"/>
-      <c r="AD37" s="99"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="100"/>
-      <c r="AG37" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH37" s="117"/>
-      <c r="AI37" s="117"/>
-      <c r="AJ37" s="117"/>
-      <c r="AK37" s="117"/>
-      <c r="AL37" s="117"/>
-      <c r="AM37" s="117"/>
-      <c r="AN37" s="118"/>
-      <c r="AO37" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP37" s="120"/>
-      <c r="AQ37" s="120"/>
-      <c r="AR37" s="120"/>
-      <c r="AS37" s="120"/>
-      <c r="AT37" s="120"/>
-      <c r="AU37" s="120"/>
-      <c r="AV37" s="120"/>
-      <c r="AW37" s="120"/>
-      <c r="AX37" s="120"/>
-      <c r="AY37" s="120"/>
-      <c r="AZ37" s="121"/>
+      <c r="B37" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S37" s="101"/>
+      <c r="T37" s="102"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z37" s="104"/>
+      <c r="AA37" s="104"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="104"/>
+      <c r="AD37" s="104"/>
+      <c r="AE37" s="104"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH37" s="121"/>
+      <c r="AI37" s="121"/>
+      <c r="AJ37" s="121"/>
+      <c r="AK37" s="121"/>
+      <c r="AL37" s="121"/>
+      <c r="AM37" s="121"/>
+      <c r="AN37" s="122"/>
+      <c r="AO37" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP37" s="124"/>
+      <c r="AQ37" s="124"/>
+      <c r="AR37" s="124"/>
+      <c r="AS37" s="124"/>
+      <c r="AT37" s="124"/>
+      <c r="AU37" s="124"/>
+      <c r="AV37" s="124"/>
+      <c r="AW37" s="124"/>
+      <c r="AX37" s="124"/>
+      <c r="AY37" s="124"/>
+      <c r="AZ37" s="125"/>
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="55">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S38" s="95"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="115"/>
-      <c r="Y38" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z38" s="99"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="99"/>
-      <c r="AC38" s="99"/>
-      <c r="AD38" s="99"/>
-      <c r="AE38" s="99"/>
-      <c r="AF38" s="100"/>
-      <c r="AG38" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH38" s="117"/>
-      <c r="AI38" s="117"/>
-      <c r="AJ38" s="117"/>
-      <c r="AK38" s="117"/>
-      <c r="AL38" s="117"/>
-      <c r="AM38" s="117"/>
-      <c r="AN38" s="118"/>
-      <c r="AO38" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP38" s="120"/>
-      <c r="AQ38" s="120"/>
-      <c r="AR38" s="120"/>
-      <c r="AS38" s="120"/>
-      <c r="AT38" s="120"/>
-      <c r="AU38" s="120"/>
-      <c r="AV38" s="120"/>
-      <c r="AW38" s="120"/>
-      <c r="AX38" s="120"/>
-      <c r="AY38" s="120"/>
-      <c r="AZ38" s="121"/>
+      <c r="B38" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S38" s="101"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="116"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="104"/>
+      <c r="AE38" s="104"/>
+      <c r="AF38" s="105"/>
+      <c r="AG38" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH38" s="121"/>
+      <c r="AI38" s="121"/>
+      <c r="AJ38" s="121"/>
+      <c r="AK38" s="121"/>
+      <c r="AL38" s="121"/>
+      <c r="AM38" s="121"/>
+      <c r="AN38" s="122"/>
+      <c r="AO38" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP38" s="124"/>
+      <c r="AQ38" s="124"/>
+      <c r="AR38" s="124"/>
+      <c r="AS38" s="124"/>
+      <c r="AT38" s="124"/>
+      <c r="AU38" s="124"/>
+      <c r="AV38" s="124"/>
+      <c r="AW38" s="124"/>
+      <c r="AX38" s="124"/>
+      <c r="AY38" s="124"/>
+      <c r="AZ38" s="125"/>
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="55">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S39" s="95"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="115"/>
-      <c r="Y39" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z39" s="99"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="99"/>
-      <c r="AC39" s="99"/>
-      <c r="AD39" s="99"/>
-      <c r="AE39" s="99"/>
-      <c r="AF39" s="100"/>
-      <c r="AG39" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH39" s="117"/>
-      <c r="AI39" s="117"/>
-      <c r="AJ39" s="117"/>
-      <c r="AK39" s="117"/>
-      <c r="AL39" s="117"/>
-      <c r="AM39" s="117"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP39" s="120"/>
-      <c r="AQ39" s="120"/>
-      <c r="AR39" s="120"/>
-      <c r="AS39" s="120"/>
-      <c r="AT39" s="120"/>
-      <c r="AU39" s="120"/>
-      <c r="AV39" s="120"/>
-      <c r="AW39" s="120"/>
-      <c r="AX39" s="120"/>
-      <c r="AY39" s="120"/>
-      <c r="AZ39" s="121"/>
+      <c r="B39" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S39" s="101"/>
+      <c r="T39" s="102"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="116"/>
+      <c r="W39" s="116"/>
+      <c r="X39" s="117"/>
+      <c r="Y39" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="104"/>
+      <c r="AE39" s="104"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH39" s="121"/>
+      <c r="AI39" s="121"/>
+      <c r="AJ39" s="121"/>
+      <c r="AK39" s="121"/>
+      <c r="AL39" s="121"/>
+      <c r="AM39" s="121"/>
+      <c r="AN39" s="122"/>
+      <c r="AO39" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP39" s="124"/>
+      <c r="AQ39" s="124"/>
+      <c r="AR39" s="124"/>
+      <c r="AS39" s="124"/>
+      <c r="AT39" s="124"/>
+      <c r="AU39" s="124"/>
+      <c r="AV39" s="124"/>
+      <c r="AW39" s="124"/>
+      <c r="AX39" s="124"/>
+      <c r="AY39" s="124"/>
+      <c r="AZ39" s="125"/>
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="55">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S40" s="95"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="99"/>
-      <c r="AC40" s="99"/>
-      <c r="AD40" s="99"/>
-      <c r="AE40" s="99"/>
-      <c r="AF40" s="100"/>
-      <c r="AG40" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH40" s="117"/>
-      <c r="AI40" s="117"/>
-      <c r="AJ40" s="117"/>
-      <c r="AK40" s="117"/>
-      <c r="AL40" s="117"/>
-      <c r="AM40" s="117"/>
-      <c r="AN40" s="118"/>
-      <c r="AO40" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP40" s="120"/>
-      <c r="AQ40" s="120"/>
-      <c r="AR40" s="120"/>
-      <c r="AS40" s="120"/>
-      <c r="AT40" s="120"/>
-      <c r="AU40" s="120"/>
-      <c r="AV40" s="120"/>
-      <c r="AW40" s="120"/>
-      <c r="AX40" s="120"/>
-      <c r="AY40" s="120"/>
-      <c r="AZ40" s="121"/>
+      <c r="B40" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S40" s="101"/>
+      <c r="T40" s="102"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="116"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="117"/>
+      <c r="Y40" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="104"/>
+      <c r="AE40" s="104"/>
+      <c r="AF40" s="105"/>
+      <c r="AG40" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH40" s="121"/>
+      <c r="AI40" s="121"/>
+      <c r="AJ40" s="121"/>
+      <c r="AK40" s="121"/>
+      <c r="AL40" s="121"/>
+      <c r="AM40" s="121"/>
+      <c r="AN40" s="122"/>
+      <c r="AO40" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP40" s="124"/>
+      <c r="AQ40" s="124"/>
+      <c r="AR40" s="124"/>
+      <c r="AS40" s="124"/>
+      <c r="AT40" s="124"/>
+      <c r="AU40" s="124"/>
+      <c r="AV40" s="124"/>
+      <c r="AW40" s="124"/>
+      <c r="AX40" s="124"/>
+      <c r="AY40" s="124"/>
+      <c r="AZ40" s="125"/>
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="55">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S41" s="95"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="115"/>
-      <c r="Y41" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z41" s="99"/>
-      <c r="AA41" s="99"/>
-      <c r="AB41" s="99"/>
-      <c r="AC41" s="99"/>
-      <c r="AD41" s="99"/>
-      <c r="AE41" s="99"/>
-      <c r="AF41" s="100"/>
-      <c r="AG41" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH41" s="117"/>
-      <c r="AI41" s="117"/>
-      <c r="AJ41" s="117"/>
-      <c r="AK41" s="117"/>
-      <c r="AL41" s="117"/>
-      <c r="AM41" s="117"/>
-      <c r="AN41" s="118"/>
-      <c r="AO41" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP41" s="120"/>
-      <c r="AQ41" s="120"/>
-      <c r="AR41" s="120"/>
-      <c r="AS41" s="120"/>
-      <c r="AT41" s="120"/>
-      <c r="AU41" s="120"/>
-      <c r="AV41" s="120"/>
-      <c r="AW41" s="120"/>
-      <c r="AX41" s="120"/>
-      <c r="AY41" s="120"/>
-      <c r="AZ41" s="121"/>
+      <c r="B41" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S41" s="101"/>
+      <c r="T41" s="102"/>
+      <c r="U41" s="115"/>
+      <c r="V41" s="116"/>
+      <c r="W41" s="116"/>
+      <c r="X41" s="117"/>
+      <c r="Y41" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH41" s="121"/>
+      <c r="AI41" s="121"/>
+      <c r="AJ41" s="121"/>
+      <c r="AK41" s="121"/>
+      <c r="AL41" s="121"/>
+      <c r="AM41" s="121"/>
+      <c r="AN41" s="122"/>
+      <c r="AO41" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP41" s="124"/>
+      <c r="AQ41" s="124"/>
+      <c r="AR41" s="124"/>
+      <c r="AS41" s="124"/>
+      <c r="AT41" s="124"/>
+      <c r="AU41" s="124"/>
+      <c r="AV41" s="124"/>
+      <c r="AW41" s="124"/>
+      <c r="AX41" s="124"/>
+      <c r="AY41" s="124"/>
+      <c r="AZ41" s="125"/>
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="55">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S42" s="95"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="115"/>
-      <c r="Y42" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z42" s="99"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="99"/>
-      <c r="AC42" s="99"/>
-      <c r="AD42" s="99"/>
-      <c r="AE42" s="99"/>
-      <c r="AF42" s="100"/>
-      <c r="AG42" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH42" s="117"/>
-      <c r="AI42" s="117"/>
-      <c r="AJ42" s="117"/>
-      <c r="AK42" s="117"/>
-      <c r="AL42" s="117"/>
-      <c r="AM42" s="117"/>
-      <c r="AN42" s="118"/>
-      <c r="AO42" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP42" s="120"/>
-      <c r="AQ42" s="120"/>
-      <c r="AR42" s="120"/>
-      <c r="AS42" s="120"/>
-      <c r="AT42" s="120"/>
-      <c r="AU42" s="120"/>
-      <c r="AV42" s="120"/>
-      <c r="AW42" s="120"/>
-      <c r="AX42" s="120"/>
-      <c r="AY42" s="120"/>
-      <c r="AZ42" s="121"/>
+      <c r="B42" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S42" s="101"/>
+      <c r="T42" s="102"/>
+      <c r="U42" s="115"/>
+      <c r="V42" s="116"/>
+      <c r="W42" s="116"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="105"/>
+      <c r="AG42" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH42" s="121"/>
+      <c r="AI42" s="121"/>
+      <c r="AJ42" s="121"/>
+      <c r="AK42" s="121"/>
+      <c r="AL42" s="121"/>
+      <c r="AM42" s="121"/>
+      <c r="AN42" s="122"/>
+      <c r="AO42" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP42" s="124"/>
+      <c r="AQ42" s="124"/>
+      <c r="AR42" s="124"/>
+      <c r="AS42" s="124"/>
+      <c r="AT42" s="124"/>
+      <c r="AU42" s="124"/>
+      <c r="AV42" s="124"/>
+      <c r="AW42" s="124"/>
+      <c r="AX42" s="124"/>
+      <c r="AY42" s="124"/>
+      <c r="AZ42" s="125"/>
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="55">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S43" s="95"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="115"/>
-      <c r="Y43" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z43" s="99"/>
-      <c r="AA43" s="99"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="99"/>
-      <c r="AD43" s="99"/>
-      <c r="AE43" s="99"/>
-      <c r="AF43" s="100"/>
-      <c r="AG43" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH43" s="117"/>
-      <c r="AI43" s="117"/>
-      <c r="AJ43" s="117"/>
-      <c r="AK43" s="117"/>
-      <c r="AL43" s="117"/>
-      <c r="AM43" s="117"/>
-      <c r="AN43" s="118"/>
-      <c r="AO43" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP43" s="120"/>
-      <c r="AQ43" s="120"/>
-      <c r="AR43" s="120"/>
-      <c r="AS43" s="120"/>
-      <c r="AT43" s="120"/>
-      <c r="AU43" s="120"/>
-      <c r="AV43" s="120"/>
-      <c r="AW43" s="120"/>
-      <c r="AX43" s="120"/>
-      <c r="AY43" s="120"/>
-      <c r="AZ43" s="121"/>
+      <c r="B43" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S43" s="101"/>
+      <c r="T43" s="102"/>
+      <c r="U43" s="115"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="105"/>
+      <c r="AG43" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH43" s="121"/>
+      <c r="AI43" s="121"/>
+      <c r="AJ43" s="121"/>
+      <c r="AK43" s="121"/>
+      <c r="AL43" s="121"/>
+      <c r="AM43" s="121"/>
+      <c r="AN43" s="122"/>
+      <c r="AO43" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP43" s="124"/>
+      <c r="AQ43" s="124"/>
+      <c r="AR43" s="124"/>
+      <c r="AS43" s="124"/>
+      <c r="AT43" s="124"/>
+      <c r="AU43" s="124"/>
+      <c r="AV43" s="124"/>
+      <c r="AW43" s="124"/>
+      <c r="AX43" s="124"/>
+      <c r="AY43" s="124"/>
+      <c r="AZ43" s="125"/>
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="55">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S44" s="95"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="114"/>
-      <c r="X44" s="115"/>
-      <c r="Y44" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z44" s="99"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="99"/>
-      <c r="AE44" s="99"/>
-      <c r="AF44" s="100"/>
-      <c r="AG44" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH44" s="117"/>
-      <c r="AI44" s="117"/>
-      <c r="AJ44" s="117"/>
-      <c r="AK44" s="117"/>
-      <c r="AL44" s="117"/>
-      <c r="AM44" s="117"/>
-      <c r="AN44" s="118"/>
-      <c r="AO44" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP44" s="120"/>
-      <c r="AQ44" s="120"/>
-      <c r="AR44" s="120"/>
-      <c r="AS44" s="120"/>
-      <c r="AT44" s="120"/>
-      <c r="AU44" s="120"/>
-      <c r="AV44" s="120"/>
-      <c r="AW44" s="120"/>
-      <c r="AX44" s="120"/>
-      <c r="AY44" s="120"/>
-      <c r="AZ44" s="121"/>
+      <c r="B44" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S44" s="101"/>
+      <c r="T44" s="102"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="116"/>
+      <c r="W44" s="116"/>
+      <c r="X44" s="117"/>
+      <c r="Y44" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="105"/>
+      <c r="AG44" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH44" s="121"/>
+      <c r="AI44" s="121"/>
+      <c r="AJ44" s="121"/>
+      <c r="AK44" s="121"/>
+      <c r="AL44" s="121"/>
+      <c r="AM44" s="121"/>
+      <c r="AN44" s="122"/>
+      <c r="AO44" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP44" s="124"/>
+      <c r="AQ44" s="124"/>
+      <c r="AR44" s="124"/>
+      <c r="AS44" s="124"/>
+      <c r="AT44" s="124"/>
+      <c r="AU44" s="124"/>
+      <c r="AV44" s="124"/>
+      <c r="AW44" s="124"/>
+      <c r="AX44" s="124"/>
+      <c r="AY44" s="124"/>
+      <c r="AZ44" s="125"/>
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="55">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S45" s="95"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="114"/>
-      <c r="W45" s="114"/>
-      <c r="X45" s="115"/>
-      <c r="Y45" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="99"/>
-      <c r="AD45" s="99"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="100"/>
-      <c r="AG45" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH45" s="117"/>
-      <c r="AI45" s="117"/>
-      <c r="AJ45" s="117"/>
-      <c r="AK45" s="117"/>
-      <c r="AL45" s="117"/>
-      <c r="AM45" s="117"/>
-      <c r="AN45" s="118"/>
-      <c r="AO45" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP45" s="120"/>
-      <c r="AQ45" s="120"/>
-      <c r="AR45" s="120"/>
-      <c r="AS45" s="120"/>
-      <c r="AT45" s="120"/>
-      <c r="AU45" s="120"/>
-      <c r="AV45" s="120"/>
-      <c r="AW45" s="120"/>
-      <c r="AX45" s="120"/>
-      <c r="AY45" s="120"/>
-      <c r="AZ45" s="121"/>
+      <c r="B45" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S45" s="101"/>
+      <c r="T45" s="102"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="116"/>
+      <c r="W45" s="116"/>
+      <c r="X45" s="117"/>
+      <c r="Y45" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="105"/>
+      <c r="AG45" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH45" s="121"/>
+      <c r="AI45" s="121"/>
+      <c r="AJ45" s="121"/>
+      <c r="AK45" s="121"/>
+      <c r="AL45" s="121"/>
+      <c r="AM45" s="121"/>
+      <c r="AN45" s="122"/>
+      <c r="AO45" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP45" s="124"/>
+      <c r="AQ45" s="124"/>
+      <c r="AR45" s="124"/>
+      <c r="AS45" s="124"/>
+      <c r="AT45" s="124"/>
+      <c r="AU45" s="124"/>
+      <c r="AV45" s="124"/>
+      <c r="AW45" s="124"/>
+      <c r="AX45" s="124"/>
+      <c r="AY45" s="124"/>
+      <c r="AZ45" s="125"/>
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="55">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S46" s="95"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="115"/>
-      <c r="Y46" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z46" s="99"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="99"/>
-      <c r="AC46" s="99"/>
-      <c r="AD46" s="99"/>
-      <c r="AE46" s="99"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH46" s="117"/>
-      <c r="AI46" s="117"/>
-      <c r="AJ46" s="117"/>
-      <c r="AK46" s="117"/>
-      <c r="AL46" s="117"/>
-      <c r="AM46" s="117"/>
-      <c r="AN46" s="118"/>
-      <c r="AO46" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP46" s="120"/>
-      <c r="AQ46" s="120"/>
-      <c r="AR46" s="120"/>
-      <c r="AS46" s="120"/>
-      <c r="AT46" s="120"/>
-      <c r="AU46" s="120"/>
-      <c r="AV46" s="120"/>
-      <c r="AW46" s="120"/>
-      <c r="AX46" s="120"/>
-      <c r="AY46" s="120"/>
-      <c r="AZ46" s="121"/>
+      <c r="B46" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S46" s="101"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="115"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="117"/>
+      <c r="Y46" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="104"/>
+      <c r="AF46" s="105"/>
+      <c r="AG46" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH46" s="121"/>
+      <c r="AI46" s="121"/>
+      <c r="AJ46" s="121"/>
+      <c r="AK46" s="121"/>
+      <c r="AL46" s="121"/>
+      <c r="AM46" s="121"/>
+      <c r="AN46" s="122"/>
+      <c r="AO46" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP46" s="124"/>
+      <c r="AQ46" s="124"/>
+      <c r="AR46" s="124"/>
+      <c r="AS46" s="124"/>
+      <c r="AT46" s="124"/>
+      <c r="AU46" s="124"/>
+      <c r="AV46" s="124"/>
+      <c r="AW46" s="124"/>
+      <c r="AX46" s="124"/>
+      <c r="AY46" s="124"/>
+      <c r="AZ46" s="125"/>
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="55">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="S47" s="95"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="113"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="115"/>
-      <c r="Y47" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="99"/>
-      <c r="AC47" s="99"/>
-      <c r="AD47" s="99"/>
-      <c r="AE47" s="99"/>
-      <c r="AF47" s="100"/>
-      <c r="AG47" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH47" s="117"/>
-      <c r="AI47" s="117"/>
-      <c r="AJ47" s="117"/>
-      <c r="AK47" s="117"/>
-      <c r="AL47" s="117"/>
-      <c r="AM47" s="117"/>
-      <c r="AN47" s="118"/>
-      <c r="AO47" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP47" s="120"/>
-      <c r="AQ47" s="120"/>
-      <c r="AR47" s="120"/>
-      <c r="AS47" s="120"/>
-      <c r="AT47" s="120"/>
-      <c r="AU47" s="120"/>
-      <c r="AV47" s="120"/>
-      <c r="AW47" s="120"/>
-      <c r="AX47" s="120"/>
-      <c r="AY47" s="120"/>
-      <c r="AZ47" s="121"/>
+      <c r="B47" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S47" s="101"/>
+      <c r="T47" s="102"/>
+      <c r="U47" s="115"/>
+      <c r="V47" s="116"/>
+      <c r="W47" s="116"/>
+      <c r="X47" s="117"/>
+      <c r="Y47" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z47" s="104"/>
+      <c r="AA47" s="104"/>
+      <c r="AB47" s="104"/>
+      <c r="AC47" s="104"/>
+      <c r="AD47" s="104"/>
+      <c r="AE47" s="104"/>
+      <c r="AF47" s="105"/>
+      <c r="AG47" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH47" s="121"/>
+      <c r="AI47" s="121"/>
+      <c r="AJ47" s="121"/>
+      <c r="AK47" s="121"/>
+      <c r="AL47" s="121"/>
+      <c r="AM47" s="121"/>
+      <c r="AN47" s="122"/>
+      <c r="AO47" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP47" s="124"/>
+      <c r="AQ47" s="124"/>
+      <c r="AR47" s="124"/>
+      <c r="AS47" s="124"/>
+      <c r="AT47" s="124"/>
+      <c r="AU47" s="124"/>
+      <c r="AV47" s="124"/>
+      <c r="AW47" s="124"/>
+      <c r="AX47" s="124"/>
+      <c r="AY47" s="124"/>
+      <c r="AZ47" s="125"/>
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="55">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="97"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="96"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="115"/>
-      <c r="Y48" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z48" s="127"/>
-      <c r="AA48" s="127"/>
-      <c r="AB48" s="127"/>
-      <c r="AC48" s="127"/>
-      <c r="AD48" s="127"/>
-      <c r="AE48" s="127"/>
-      <c r="AF48" s="128"/>
-      <c r="AG48" s="116"/>
-      <c r="AH48" s="117"/>
-      <c r="AI48" s="117"/>
-      <c r="AJ48" s="117"/>
-      <c r="AK48" s="117"/>
-      <c r="AL48" s="117"/>
-      <c r="AM48" s="117"/>
-      <c r="AN48" s="118"/>
-      <c r="AO48" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP48" s="120"/>
-      <c r="AQ48" s="120"/>
-      <c r="AR48" s="120"/>
-      <c r="AS48" s="120"/>
-      <c r="AT48" s="120"/>
-      <c r="AU48" s="120"/>
-      <c r="AV48" s="120"/>
-      <c r="AW48" s="120"/>
-      <c r="AX48" s="120"/>
-      <c r="AY48" s="120"/>
-      <c r="AZ48" s="121"/>
+      <c r="B48" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="102"/>
+      <c r="U48" s="115"/>
+      <c r="V48" s="116"/>
+      <c r="W48" s="116"/>
+      <c r="X48" s="117"/>
+      <c r="Y48" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z48" s="118"/>
+      <c r="AA48" s="118"/>
+      <c r="AB48" s="118"/>
+      <c r="AC48" s="118"/>
+      <c r="AD48" s="118"/>
+      <c r="AE48" s="118"/>
+      <c r="AF48" s="119"/>
+      <c r="AG48" s="120"/>
+      <c r="AH48" s="121"/>
+      <c r="AI48" s="121"/>
+      <c r="AJ48" s="121"/>
+      <c r="AK48" s="121"/>
+      <c r="AL48" s="121"/>
+      <c r="AM48" s="121"/>
+      <c r="AN48" s="122"/>
+      <c r="AO48" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP48" s="124"/>
+      <c r="AQ48" s="124"/>
+      <c r="AR48" s="124"/>
+      <c r="AS48" s="124"/>
+      <c r="AT48" s="124"/>
+      <c r="AU48" s="124"/>
+      <c r="AV48" s="124"/>
+      <c r="AW48" s="124"/>
+      <c r="AX48" s="124"/>
+      <c r="AY48" s="124"/>
+      <c r="AZ48" s="125"/>
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="55">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S49" s="95"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="115"/>
-      <c r="Y49" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z49" s="127"/>
-      <c r="AA49" s="127"/>
-      <c r="AB49" s="127"/>
-      <c r="AC49" s="127"/>
-      <c r="AD49" s="127"/>
-      <c r="AE49" s="127"/>
-      <c r="AF49" s="128"/>
-      <c r="AG49" s="122"/>
-      <c r="AH49" s="123"/>
-      <c r="AI49" s="123"/>
-      <c r="AJ49" s="123"/>
-      <c r="AK49" s="123"/>
-      <c r="AL49" s="123"/>
-      <c r="AM49" s="123"/>
-      <c r="AN49" s="124"/>
-      <c r="AO49" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP49" s="120"/>
-      <c r="AQ49" s="120"/>
-      <c r="AR49" s="120"/>
-      <c r="AS49" s="120"/>
-      <c r="AT49" s="120"/>
-      <c r="AU49" s="120"/>
-      <c r="AV49" s="120"/>
-      <c r="AW49" s="120"/>
-      <c r="AX49" s="120"/>
-      <c r="AY49" s="120"/>
-      <c r="AZ49" s="121"/>
+      <c r="B49" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="S49" s="101"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="115"/>
+      <c r="V49" s="116"/>
+      <c r="W49" s="116"/>
+      <c r="X49" s="117"/>
+      <c r="Y49" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z49" s="118"/>
+      <c r="AA49" s="118"/>
+      <c r="AB49" s="118"/>
+      <c r="AC49" s="118"/>
+      <c r="AD49" s="118"/>
+      <c r="AE49" s="118"/>
+      <c r="AF49" s="119"/>
+      <c r="AG49" s="126"/>
+      <c r="AH49" s="127"/>
+      <c r="AI49" s="127"/>
+      <c r="AJ49" s="127"/>
+      <c r="AK49" s="127"/>
+      <c r="AL49" s="127"/>
+      <c r="AM49" s="127"/>
+      <c r="AN49" s="128"/>
+      <c r="AO49" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP49" s="124"/>
+      <c r="AQ49" s="124"/>
+      <c r="AR49" s="124"/>
+      <c r="AS49" s="124"/>
+      <c r="AT49" s="124"/>
+      <c r="AU49" s="124"/>
+      <c r="AV49" s="124"/>
+      <c r="AW49" s="124"/>
+      <c r="AX49" s="124"/>
+      <c r="AY49" s="124"/>
+      <c r="AZ49" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:X48"/>
-    <mergeCell ref="Y48:AF48"/>
-    <mergeCell ref="AG48:AN48"/>
-    <mergeCell ref="AO48:AZ48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y49:AF49"/>
-    <mergeCell ref="AG49:AN49"/>
-    <mergeCell ref="AO49:AZ49"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="Y46:AF46"/>
-    <mergeCell ref="AG46:AN46"/>
-    <mergeCell ref="AO46:AZ46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="Y47:AF47"/>
-    <mergeCell ref="AG47:AN47"/>
-    <mergeCell ref="AO47:AZ47"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Y44:AF44"/>
-    <mergeCell ref="AG44:AN44"/>
-    <mergeCell ref="AO44:AZ44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="Y45:AF45"/>
-    <mergeCell ref="AG45:AN45"/>
-    <mergeCell ref="AO45:AZ45"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="Y43:AF43"/>
-    <mergeCell ref="AG43:AN43"/>
-    <mergeCell ref="AO43:AZ43"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Y42:AF42"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AF40"/>
-    <mergeCell ref="AG40:AN40"/>
-    <mergeCell ref="AO40:AZ40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="Y41:AF41"/>
-    <mergeCell ref="AG41:AN41"/>
-    <mergeCell ref="AO41:AZ41"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Y38:AF38"/>
-    <mergeCell ref="AG38:AN38"/>
-    <mergeCell ref="AO38:AZ38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y39:AF39"/>
-    <mergeCell ref="AG39:AN39"/>
-    <mergeCell ref="AO39:AZ39"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Y37:AF37"/>
+    <mergeCell ref="AG37:AN37"/>
+    <mergeCell ref="AO37:AZ37"/>
+    <mergeCell ref="AG42:AN42"/>
+    <mergeCell ref="AO42:AZ42"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
     <mergeCell ref="R11:T11"/>
@@ -12497,191 +12589,99 @@
     <mergeCell ref="U11:X11"/>
     <mergeCell ref="Y11:AF11"/>
     <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:AF37"/>
-    <mergeCell ref="AG37:AN37"/>
-    <mergeCell ref="AO37:AZ37"/>
-    <mergeCell ref="AG42:AN42"/>
-    <mergeCell ref="AO42:AZ42"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="Y38:AF38"/>
+    <mergeCell ref="AG38:AN38"/>
+    <mergeCell ref="AO38:AZ38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="Y39:AF39"/>
+    <mergeCell ref="AG39:AN39"/>
+    <mergeCell ref="AO39:AZ39"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="Y40:AF40"/>
+    <mergeCell ref="AG40:AN40"/>
+    <mergeCell ref="AO40:AZ40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="Y41:AF41"/>
+    <mergeCell ref="AG41:AN41"/>
+    <mergeCell ref="AO41:AZ41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="Y43:AF43"/>
+    <mergeCell ref="AG43:AN43"/>
+    <mergeCell ref="AO43:AZ43"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Y42:AF42"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Y44:AF44"/>
+    <mergeCell ref="AG44:AN44"/>
+    <mergeCell ref="AO44:AZ44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="Y45:AF45"/>
+    <mergeCell ref="AG45:AN45"/>
+    <mergeCell ref="AO45:AZ45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="Y46:AF46"/>
+    <mergeCell ref="AG46:AN46"/>
+    <mergeCell ref="AO46:AZ46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:X47"/>
+    <mergeCell ref="Y47:AF47"/>
+    <mergeCell ref="AG47:AN47"/>
+    <mergeCell ref="AO47:AZ47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="Y48:AF48"/>
+    <mergeCell ref="AG48:AN48"/>
+    <mergeCell ref="AO48:AZ48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y49:AF49"/>
+    <mergeCell ref="AG49:AN49"/>
+    <mergeCell ref="AO49:AZ49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="90" windowWidth="20115" windowHeight="12510"/>
+    <workbookView xWindow="2805" yWindow="600" windowWidth="20115" windowHeight="10845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="220">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -965,19 +965,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Test1.csv【1行目】講演会番号：QQQQ、トップツアー精算年月：ZZZZ</t>
-    <rPh sb="12" eb="13">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>請求テーブル．講演会番号 = ファイル．Field1</t>
     <rPh sb="0" eb="2">
       <t>セイキュウ</t>
@@ -985,13 +972,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>請求テーブル．トップツアー精算年月 = ファイル．Field2</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"精算承認結果ファイル取込"</t>
     <rPh sb="1" eb="3">
       <t>セイサン</t>
@@ -1073,13 +1053,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>41120200小計</t>
-    <rPh sb="8" eb="10">
-      <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JR代（非課税）41120200</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -1129,32 +1102,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケ実車料金(非課税)41120200</t>
-    <rPh sb="4" eb="6">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ精算代金(非課税)41120200</t>
-    <rPh sb="4" eb="6">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ダイキン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非課税金額合計</t>
     <rPh sb="0" eb="3">
       <t>ヒカゼイ</t>
@@ -1204,40 +1151,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケ精算代金(課税)</t>
-    <rPh sb="4" eb="6">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ダイキン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ保存場所URL</t>
-    <rPh sb="4" eb="6">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KOUENKAI_NO</t>
-  </si>
-  <si>
-    <t>Field3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Field4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新条件に合致するデータの項目を受信ファイルの値で更新する。</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1296,42 +1209,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会場費（非課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機材費（非課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>飲食費（非課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他立替等（非課税）991330401</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タテカエ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>991330401小計</t>
-    <rPh sb="9" eb="11">
-      <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>運営費（非課税）41120200</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会場費（課税）991330401</t>
     <rPh sb="0" eb="2">
       <t>カイジョウ</t>
@@ -1339,14 +1216,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>機材費（課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>飲食費（課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>社員の国内旅費(JR/航空券)</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1379,175 +1248,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケ発券手数料(非課税)41120200</t>
-    <rPh sb="4" eb="6">
-      <t>ハッケン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>宿泊費（非課税）41120200</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEISAN_YM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SHOUNIN_KUBUN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SHOUNIN_DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KAIJOHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INSHOKUHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTHER_TATEKAE_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_991330401_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JINKENHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_41120200_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HOTELHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JR_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AIR_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTHER_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HOTEL_COMMISSION_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_COMMISSION_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_SEISAN_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_41120200_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KAIJOUHI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INSHOKUHI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_991330401_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEIKYU_NO_TOPTOUR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_SEISAN_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_TICKET_URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MR_JR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MR_HOTEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEND_FLAG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TTANTO_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KIZAIHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UNEIHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KIZAIHI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INPUT_DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INPUT_USER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UPDATE_USER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログテーブルにデータ登録内容(更新件数等)を登録。</t>
     <rPh sb="10" eb="12">
       <t>トウロク</t>
@@ -1577,6 +1277,520 @@
     <rPh sb="8" eb="10">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求テーブル．TOP請求書番号 = ファイル．Field3</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>セイキュウショバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Test1.csv【1行目】講演会番号：QQQQ、TOP請求書番号：ZZZZ</t>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払番号</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SHIHARAI_NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Field5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Field4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払番号</t>
+    <rPh sb="0" eb="4">
+      <t>シハライバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEI_991330401_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEI_991330401_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KOUENKAI_NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEISAN_YM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SHOUNIN_KUBUN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SHOUNIN_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KAIJOHI_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>KIZAIHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_TF</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INSHOKUHI_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HOTELHI_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JR_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AIR_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OTHER_TRAFFIC_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAXI_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HOTEL_COMMISSION_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAXI_COMMISSION_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAXI_SEISAN_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JINKENHI_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OTHER_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KANRIHI_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEI_41120200_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEI_TF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KAIJOUHI_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>KIZAIHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_T</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INSHOKUHI_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JINKENHI_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OTHER_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KANRIHI_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEI_41120200_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEI_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEIKYU_NO_TOPTOUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAXI_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAXI_SEISAN_T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEISANSHO_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAXI_TICKET_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEISAN_KANRYO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MR_JR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MR_HOTEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEND_FLAG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TTANTO_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NPUT_DATE</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NPUT_USER</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PDATE_DATE</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PDATE_USER</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会場費（非課税）991330401</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機材費（非課税）991330401</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飲食費（非課税）991330401</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>991330401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（非課税）小計</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>宿泊費（非課税）4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1120200</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクシー実車料金(非課税)41120200</t>
+    <rPh sb="4" eb="6">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒカゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>タクチケ発券手数料(非課税)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>41120200</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヒカゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ精算手数料 (非課税)41120200</t>
+    <rPh sb="4" eb="6">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒカゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他費（非課税）41120200</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理費（非課税）41120200</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>41120200(非課税)小計</t>
+    <rPh sb="9" eb="12">
+      <t>ヒカゼイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機材費（課税）991330401</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飲食費（課税）991330401</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>991330401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（課税）小計</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>カゼイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人件費（課税）41120200</t>
+    <rPh sb="0" eb="2">
+      <t>ジンケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他費（課税）41120200</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理費（課税）41120200</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>41120200(課税)小計</t>
+    <rPh sb="9" eb="11">
+      <t>カゼイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ精算手数料(課税)</t>
+    <rPh sb="4" eb="6">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算書保存場所URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ管理表保存場所URL</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算完了</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Field2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1584,7 +1798,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1662,6 +1876,12 @@
     <font>
       <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1923,7 +2143,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2097,58 +2317,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,6 +2362,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2203,32 +2398,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2247,6 +2452,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -2257,8 +2465,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2269,23 +2483,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2295,14 +2509,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2316,7 +2522,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2337,8 +2543,26 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2655,7 +2879,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -2665,202 +2889,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="57" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="65" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="88"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="81"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="62" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="65" t="s">
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="57" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="68">
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="82">
         <v>41557</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="57" t="s">
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58" t="s">
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="57" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="57" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="57" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="68">
-        <v>41562</v>
-      </c>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="57" t="s">
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="82">
+        <v>41570</v>
+      </c>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="58" t="s">
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2872,66 +3096,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="71" t="s">
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="75" t="s">
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="76"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="62"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="9" t="s">
@@ -6157,7 +6381,7 @@
       <c r="K69" s="1"/>
       <c r="M69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -6316,7 +6540,7 @@
       <c r="M72" s="14"/>
       <c r="N72" s="2"/>
       <c r="P72" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -6367,7 +6591,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -6549,7 +6773,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -6814,7 +7038,7 @@
       <c r="M82" s="14"/>
       <c r="N82" s="2"/>
       <c r="Q82" s="15" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -6971,7 +7195,7 @@
       <c r="M85" s="14"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
@@ -7024,7 +7248,7 @@
       <c r="M86" s="14"/>
       <c r="N86" s="2"/>
       <c r="P86" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
@@ -7229,7 +7453,7 @@
         <v>25</v>
       </c>
       <c r="M90" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
@@ -7385,7 +7609,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="2"/>
       <c r="O93" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
@@ -8301,6 +8525,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8317,16 +8551,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8352,198 +8576,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="57" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="65" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="88"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="81"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="62" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="65" t="s">
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="57" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="68">
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="82">
         <v>41557</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="57" t="s">
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58" t="s">
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="57" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="57" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="57" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="57" t="s">
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8563,72 +8787,72 @@
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="108"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="107" t="s">
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="92" t="s">
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="96"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="95" t="s">
+      <c r="W8" s="102"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="96"/>
-      <c r="AD8" s="96"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="92" t="s">
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="95" t="s">
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="94"/>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="112"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
@@ -8761,29 +8985,29 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="98" t="s">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="96"/>
       <c r="U11" s="19"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
@@ -8826,31 +9050,31 @@
         <f t="shared" ref="A12:A17" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="98" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="106" t="s">
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="S12" s="101"/>
-      <c r="T12" s="102"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
       <c r="U12" s="19"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -8874,7 +9098,7 @@
       <c r="AM12" s="25"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -8893,31 +9117,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="98" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="106" t="s">
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="101"/>
-      <c r="T13" s="102"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="96"/>
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -8958,31 +9182,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="98" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="106" t="s">
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="101"/>
-      <c r="T14" s="102"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="96"/>
       <c r="U14" s="27"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -9004,7 +9228,7 @@
       <c r="AM14" s="25"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AP14" s="20"/>
       <c r="AQ14" s="20"/>
@@ -9023,29 +9247,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="98" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="27"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -9066,49 +9290,49 @@
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="26"/>
-      <c r="AO15" s="89" t="s">
+      <c r="AO15" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="90"/>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="91"/>
+      <c r="AP15" s="109"/>
+      <c r="AQ15" s="109"/>
+      <c r="AR15" s="109"/>
+      <c r="AS15" s="109"/>
+      <c r="AT15" s="109"/>
+      <c r="AU15" s="109"/>
+      <c r="AV15" s="109"/>
+      <c r="AW15" s="109"/>
+      <c r="AX15" s="109"/>
+      <c r="AY15" s="109"/>
+      <c r="AZ15" s="110"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="98" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
       <c r="U16" s="27"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -9149,29 +9373,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="98" t="s">
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="102"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
       <c r="U17" s="27"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -9209,21 +9433,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
@@ -9240,26 +9469,21 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
     <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9273,9 +9497,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AZ49"/>
+  <dimension ref="A1:AZ55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -9285,202 +9509,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="57" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="65" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="88"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="81"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="62" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="65" t="s">
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="57" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="68">
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="82">
         <v>41557</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="57" t="s">
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58" t="s">
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="57" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="57" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="57" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="68">
-        <v>41558</v>
-      </c>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="57" t="s">
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="82">
+        <v>41570</v>
+      </c>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="58" t="s">
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -9495,77 +9719,77 @@
         <v>101</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="108"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="107" t="s">
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="92" t="s">
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="96"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="96"/>
-      <c r="AD8" s="96"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="92" t="s">
+      <c r="W8" s="102"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="94"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="112"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
@@ -9698,2879 +9922,3242 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="121"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AS11" s="124"/>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="124"/>
-      <c r="AZ11" s="125"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="95"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH11" s="117"/>
+      <c r="AI11" s="117"/>
+      <c r="AJ11" s="117"/>
+      <c r="AK11" s="117"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="120"/>
+      <c r="AR11" s="120"/>
+      <c r="AS11" s="120"/>
+      <c r="AT11" s="120"/>
+      <c r="AU11" s="120"/>
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
+      <c r="AX11" s="120"/>
+      <c r="AY11" s="120"/>
+      <c r="AZ11" s="121"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="55">
         <f>ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S12" s="101"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="124"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="124"/>
-      <c r="AV12" s="124"/>
-      <c r="AW12" s="124"/>
-      <c r="AX12" s="124"/>
-      <c r="AY12" s="124"/>
-      <c r="AZ12" s="125"/>
+      <c r="B12" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH12" s="123"/>
+      <c r="AI12" s="123"/>
+      <c r="AJ12" s="123"/>
+      <c r="AK12" s="123"/>
+      <c r="AL12" s="123"/>
+      <c r="AM12" s="123"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP12" s="120"/>
+      <c r="AQ12" s="120"/>
+      <c r="AR12" s="120"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="120"/>
+      <c r="AU12" s="120"/>
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
+      <c r="AX12" s="120"/>
+      <c r="AY12" s="120"/>
+      <c r="AZ12" s="121"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="55">
-        <f t="shared" ref="A13:A49" si="0">ROW()-10</f>
+        <f>ROW()-10</f>
         <v>3</v>
       </c>
-      <c r="B13" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="101"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="127"/>
-      <c r="AL13" s="127"/>
-      <c r="AM13" s="127"/>
-      <c r="AN13" s="128"/>
-      <c r="AO13" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP13" s="124"/>
-      <c r="AQ13" s="124"/>
-      <c r="AR13" s="124"/>
-      <c r="AS13" s="124"/>
-      <c r="AT13" s="124"/>
-      <c r="AU13" s="124"/>
-      <c r="AV13" s="124"/>
-      <c r="AW13" s="124"/>
-      <c r="AX13" s="124"/>
-      <c r="AY13" s="124"/>
-      <c r="AZ13" s="125"/>
+      <c r="B13" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S13" s="95"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="117"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="118"/>
+      <c r="AO13" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="120"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
+      <c r="AT13" s="120"/>
+      <c r="AU13" s="120"/>
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="120"/>
+      <c r="AY13" s="120"/>
+      <c r="AZ13" s="121"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A14:A55" si="0">ROW()-10</f>
         <v>4</v>
       </c>
-      <c r="B14" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="106" t="s">
+      <c r="B14" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="101"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="126" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="127"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="127"/>
-      <c r="AM14" s="127"/>
-      <c r="AN14" s="128"/>
-      <c r="AO14" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP14" s="124"/>
-      <c r="AQ14" s="124"/>
-      <c r="AR14" s="124"/>
-      <c r="AS14" s="124"/>
-      <c r="AT14" s="124"/>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="124"/>
-      <c r="AZ14" s="125"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="120"/>
+      <c r="AY14" s="120"/>
+      <c r="AZ14" s="121"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="121"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="122"/>
-      <c r="AO15" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="124"/>
-      <c r="AS15" s="124"/>
-      <c r="AT15" s="124"/>
-      <c r="AU15" s="124"/>
-      <c r="AV15" s="124"/>
-      <c r="AW15" s="124"/>
-      <c r="AX15" s="124"/>
-      <c r="AY15" s="124"/>
-      <c r="AZ15" s="125"/>
+      <c r="B15" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="120"/>
+      <c r="AZ15" s="121"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="99" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="124"/>
-      <c r="AR16" s="124"/>
-      <c r="AS16" s="124"/>
-      <c r="AT16" s="124"/>
-      <c r="AU16" s="124"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
-      <c r="AX16" s="124"/>
-      <c r="AY16" s="124"/>
-      <c r="AZ16" s="125"/>
+      <c r="B16" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="121"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S17" s="101"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="121"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="124"/>
-      <c r="AR17" s="124"/>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
-      <c r="AX17" s="124"/>
-      <c r="AY17" s="124"/>
-      <c r="AZ17" s="125"/>
+      <c r="B17" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="120"/>
+      <c r="AU17" s="120"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="120"/>
+      <c r="AY17" s="120"/>
+      <c r="AZ17" s="121"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S18" s="101"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="121"/>
-      <c r="AK18" s="121"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="121"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="124"/>
-      <c r="AU18" s="124"/>
-      <c r="AV18" s="124"/>
-      <c r="AW18" s="124"/>
-      <c r="AX18" s="124"/>
-      <c r="AY18" s="124"/>
-      <c r="AZ18" s="125"/>
+      <c r="B18" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S18" s="95"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP18" s="120"/>
+      <c r="AQ18" s="120"/>
+      <c r="AR18" s="120"/>
+      <c r="AS18" s="120"/>
+      <c r="AT18" s="120"/>
+      <c r="AU18" s="120"/>
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="120"/>
+      <c r="AX18" s="120"/>
+      <c r="AY18" s="120"/>
+      <c r="AZ18" s="121"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="56">
+      <c r="A19" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="99" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" s="101"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="121"/>
-      <c r="AK19" s="121"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="121"/>
-      <c r="AN19" s="122"/>
-      <c r="AO19" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP19" s="124"/>
-      <c r="AQ19" s="124"/>
-      <c r="AR19" s="124"/>
-      <c r="AS19" s="124"/>
-      <c r="AT19" s="124"/>
-      <c r="AU19" s="124"/>
-      <c r="AV19" s="124"/>
-      <c r="AW19" s="124"/>
-      <c r="AX19" s="124"/>
-      <c r="AY19" s="124"/>
-      <c r="AZ19" s="125"/>
+      <c r="B19" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="120"/>
+      <c r="AR19" s="120"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="120"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
+      <c r="AX19" s="120"/>
+      <c r="AY19" s="120"/>
+      <c r="AZ19" s="121"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="55">
+      <c r="A20" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S20" s="101"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="121"/>
-      <c r="AK20" s="121"/>
-      <c r="AL20" s="121"/>
-      <c r="AM20" s="121"/>
-      <c r="AN20" s="122"/>
-      <c r="AO20" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="124"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="124"/>
-      <c r="AT20" s="124"/>
-      <c r="AU20" s="124"/>
-      <c r="AV20" s="124"/>
-      <c r="AW20" s="124"/>
-      <c r="AX20" s="124"/>
-      <c r="AY20" s="124"/>
-      <c r="AZ20" s="125"/>
+      <c r="B20" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" s="95"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="120"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="121"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="55">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S21" s="101"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="105"/>
-      <c r="AG21" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="121"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="121"/>
-      <c r="AN21" s="122"/>
-      <c r="AO21" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="124"/>
-      <c r="AS21" s="124"/>
-      <c r="AT21" s="124"/>
-      <c r="AU21" s="124"/>
-      <c r="AV21" s="124"/>
-      <c r="AW21" s="124"/>
-      <c r="AX21" s="124"/>
-      <c r="AY21" s="124"/>
-      <c r="AZ21" s="125"/>
+      <c r="B21" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S21" s="95"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="115"/>
+      <c r="Y21" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="118"/>
+      <c r="AO21" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
+      <c r="AX21" s="120"/>
+      <c r="AY21" s="120"/>
+      <c r="AZ21" s="121"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="55">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S22" s="101"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="105"/>
-      <c r="AG22" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="121"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="121"/>
-      <c r="AN22" s="122"/>
-      <c r="AO22" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP22" s="124"/>
-      <c r="AQ22" s="124"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
-      <c r="AU22" s="124"/>
-      <c r="AV22" s="124"/>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="124"/>
-      <c r="AZ22" s="125"/>
+      <c r="B22" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S22" s="95"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP22" s="120"/>
+      <c r="AQ22" s="120"/>
+      <c r="AR22" s="120"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="120"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
+      <c r="AX22" s="120"/>
+      <c r="AY22" s="120"/>
+      <c r="AZ22" s="121"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="55">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="121"/>
-      <c r="AJ23" s="121"/>
-      <c r="AK23" s="121"/>
-      <c r="AL23" s="121"/>
-      <c r="AM23" s="121"/>
-      <c r="AN23" s="122"/>
-      <c r="AO23" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP23" s="124"/>
-      <c r="AQ23" s="124"/>
-      <c r="AR23" s="124"/>
-      <c r="AS23" s="124"/>
-      <c r="AT23" s="124"/>
-      <c r="AU23" s="124"/>
-      <c r="AV23" s="124"/>
-      <c r="AW23" s="124"/>
-      <c r="AX23" s="124"/>
-      <c r="AY23" s="124"/>
-      <c r="AZ23" s="125"/>
+      <c r="B23" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S23" s="95"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="120"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="120"/>
+      <c r="AU23" s="120"/>
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
+      <c r="AX23" s="120"/>
+      <c r="AY23" s="120"/>
+      <c r="AZ23" s="121"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="55">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S24" s="101"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="121"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="121"/>
-      <c r="AL24" s="121"/>
-      <c r="AM24" s="121"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP24" s="124"/>
-      <c r="AQ24" s="124"/>
-      <c r="AR24" s="124"/>
-      <c r="AS24" s="124"/>
-      <c r="AT24" s="124"/>
-      <c r="AU24" s="124"/>
-      <c r="AV24" s="124"/>
-      <c r="AW24" s="124"/>
-      <c r="AX24" s="124"/>
-      <c r="AY24" s="124"/>
-      <c r="AZ24" s="125"/>
+      <c r="B24" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S24" s="95"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="120"/>
+      <c r="AR24" s="120"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
+      <c r="AX24" s="120"/>
+      <c r="AY24" s="120"/>
+      <c r="AZ24" s="121"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="55">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH25" s="121"/>
-      <c r="AI25" s="121"/>
-      <c r="AJ25" s="121"/>
-      <c r="AK25" s="121"/>
-      <c r="AL25" s="121"/>
-      <c r="AM25" s="121"/>
-      <c r="AN25" s="122"/>
-      <c r="AO25" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP25" s="124"/>
-      <c r="AQ25" s="124"/>
-      <c r="AR25" s="124"/>
-      <c r="AS25" s="124"/>
-      <c r="AT25" s="124"/>
-      <c r="AU25" s="124"/>
-      <c r="AV25" s="124"/>
-      <c r="AW25" s="124"/>
-      <c r="AX25" s="124"/>
-      <c r="AY25" s="124"/>
-      <c r="AZ25" s="125"/>
+      <c r="B25" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S25" s="95"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="115"/>
+      <c r="Y25" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="118"/>
+      <c r="AO25" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="120"/>
+      <c r="AR25" s="120"/>
+      <c r="AS25" s="120"/>
+      <c r="AT25" s="120"/>
+      <c r="AU25" s="120"/>
+      <c r="AV25" s="120"/>
+      <c r="AW25" s="120"/>
+      <c r="AX25" s="120"/>
+      <c r="AY25" s="120"/>
+      <c r="AZ25" s="121"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="55">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="121"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="121"/>
-      <c r="AL26" s="121"/>
-      <c r="AM26" s="121"/>
-      <c r="AN26" s="122"/>
-      <c r="AO26" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP26" s="124"/>
-      <c r="AQ26" s="124"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="124"/>
-      <c r="AT26" s="124"/>
-      <c r="AU26" s="124"/>
-      <c r="AV26" s="124"/>
-      <c r="AW26" s="124"/>
-      <c r="AX26" s="124"/>
-      <c r="AY26" s="124"/>
-      <c r="AZ26" s="125"/>
+      <c r="B26" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S26" s="95"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH26" s="117"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="120"/>
+      <c r="AR26" s="120"/>
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="120"/>
+      <c r="AU26" s="120"/>
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="120"/>
+      <c r="AX26" s="120"/>
+      <c r="AY26" s="120"/>
+      <c r="AZ26" s="121"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="55">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S27" s="101"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="121"/>
-      <c r="AM27" s="121"/>
-      <c r="AN27" s="122"/>
-      <c r="AO27" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="124"/>
-      <c r="AR27" s="124"/>
-      <c r="AS27" s="124"/>
-      <c r="AT27" s="124"/>
-      <c r="AU27" s="124"/>
-      <c r="AV27" s="124"/>
-      <c r="AW27" s="124"/>
-      <c r="AX27" s="124"/>
-      <c r="AY27" s="124"/>
-      <c r="AZ27" s="125"/>
+      <c r="B27" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S27" s="95"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH27" s="117"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="117"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="120"/>
+      <c r="AR27" s="120"/>
+      <c r="AS27" s="120"/>
+      <c r="AT27" s="120"/>
+      <c r="AU27" s="120"/>
+      <c r="AV27" s="120"/>
+      <c r="AW27" s="120"/>
+      <c r="AX27" s="120"/>
+      <c r="AY27" s="120"/>
+      <c r="AZ27" s="121"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="55">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S28" s="101"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="121"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="121"/>
-      <c r="AM28" s="121"/>
-      <c r="AN28" s="122"/>
-      <c r="AO28" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP28" s="124"/>
-      <c r="AQ28" s="124"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="124"/>
-      <c r="AT28" s="124"/>
-      <c r="AU28" s="124"/>
-      <c r="AV28" s="124"/>
-      <c r="AW28" s="124"/>
-      <c r="AX28" s="124"/>
-      <c r="AY28" s="124"/>
-      <c r="AZ28" s="125"/>
+      <c r="B28" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S28" s="95"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="115"/>
+      <c r="Y28" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH28" s="117"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="117"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="118"/>
+      <c r="AO28" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="120"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="120"/>
+      <c r="AY28" s="120"/>
+      <c r="AZ28" s="121"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="55">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S29" s="101"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="121"/>
-      <c r="AJ29" s="121"/>
-      <c r="AK29" s="121"/>
-      <c r="AL29" s="121"/>
-      <c r="AM29" s="121"/>
-      <c r="AN29" s="122"/>
-      <c r="AO29" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP29" s="124"/>
-      <c r="AQ29" s="124"/>
-      <c r="AR29" s="124"/>
-      <c r="AS29" s="124"/>
-      <c r="AT29" s="124"/>
-      <c r="AU29" s="124"/>
-      <c r="AV29" s="124"/>
-      <c r="AW29" s="124"/>
-      <c r="AX29" s="124"/>
-      <c r="AY29" s="124"/>
-      <c r="AZ29" s="125"/>
+      <c r="B29" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S29" s="95"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="115"/>
+      <c r="Y29" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH29" s="117"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="117"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="117"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="118"/>
+      <c r="AO29" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="120"/>
+      <c r="AR29" s="120"/>
+      <c r="AS29" s="120"/>
+      <c r="AT29" s="120"/>
+      <c r="AU29" s="120"/>
+      <c r="AV29" s="120"/>
+      <c r="AW29" s="120"/>
+      <c r="AX29" s="120"/>
+      <c r="AY29" s="120"/>
+      <c r="AZ29" s="121"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="55">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S30" s="101"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="122"/>
-      <c r="AO30" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP30" s="124"/>
-      <c r="AQ30" s="124"/>
-      <c r="AR30" s="124"/>
-      <c r="AS30" s="124"/>
-      <c r="AT30" s="124"/>
-      <c r="AU30" s="124"/>
-      <c r="AV30" s="124"/>
-      <c r="AW30" s="124"/>
-      <c r="AX30" s="124"/>
-      <c r="AY30" s="124"/>
-      <c r="AZ30" s="125"/>
+      <c r="B30" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S30" s="95"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="115"/>
+      <c r="Y30" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH30" s="117"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="117"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="117"/>
+      <c r="AN30" s="118"/>
+      <c r="AO30" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP30" s="120"/>
+      <c r="AQ30" s="120"/>
+      <c r="AR30" s="120"/>
+      <c r="AS30" s="120"/>
+      <c r="AT30" s="120"/>
+      <c r="AU30" s="120"/>
+      <c r="AV30" s="120"/>
+      <c r="AW30" s="120"/>
+      <c r="AX30" s="120"/>
+      <c r="AY30" s="120"/>
+      <c r="AZ30" s="121"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="55">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S31" s="101"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="104"/>
-      <c r="AF31" s="105"/>
-      <c r="AG31" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="121"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="121"/>
-      <c r="AN31" s="122"/>
-      <c r="AO31" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP31" s="124"/>
-      <c r="AQ31" s="124"/>
-      <c r="AR31" s="124"/>
-      <c r="AS31" s="124"/>
-      <c r="AT31" s="124"/>
-      <c r="AU31" s="124"/>
-      <c r="AV31" s="124"/>
-      <c r="AW31" s="124"/>
-      <c r="AX31" s="124"/>
-      <c r="AY31" s="124"/>
-      <c r="AZ31" s="125"/>
+      <c r="B31" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S31" s="95"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="99"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH31" s="117"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="117"/>
+      <c r="AK31" s="117"/>
+      <c r="AL31" s="117"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="118"/>
+      <c r="AO31" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="120"/>
+      <c r="AR31" s="120"/>
+      <c r="AS31" s="120"/>
+      <c r="AT31" s="120"/>
+      <c r="AU31" s="120"/>
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="120"/>
+      <c r="AX31" s="120"/>
+      <c r="AY31" s="120"/>
+      <c r="AZ31" s="121"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="55">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S32" s="101"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="104"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="121"/>
-      <c r="AM32" s="121"/>
-      <c r="AN32" s="122"/>
-      <c r="AO32" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP32" s="124"/>
-      <c r="AQ32" s="124"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="124"/>
-      <c r="AT32" s="124"/>
-      <c r="AU32" s="124"/>
-      <c r="AV32" s="124"/>
-      <c r="AW32" s="124"/>
-      <c r="AX32" s="124"/>
-      <c r="AY32" s="124"/>
-      <c r="AZ32" s="125"/>
+      <c r="B32" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S32" s="95"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH32" s="117"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="118"/>
+      <c r="AO32" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="120"/>
+      <c r="AR32" s="120"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="120"/>
+      <c r="AU32" s="120"/>
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="120"/>
+      <c r="AX32" s="120"/>
+      <c r="AY32" s="120"/>
+      <c r="AZ32" s="121"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="55">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="99" t="s">
-        <v>183</v>
-      </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S33" s="101"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="121"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="121"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="122"/>
-      <c r="AO33" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP33" s="124"/>
-      <c r="AQ33" s="124"/>
-      <c r="AR33" s="124"/>
-      <c r="AS33" s="124"/>
-      <c r="AT33" s="124"/>
-      <c r="AU33" s="124"/>
-      <c r="AV33" s="124"/>
-      <c r="AW33" s="124"/>
-      <c r="AX33" s="124"/>
-      <c r="AY33" s="124"/>
-      <c r="AZ33" s="125"/>
+      <c r="B33" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S33" s="95"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH33" s="117"/>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="117"/>
+      <c r="AL33" s="117"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="118"/>
+      <c r="AO33" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP33" s="120"/>
+      <c r="AQ33" s="120"/>
+      <c r="AR33" s="120"/>
+      <c r="AS33" s="120"/>
+      <c r="AT33" s="120"/>
+      <c r="AU33" s="120"/>
+      <c r="AV33" s="120"/>
+      <c r="AW33" s="120"/>
+      <c r="AX33" s="120"/>
+      <c r="AY33" s="120"/>
+      <c r="AZ33" s="121"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="55">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S34" s="101"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z34" s="104"/>
-      <c r="AA34" s="104"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="104"/>
-      <c r="AF34" s="105"/>
-      <c r="AG34" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH34" s="121"/>
-      <c r="AI34" s="121"/>
-      <c r="AJ34" s="121"/>
-      <c r="AK34" s="121"/>
-      <c r="AL34" s="121"/>
-      <c r="AM34" s="121"/>
-      <c r="AN34" s="122"/>
-      <c r="AO34" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP34" s="124"/>
-      <c r="AQ34" s="124"/>
-      <c r="AR34" s="124"/>
-      <c r="AS34" s="124"/>
-      <c r="AT34" s="124"/>
-      <c r="AU34" s="124"/>
-      <c r="AV34" s="124"/>
-      <c r="AW34" s="124"/>
-      <c r="AX34" s="124"/>
-      <c r="AY34" s="124"/>
-      <c r="AZ34" s="125"/>
+      <c r="B34" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S34" s="95"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH34" s="117"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="118"/>
+      <c r="AO34" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="120"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="120"/>
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="120"/>
+      <c r="AX34" s="120"/>
+      <c r="AY34" s="120"/>
+      <c r="AZ34" s="121"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="55">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S35" s="101"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="116"/>
-      <c r="W35" s="116"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="104"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="104"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH35" s="121"/>
-      <c r="AI35" s="121"/>
-      <c r="AJ35" s="121"/>
-      <c r="AK35" s="121"/>
-      <c r="AL35" s="121"/>
-      <c r="AM35" s="121"/>
-      <c r="AN35" s="122"/>
-      <c r="AO35" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP35" s="124"/>
-      <c r="AQ35" s="124"/>
-      <c r="AR35" s="124"/>
-      <c r="AS35" s="124"/>
-      <c r="AT35" s="124"/>
-      <c r="AU35" s="124"/>
-      <c r="AV35" s="124"/>
-      <c r="AW35" s="124"/>
-      <c r="AX35" s="124"/>
-      <c r="AY35" s="124"/>
-      <c r="AZ35" s="125"/>
+      <c r="B35" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S35" s="95"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH35" s="117"/>
+      <c r="AI35" s="117"/>
+      <c r="AJ35" s="117"/>
+      <c r="AK35" s="117"/>
+      <c r="AL35" s="117"/>
+      <c r="AM35" s="117"/>
+      <c r="AN35" s="118"/>
+      <c r="AO35" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP35" s="120"/>
+      <c r="AQ35" s="120"/>
+      <c r="AR35" s="120"/>
+      <c r="AS35" s="120"/>
+      <c r="AT35" s="120"/>
+      <c r="AU35" s="120"/>
+      <c r="AV35" s="120"/>
+      <c r="AW35" s="120"/>
+      <c r="AX35" s="120"/>
+      <c r="AY35" s="120"/>
+      <c r="AZ35" s="121"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="55">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S36" s="101"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="115"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="117"/>
-      <c r="Y36" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="104"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="104"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH36" s="121"/>
-      <c r="AI36" s="121"/>
-      <c r="AJ36" s="121"/>
-      <c r="AK36" s="121"/>
-      <c r="AL36" s="121"/>
-      <c r="AM36" s="121"/>
-      <c r="AN36" s="122"/>
-      <c r="AO36" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP36" s="124"/>
-      <c r="AQ36" s="124"/>
-      <c r="AR36" s="124"/>
-      <c r="AS36" s="124"/>
-      <c r="AT36" s="124"/>
-      <c r="AU36" s="124"/>
-      <c r="AV36" s="124"/>
-      <c r="AW36" s="124"/>
-      <c r="AX36" s="124"/>
-      <c r="AY36" s="124"/>
-      <c r="AZ36" s="125"/>
+      <c r="B36" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S36" s="95"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="99"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="99"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH36" s="117"/>
+      <c r="AI36" s="117"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="117"/>
+      <c r="AL36" s="117"/>
+      <c r="AM36" s="117"/>
+      <c r="AN36" s="118"/>
+      <c r="AO36" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP36" s="120"/>
+      <c r="AQ36" s="120"/>
+      <c r="AR36" s="120"/>
+      <c r="AS36" s="120"/>
+      <c r="AT36" s="120"/>
+      <c r="AU36" s="120"/>
+      <c r="AV36" s="120"/>
+      <c r="AW36" s="120"/>
+      <c r="AX36" s="120"/>
+      <c r="AY36" s="120"/>
+      <c r="AZ36" s="121"/>
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="55">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S37" s="101"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="115"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z37" s="104"/>
-      <c r="AA37" s="104"/>
-      <c r="AB37" s="104"/>
-      <c r="AC37" s="104"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="104"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH37" s="121"/>
-      <c r="AI37" s="121"/>
-      <c r="AJ37" s="121"/>
-      <c r="AK37" s="121"/>
-      <c r="AL37" s="121"/>
-      <c r="AM37" s="121"/>
-      <c r="AN37" s="122"/>
-      <c r="AO37" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP37" s="124"/>
-      <c r="AQ37" s="124"/>
-      <c r="AR37" s="124"/>
-      <c r="AS37" s="124"/>
-      <c r="AT37" s="124"/>
-      <c r="AU37" s="124"/>
-      <c r="AV37" s="124"/>
-      <c r="AW37" s="124"/>
-      <c r="AX37" s="124"/>
-      <c r="AY37" s="124"/>
-      <c r="AZ37" s="125"/>
+      <c r="B37" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S37" s="95"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="99"/>
+      <c r="AB37" s="99"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="99"/>
+      <c r="AE37" s="99"/>
+      <c r="AF37" s="100"/>
+      <c r="AG37" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH37" s="117"/>
+      <c r="AI37" s="117"/>
+      <c r="AJ37" s="117"/>
+      <c r="AK37" s="117"/>
+      <c r="AL37" s="117"/>
+      <c r="AM37" s="117"/>
+      <c r="AN37" s="118"/>
+      <c r="AO37" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP37" s="120"/>
+      <c r="AQ37" s="120"/>
+      <c r="AR37" s="120"/>
+      <c r="AS37" s="120"/>
+      <c r="AT37" s="120"/>
+      <c r="AU37" s="120"/>
+      <c r="AV37" s="120"/>
+      <c r="AW37" s="120"/>
+      <c r="AX37" s="120"/>
+      <c r="AY37" s="120"/>
+      <c r="AZ37" s="121"/>
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="55">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S38" s="101"/>
-      <c r="T38" s="102"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="104"/>
-      <c r="AB38" s="104"/>
-      <c r="AC38" s="104"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="105"/>
-      <c r="AG38" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH38" s="121"/>
-      <c r="AI38" s="121"/>
-      <c r="AJ38" s="121"/>
-      <c r="AK38" s="121"/>
-      <c r="AL38" s="121"/>
-      <c r="AM38" s="121"/>
-      <c r="AN38" s="122"/>
-      <c r="AO38" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP38" s="124"/>
-      <c r="AQ38" s="124"/>
-      <c r="AR38" s="124"/>
-      <c r="AS38" s="124"/>
-      <c r="AT38" s="124"/>
-      <c r="AU38" s="124"/>
-      <c r="AV38" s="124"/>
-      <c r="AW38" s="124"/>
-      <c r="AX38" s="124"/>
-      <c r="AY38" s="124"/>
-      <c r="AZ38" s="125"/>
+      <c r="B38" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S38" s="95"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="115"/>
+      <c r="Y38" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z38" s="99"/>
+      <c r="AA38" s="99"/>
+      <c r="AB38" s="99"/>
+      <c r="AC38" s="99"/>
+      <c r="AD38" s="99"/>
+      <c r="AE38" s="99"/>
+      <c r="AF38" s="100"/>
+      <c r="AG38" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH38" s="117"/>
+      <c r="AI38" s="117"/>
+      <c r="AJ38" s="117"/>
+      <c r="AK38" s="117"/>
+      <c r="AL38" s="117"/>
+      <c r="AM38" s="117"/>
+      <c r="AN38" s="118"/>
+      <c r="AO38" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP38" s="120"/>
+      <c r="AQ38" s="120"/>
+      <c r="AR38" s="120"/>
+      <c r="AS38" s="120"/>
+      <c r="AT38" s="120"/>
+      <c r="AU38" s="120"/>
+      <c r="AV38" s="120"/>
+      <c r="AW38" s="120"/>
+      <c r="AX38" s="120"/>
+      <c r="AY38" s="120"/>
+      <c r="AZ38" s="121"/>
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="55">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S39" s="101"/>
-      <c r="T39" s="102"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="117"/>
-      <c r="Y39" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="104"/>
-      <c r="AB39" s="104"/>
-      <c r="AC39" s="104"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="104"/>
-      <c r="AF39" s="105"/>
-      <c r="AG39" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH39" s="121"/>
-      <c r="AI39" s="121"/>
-      <c r="AJ39" s="121"/>
-      <c r="AK39" s="121"/>
-      <c r="AL39" s="121"/>
-      <c r="AM39" s="121"/>
-      <c r="AN39" s="122"/>
-      <c r="AO39" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP39" s="124"/>
-      <c r="AQ39" s="124"/>
-      <c r="AR39" s="124"/>
-      <c r="AS39" s="124"/>
-      <c r="AT39" s="124"/>
-      <c r="AU39" s="124"/>
-      <c r="AV39" s="124"/>
-      <c r="AW39" s="124"/>
-      <c r="AX39" s="124"/>
-      <c r="AY39" s="124"/>
-      <c r="AZ39" s="125"/>
+      <c r="B39" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S39" s="95"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z39" s="99"/>
+      <c r="AA39" s="99"/>
+      <c r="AB39" s="99"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="99"/>
+      <c r="AE39" s="99"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH39" s="117"/>
+      <c r="AI39" s="117"/>
+      <c r="AJ39" s="117"/>
+      <c r="AK39" s="117"/>
+      <c r="AL39" s="117"/>
+      <c r="AM39" s="117"/>
+      <c r="AN39" s="118"/>
+      <c r="AO39" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP39" s="120"/>
+      <c r="AQ39" s="120"/>
+      <c r="AR39" s="120"/>
+      <c r="AS39" s="120"/>
+      <c r="AT39" s="120"/>
+      <c r="AU39" s="120"/>
+      <c r="AV39" s="120"/>
+      <c r="AW39" s="120"/>
+      <c r="AX39" s="120"/>
+      <c r="AY39" s="120"/>
+      <c r="AZ39" s="121"/>
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="55">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="99" t="s">
-        <v>189</v>
-      </c>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S40" s="101"/>
-      <c r="T40" s="102"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="104"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="104"/>
-      <c r="AF40" s="105"/>
-      <c r="AG40" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH40" s="121"/>
-      <c r="AI40" s="121"/>
-      <c r="AJ40" s="121"/>
-      <c r="AK40" s="121"/>
-      <c r="AL40" s="121"/>
-      <c r="AM40" s="121"/>
-      <c r="AN40" s="122"/>
-      <c r="AO40" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP40" s="124"/>
-      <c r="AQ40" s="124"/>
-      <c r="AR40" s="124"/>
-      <c r="AS40" s="124"/>
-      <c r="AT40" s="124"/>
-      <c r="AU40" s="124"/>
-      <c r="AV40" s="124"/>
-      <c r="AW40" s="124"/>
-      <c r="AX40" s="124"/>
-      <c r="AY40" s="124"/>
-      <c r="AZ40" s="125"/>
+      <c r="B40" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S40" s="95"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="99"/>
+      <c r="AE40" s="99"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH40" s="117"/>
+      <c r="AI40" s="117"/>
+      <c r="AJ40" s="117"/>
+      <c r="AK40" s="117"/>
+      <c r="AL40" s="117"/>
+      <c r="AM40" s="117"/>
+      <c r="AN40" s="118"/>
+      <c r="AO40" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP40" s="120"/>
+      <c r="AQ40" s="120"/>
+      <c r="AR40" s="120"/>
+      <c r="AS40" s="120"/>
+      <c r="AT40" s="120"/>
+      <c r="AU40" s="120"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="120"/>
+      <c r="AY40" s="120"/>
+      <c r="AZ40" s="121"/>
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="55">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="99" t="s">
-        <v>190</v>
-      </c>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S41" s="101"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="115"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z41" s="104"/>
-      <c r="AA41" s="104"/>
-      <c r="AB41" s="104"/>
-      <c r="AC41" s="104"/>
-      <c r="AD41" s="104"/>
-      <c r="AE41" s="104"/>
-      <c r="AF41" s="105"/>
-      <c r="AG41" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH41" s="121"/>
-      <c r="AI41" s="121"/>
-      <c r="AJ41" s="121"/>
-      <c r="AK41" s="121"/>
-      <c r="AL41" s="121"/>
-      <c r="AM41" s="121"/>
-      <c r="AN41" s="122"/>
-      <c r="AO41" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP41" s="124"/>
-      <c r="AQ41" s="124"/>
-      <c r="AR41" s="124"/>
-      <c r="AS41" s="124"/>
-      <c r="AT41" s="124"/>
-      <c r="AU41" s="124"/>
-      <c r="AV41" s="124"/>
-      <c r="AW41" s="124"/>
-      <c r="AX41" s="124"/>
-      <c r="AY41" s="124"/>
-      <c r="AZ41" s="125"/>
+      <c r="B41" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S41" s="95"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="115"/>
+      <c r="Y41" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z41" s="99"/>
+      <c r="AA41" s="99"/>
+      <c r="AB41" s="99"/>
+      <c r="AC41" s="99"/>
+      <c r="AD41" s="99"/>
+      <c r="AE41" s="99"/>
+      <c r="AF41" s="100"/>
+      <c r="AG41" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH41" s="117"/>
+      <c r="AI41" s="117"/>
+      <c r="AJ41" s="117"/>
+      <c r="AK41" s="117"/>
+      <c r="AL41" s="117"/>
+      <c r="AM41" s="117"/>
+      <c r="AN41" s="118"/>
+      <c r="AO41" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP41" s="120"/>
+      <c r="AQ41" s="120"/>
+      <c r="AR41" s="120"/>
+      <c r="AS41" s="120"/>
+      <c r="AT41" s="120"/>
+      <c r="AU41" s="120"/>
+      <c r="AV41" s="120"/>
+      <c r="AW41" s="120"/>
+      <c r="AX41" s="120"/>
+      <c r="AY41" s="120"/>
+      <c r="AZ41" s="121"/>
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="55">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S42" s="101"/>
-      <c r="T42" s="102"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="105"/>
-      <c r="AG42" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH42" s="121"/>
-      <c r="AI42" s="121"/>
-      <c r="AJ42" s="121"/>
-      <c r="AK42" s="121"/>
-      <c r="AL42" s="121"/>
-      <c r="AM42" s="121"/>
-      <c r="AN42" s="122"/>
-      <c r="AO42" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP42" s="124"/>
-      <c r="AQ42" s="124"/>
-      <c r="AR42" s="124"/>
-      <c r="AS42" s="124"/>
-      <c r="AT42" s="124"/>
-      <c r="AU42" s="124"/>
-      <c r="AV42" s="124"/>
-      <c r="AW42" s="124"/>
-      <c r="AX42" s="124"/>
-      <c r="AY42" s="124"/>
-      <c r="AZ42" s="125"/>
+      <c r="B42" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S42" s="95"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="115"/>
+      <c r="Y42" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z42" s="99"/>
+      <c r="AA42" s="99"/>
+      <c r="AB42" s="99"/>
+      <c r="AC42" s="99"/>
+      <c r="AD42" s="99"/>
+      <c r="AE42" s="99"/>
+      <c r="AF42" s="100"/>
+      <c r="AG42" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH42" s="117"/>
+      <c r="AI42" s="117"/>
+      <c r="AJ42" s="117"/>
+      <c r="AK42" s="117"/>
+      <c r="AL42" s="117"/>
+      <c r="AM42" s="117"/>
+      <c r="AN42" s="118"/>
+      <c r="AO42" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP42" s="120"/>
+      <c r="AQ42" s="120"/>
+      <c r="AR42" s="120"/>
+      <c r="AS42" s="120"/>
+      <c r="AT42" s="120"/>
+      <c r="AU42" s="120"/>
+      <c r="AV42" s="120"/>
+      <c r="AW42" s="120"/>
+      <c r="AX42" s="120"/>
+      <c r="AY42" s="120"/>
+      <c r="AZ42" s="121"/>
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="55">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S43" s="101"/>
-      <c r="T43" s="102"/>
-      <c r="U43" s="115"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="104"/>
-      <c r="AB43" s="104"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="105"/>
-      <c r="AG43" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH43" s="121"/>
-      <c r="AI43" s="121"/>
-      <c r="AJ43" s="121"/>
-      <c r="AK43" s="121"/>
-      <c r="AL43" s="121"/>
-      <c r="AM43" s="121"/>
-      <c r="AN43" s="122"/>
-      <c r="AO43" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP43" s="124"/>
-      <c r="AQ43" s="124"/>
-      <c r="AR43" s="124"/>
-      <c r="AS43" s="124"/>
-      <c r="AT43" s="124"/>
-      <c r="AU43" s="124"/>
-      <c r="AV43" s="124"/>
-      <c r="AW43" s="124"/>
-      <c r="AX43" s="124"/>
-      <c r="AY43" s="124"/>
-      <c r="AZ43" s="125"/>
+      <c r="B43" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S43" s="95"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="115"/>
+      <c r="Y43" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z43" s="99"/>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="99"/>
+      <c r="AE43" s="99"/>
+      <c r="AF43" s="100"/>
+      <c r="AG43" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH43" s="117"/>
+      <c r="AI43" s="117"/>
+      <c r="AJ43" s="117"/>
+      <c r="AK43" s="117"/>
+      <c r="AL43" s="117"/>
+      <c r="AM43" s="117"/>
+      <c r="AN43" s="118"/>
+      <c r="AO43" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP43" s="120"/>
+      <c r="AQ43" s="120"/>
+      <c r="AR43" s="120"/>
+      <c r="AS43" s="120"/>
+      <c r="AT43" s="120"/>
+      <c r="AU43" s="120"/>
+      <c r="AV43" s="120"/>
+      <c r="AW43" s="120"/>
+      <c r="AX43" s="120"/>
+      <c r="AY43" s="120"/>
+      <c r="AZ43" s="121"/>
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="55">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="99" t="s">
-        <v>193</v>
-      </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S44" s="101"/>
-      <c r="T44" s="102"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="117"/>
-      <c r="Y44" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z44" s="104"/>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="104"/>
-      <c r="AC44" s="104"/>
-      <c r="AD44" s="104"/>
-      <c r="AE44" s="104"/>
-      <c r="AF44" s="105"/>
-      <c r="AG44" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH44" s="121"/>
-      <c r="AI44" s="121"/>
-      <c r="AJ44" s="121"/>
-      <c r="AK44" s="121"/>
-      <c r="AL44" s="121"/>
-      <c r="AM44" s="121"/>
-      <c r="AN44" s="122"/>
-      <c r="AO44" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP44" s="124"/>
-      <c r="AQ44" s="124"/>
-      <c r="AR44" s="124"/>
-      <c r="AS44" s="124"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="124"/>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="125"/>
+      <c r="B44" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S44" s="95"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="115"/>
+      <c r="Y44" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z44" s="99"/>
+      <c r="AA44" s="99"/>
+      <c r="AB44" s="99"/>
+      <c r="AC44" s="99"/>
+      <c r="AD44" s="99"/>
+      <c r="AE44" s="99"/>
+      <c r="AF44" s="100"/>
+      <c r="AG44" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH44" s="117"/>
+      <c r="AI44" s="117"/>
+      <c r="AJ44" s="117"/>
+      <c r="AK44" s="117"/>
+      <c r="AL44" s="117"/>
+      <c r="AM44" s="117"/>
+      <c r="AN44" s="118"/>
+      <c r="AO44" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP44" s="120"/>
+      <c r="AQ44" s="120"/>
+      <c r="AR44" s="120"/>
+      <c r="AS44" s="120"/>
+      <c r="AT44" s="120"/>
+      <c r="AU44" s="120"/>
+      <c r="AV44" s="120"/>
+      <c r="AW44" s="120"/>
+      <c r="AX44" s="120"/>
+      <c r="AY44" s="120"/>
+      <c r="AZ44" s="121"/>
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="55">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="99" t="s">
-        <v>194</v>
-      </c>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S45" s="101"/>
-      <c r="T45" s="102"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="116"/>
-      <c r="X45" s="117"/>
-      <c r="Y45" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="104"/>
-      <c r="AF45" s="105"/>
-      <c r="AG45" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH45" s="121"/>
-      <c r="AI45" s="121"/>
-      <c r="AJ45" s="121"/>
-      <c r="AK45" s="121"/>
-      <c r="AL45" s="121"/>
-      <c r="AM45" s="121"/>
-      <c r="AN45" s="122"/>
-      <c r="AO45" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP45" s="124"/>
-      <c r="AQ45" s="124"/>
-      <c r="AR45" s="124"/>
-      <c r="AS45" s="124"/>
-      <c r="AT45" s="124"/>
-      <c r="AU45" s="124"/>
-      <c r="AV45" s="124"/>
-      <c r="AW45" s="124"/>
-      <c r="AX45" s="124"/>
-      <c r="AY45" s="124"/>
-      <c r="AZ45" s="125"/>
+      <c r="B45" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S45" s="95"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="115"/>
+      <c r="Y45" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="100"/>
+      <c r="AG45" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH45" s="117"/>
+      <c r="AI45" s="117"/>
+      <c r="AJ45" s="117"/>
+      <c r="AK45" s="117"/>
+      <c r="AL45" s="117"/>
+      <c r="AM45" s="117"/>
+      <c r="AN45" s="118"/>
+      <c r="AO45" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP45" s="120"/>
+      <c r="AQ45" s="120"/>
+      <c r="AR45" s="120"/>
+      <c r="AS45" s="120"/>
+      <c r="AT45" s="120"/>
+      <c r="AU45" s="120"/>
+      <c r="AV45" s="120"/>
+      <c r="AW45" s="120"/>
+      <c r="AX45" s="120"/>
+      <c r="AY45" s="120"/>
+      <c r="AZ45" s="121"/>
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="55">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="99"/>
-      <c r="O46" s="99"/>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S46" s="101"/>
-      <c r="T46" s="102"/>
-      <c r="U46" s="115"/>
-      <c r="V46" s="116"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="117"/>
-      <c r="Y46" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="104"/>
-      <c r="AB46" s="104"/>
-      <c r="AC46" s="104"/>
-      <c r="AD46" s="104"/>
-      <c r="AE46" s="104"/>
-      <c r="AF46" s="105"/>
-      <c r="AG46" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH46" s="121"/>
-      <c r="AI46" s="121"/>
-      <c r="AJ46" s="121"/>
-      <c r="AK46" s="121"/>
-      <c r="AL46" s="121"/>
-      <c r="AM46" s="121"/>
-      <c r="AN46" s="122"/>
-      <c r="AO46" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP46" s="124"/>
-      <c r="AQ46" s="124"/>
-      <c r="AR46" s="124"/>
-      <c r="AS46" s="124"/>
-      <c r="AT46" s="124"/>
-      <c r="AU46" s="124"/>
-      <c r="AV46" s="124"/>
-      <c r="AW46" s="124"/>
-      <c r="AX46" s="124"/>
-      <c r="AY46" s="124"/>
-      <c r="AZ46" s="125"/>
+      <c r="B46" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S46" s="95"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="113"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z46" s="99"/>
+      <c r="AA46" s="99"/>
+      <c r="AB46" s="99"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="99"/>
+      <c r="AE46" s="99"/>
+      <c r="AF46" s="100"/>
+      <c r="AG46" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH46" s="117"/>
+      <c r="AI46" s="117"/>
+      <c r="AJ46" s="117"/>
+      <c r="AK46" s="117"/>
+      <c r="AL46" s="117"/>
+      <c r="AM46" s="117"/>
+      <c r="AN46" s="118"/>
+      <c r="AO46" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP46" s="120"/>
+      <c r="AQ46" s="120"/>
+      <c r="AR46" s="120"/>
+      <c r="AS46" s="120"/>
+      <c r="AT46" s="120"/>
+      <c r="AU46" s="120"/>
+      <c r="AV46" s="120"/>
+      <c r="AW46" s="120"/>
+      <c r="AX46" s="120"/>
+      <c r="AY46" s="120"/>
+      <c r="AZ46" s="121"/>
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="55">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="S47" s="101"/>
-      <c r="T47" s="102"/>
-      <c r="U47" s="115"/>
-      <c r="V47" s="116"/>
-      <c r="W47" s="116"/>
-      <c r="X47" s="117"/>
-      <c r="Y47" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z47" s="104"/>
-      <c r="AA47" s="104"/>
-      <c r="AB47" s="104"/>
-      <c r="AC47" s="104"/>
-      <c r="AD47" s="104"/>
-      <c r="AE47" s="104"/>
-      <c r="AF47" s="105"/>
-      <c r="AG47" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH47" s="121"/>
-      <c r="AI47" s="121"/>
-      <c r="AJ47" s="121"/>
-      <c r="AK47" s="121"/>
-      <c r="AL47" s="121"/>
-      <c r="AM47" s="121"/>
-      <c r="AN47" s="122"/>
-      <c r="AO47" s="129" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP47" s="124"/>
-      <c r="AQ47" s="124"/>
-      <c r="AR47" s="124"/>
-      <c r="AS47" s="124"/>
-      <c r="AT47" s="124"/>
-      <c r="AU47" s="124"/>
-      <c r="AV47" s="124"/>
-      <c r="AW47" s="124"/>
-      <c r="AX47" s="124"/>
-      <c r="AY47" s="124"/>
-      <c r="AZ47" s="125"/>
+      <c r="B47" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S47" s="95"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="113"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="114"/>
+      <c r="X47" s="115"/>
+      <c r="Y47" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z47" s="99"/>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="99"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="99"/>
+      <c r="AE47" s="99"/>
+      <c r="AF47" s="100"/>
+      <c r="AG47" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH47" s="117"/>
+      <c r="AI47" s="117"/>
+      <c r="AJ47" s="117"/>
+      <c r="AK47" s="117"/>
+      <c r="AL47" s="117"/>
+      <c r="AM47" s="117"/>
+      <c r="AN47" s="118"/>
+      <c r="AO47" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP47" s="120"/>
+      <c r="AQ47" s="120"/>
+      <c r="AR47" s="120"/>
+      <c r="AS47" s="120"/>
+      <c r="AT47" s="120"/>
+      <c r="AU47" s="120"/>
+      <c r="AV47" s="120"/>
+      <c r="AW47" s="120"/>
+      <c r="AX47" s="120"/>
+      <c r="AY47" s="120"/>
+      <c r="AZ47" s="121"/>
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="55">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="K48" s="99"/>
-      <c r="L48" s="99"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="102"/>
-      <c r="U48" s="115"/>
-      <c r="V48" s="116"/>
-      <c r="W48" s="116"/>
-      <c r="X48" s="117"/>
-      <c r="Y48" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z48" s="118"/>
-      <c r="AA48" s="118"/>
-      <c r="AB48" s="118"/>
-      <c r="AC48" s="118"/>
-      <c r="AD48" s="118"/>
-      <c r="AE48" s="118"/>
-      <c r="AF48" s="119"/>
-      <c r="AG48" s="120"/>
-      <c r="AH48" s="121"/>
-      <c r="AI48" s="121"/>
-      <c r="AJ48" s="121"/>
-      <c r="AK48" s="121"/>
-      <c r="AL48" s="121"/>
-      <c r="AM48" s="121"/>
-      <c r="AN48" s="122"/>
-      <c r="AO48" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP48" s="124"/>
-      <c r="AQ48" s="124"/>
-      <c r="AR48" s="124"/>
-      <c r="AS48" s="124"/>
-      <c r="AT48" s="124"/>
-      <c r="AU48" s="124"/>
-      <c r="AV48" s="124"/>
-      <c r="AW48" s="124"/>
-      <c r="AX48" s="124"/>
-      <c r="AY48" s="124"/>
-      <c r="AZ48" s="125"/>
+      <c r="B48" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S48" s="95"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="115"/>
+      <c r="Y48" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z48" s="99"/>
+      <c r="AA48" s="99"/>
+      <c r="AB48" s="99"/>
+      <c r="AC48" s="99"/>
+      <c r="AD48" s="99"/>
+      <c r="AE48" s="99"/>
+      <c r="AF48" s="100"/>
+      <c r="AG48" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH48" s="117"/>
+      <c r="AI48" s="117"/>
+      <c r="AJ48" s="117"/>
+      <c r="AK48" s="117"/>
+      <c r="AL48" s="117"/>
+      <c r="AM48" s="117"/>
+      <c r="AN48" s="118"/>
+      <c r="AO48" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP48" s="120"/>
+      <c r="AQ48" s="120"/>
+      <c r="AR48" s="120"/>
+      <c r="AS48" s="120"/>
+      <c r="AT48" s="120"/>
+      <c r="AU48" s="120"/>
+      <c r="AV48" s="120"/>
+      <c r="AW48" s="120"/>
+      <c r="AX48" s="120"/>
+      <c r="AY48" s="120"/>
+      <c r="AZ48" s="121"/>
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="55">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S49" s="95"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="115"/>
+      <c r="Y49" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z49" s="99"/>
+      <c r="AA49" s="99"/>
+      <c r="AB49" s="99"/>
+      <c r="AC49" s="99"/>
+      <c r="AD49" s="99"/>
+      <c r="AE49" s="99"/>
+      <c r="AF49" s="100"/>
+      <c r="AG49" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH49" s="117"/>
+      <c r="AI49" s="117"/>
+      <c r="AJ49" s="117"/>
+      <c r="AK49" s="117"/>
+      <c r="AL49" s="117"/>
+      <c r="AM49" s="117"/>
+      <c r="AN49" s="118"/>
+      <c r="AO49" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP49" s="120"/>
+      <c r="AQ49" s="120"/>
+      <c r="AR49" s="120"/>
+      <c r="AS49" s="120"/>
+      <c r="AT49" s="120"/>
+      <c r="AU49" s="120"/>
+      <c r="AV49" s="120"/>
+      <c r="AW49" s="120"/>
+      <c r="AX49" s="120"/>
+      <c r="AY49" s="120"/>
+      <c r="AZ49" s="121"/>
+    </row>
+    <row r="50" spans="1:52">
+      <c r="A50" s="55">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S50" s="95"/>
+      <c r="T50" s="96"/>
+      <c r="U50" s="113"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="115"/>
+      <c r="Y50" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z50" s="99"/>
+      <c r="AA50" s="99"/>
+      <c r="AB50" s="99"/>
+      <c r="AC50" s="99"/>
+      <c r="AD50" s="99"/>
+      <c r="AE50" s="99"/>
+      <c r="AF50" s="100"/>
+      <c r="AG50" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH50" s="117"/>
+      <c r="AI50" s="117"/>
+      <c r="AJ50" s="117"/>
+      <c r="AK50" s="117"/>
+      <c r="AL50" s="117"/>
+      <c r="AM50" s="117"/>
+      <c r="AN50" s="118"/>
+      <c r="AO50" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP50" s="120"/>
+      <c r="AQ50" s="120"/>
+      <c r="AR50" s="120"/>
+      <c r="AS50" s="120"/>
+      <c r="AT50" s="120"/>
+      <c r="AU50" s="120"/>
+      <c r="AV50" s="120"/>
+      <c r="AW50" s="120"/>
+      <c r="AX50" s="120"/>
+      <c r="AY50" s="120"/>
+      <c r="AZ50" s="121"/>
+    </row>
+    <row r="51" spans="1:52">
+      <c r="A51" s="55">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B51" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S51" s="95"/>
+      <c r="T51" s="96"/>
+      <c r="U51" s="113"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="115"/>
+      <c r="Y51" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z51" s="99"/>
+      <c r="AA51" s="99"/>
+      <c r="AB51" s="99"/>
+      <c r="AC51" s="99"/>
+      <c r="AD51" s="99"/>
+      <c r="AE51" s="99"/>
+      <c r="AF51" s="100"/>
+      <c r="AG51" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH51" s="117"/>
+      <c r="AI51" s="117"/>
+      <c r="AJ51" s="117"/>
+      <c r="AK51" s="117"/>
+      <c r="AL51" s="117"/>
+      <c r="AM51" s="117"/>
+      <c r="AN51" s="118"/>
+      <c r="AO51" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP51" s="120"/>
+      <c r="AQ51" s="120"/>
+      <c r="AR51" s="120"/>
+      <c r="AS51" s="120"/>
+      <c r="AT51" s="120"/>
+      <c r="AU51" s="120"/>
+      <c r="AV51" s="120"/>
+      <c r="AW51" s="120"/>
+      <c r="AX51" s="120"/>
+      <c r="AY51" s="120"/>
+      <c r="AZ51" s="121"/>
+    </row>
+    <row r="52" spans="1:52">
+      <c r="A52" s="55">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B52" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S52" s="95"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="113"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="115"/>
+      <c r="Y52" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z52" s="99"/>
+      <c r="AA52" s="99"/>
+      <c r="AB52" s="99"/>
+      <c r="AC52" s="99"/>
+      <c r="AD52" s="99"/>
+      <c r="AE52" s="99"/>
+      <c r="AF52" s="100"/>
+      <c r="AG52" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH52" s="117"/>
+      <c r="AI52" s="117"/>
+      <c r="AJ52" s="117"/>
+      <c r="AK52" s="117"/>
+      <c r="AL52" s="117"/>
+      <c r="AM52" s="117"/>
+      <c r="AN52" s="118"/>
+      <c r="AO52" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP52" s="120"/>
+      <c r="AQ52" s="120"/>
+      <c r="AR52" s="120"/>
+      <c r="AS52" s="120"/>
+      <c r="AT52" s="120"/>
+      <c r="AU52" s="120"/>
+      <c r="AV52" s="120"/>
+      <c r="AW52" s="120"/>
+      <c r="AX52" s="120"/>
+      <c r="AY52" s="120"/>
+      <c r="AZ52" s="121"/>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="A53" s="55">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B53" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="S53" s="95"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="113"/>
+      <c r="V53" s="114"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="115"/>
+      <c r="Y53" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z53" s="99"/>
+      <c r="AA53" s="99"/>
+      <c r="AB53" s="99"/>
+      <c r="AC53" s="99"/>
+      <c r="AD53" s="99"/>
+      <c r="AE53" s="99"/>
+      <c r="AF53" s="100"/>
+      <c r="AG53" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH53" s="117"/>
+      <c r="AI53" s="117"/>
+      <c r="AJ53" s="117"/>
+      <c r="AK53" s="117"/>
+      <c r="AL53" s="117"/>
+      <c r="AM53" s="117"/>
+      <c r="AN53" s="118"/>
+      <c r="AO53" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP53" s="120"/>
+      <c r="AQ53" s="120"/>
+      <c r="AR53" s="120"/>
+      <c r="AS53" s="120"/>
+      <c r="AT53" s="120"/>
+      <c r="AU53" s="120"/>
+      <c r="AV53" s="120"/>
+      <c r="AW53" s="120"/>
+      <c r="AX53" s="120"/>
+      <c r="AY53" s="120"/>
+      <c r="AZ53" s="121"/>
+    </row>
+    <row r="54" spans="1:52">
+      <c r="A54" s="55">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B54" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="97"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="113"/>
+      <c r="V54" s="114"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="115"/>
+      <c r="Y54" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z54" s="127"/>
+      <c r="AA54" s="127"/>
+      <c r="AB54" s="127"/>
+      <c r="AC54" s="127"/>
+      <c r="AD54" s="127"/>
+      <c r="AE54" s="127"/>
+      <c r="AF54" s="128"/>
+      <c r="AG54" s="116"/>
+      <c r="AH54" s="117"/>
+      <c r="AI54" s="117"/>
+      <c r="AJ54" s="117"/>
+      <c r="AK54" s="117"/>
+      <c r="AL54" s="117"/>
+      <c r="AM54" s="117"/>
+      <c r="AN54" s="118"/>
+      <c r="AO54" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP54" s="120"/>
+      <c r="AQ54" s="120"/>
+      <c r="AR54" s="120"/>
+      <c r="AS54" s="120"/>
+      <c r="AT54" s="120"/>
+      <c r="AU54" s="120"/>
+      <c r="AV54" s="120"/>
+      <c r="AW54" s="120"/>
+      <c r="AX54" s="120"/>
+      <c r="AY54" s="120"/>
+      <c r="AZ54" s="121"/>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="A55" s="55">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B55" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="106" t="s">
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="93"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="S49" s="101"/>
-      <c r="T49" s="102"/>
-      <c r="U49" s="115"/>
-      <c r="V49" s="116"/>
-      <c r="W49" s="116"/>
-      <c r="X49" s="117"/>
-      <c r="Y49" s="110" t="s">
+      <c r="S55" s="95"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="113"/>
+      <c r="V55" s="114"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="115"/>
+      <c r="Y55" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="Z49" s="118"/>
-      <c r="AA49" s="118"/>
-      <c r="AB49" s="118"/>
-      <c r="AC49" s="118"/>
-      <c r="AD49" s="118"/>
-      <c r="AE49" s="118"/>
-      <c r="AF49" s="119"/>
-      <c r="AG49" s="126"/>
-      <c r="AH49" s="127"/>
-      <c r="AI49" s="127"/>
-      <c r="AJ49" s="127"/>
-      <c r="AK49" s="127"/>
-      <c r="AL49" s="127"/>
-      <c r="AM49" s="127"/>
-      <c r="AN49" s="128"/>
-      <c r="AO49" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP49" s="124"/>
-      <c r="AQ49" s="124"/>
-      <c r="AR49" s="124"/>
-      <c r="AS49" s="124"/>
-      <c r="AT49" s="124"/>
-      <c r="AU49" s="124"/>
-      <c r="AV49" s="124"/>
-      <c r="AW49" s="124"/>
-      <c r="AX49" s="124"/>
-      <c r="AY49" s="124"/>
-      <c r="AZ49" s="125"/>
+      <c r="Z55" s="127"/>
+      <c r="AA55" s="127"/>
+      <c r="AB55" s="127"/>
+      <c r="AC55" s="127"/>
+      <c r="AD55" s="127"/>
+      <c r="AE55" s="127"/>
+      <c r="AF55" s="128"/>
+      <c r="AG55" s="122"/>
+      <c r="AH55" s="123"/>
+      <c r="AI55" s="123"/>
+      <c r="AJ55" s="123"/>
+      <c r="AK55" s="123"/>
+      <c r="AL55" s="123"/>
+      <c r="AM55" s="123"/>
+      <c r="AN55" s="124"/>
+      <c r="AO55" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP55" s="120"/>
+      <c r="AQ55" s="120"/>
+      <c r="AR55" s="120"/>
+      <c r="AS55" s="120"/>
+      <c r="AT55" s="120"/>
+      <c r="AU55" s="120"/>
+      <c r="AV55" s="120"/>
+      <c r="AW55" s="120"/>
+      <c r="AX55" s="120"/>
+      <c r="AY55" s="120"/>
+      <c r="AZ55" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:AF37"/>
-    <mergeCell ref="AG37:AN37"/>
-    <mergeCell ref="AO37:AZ37"/>
-    <mergeCell ref="AG42:AN42"/>
-    <mergeCell ref="AO42:AZ42"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="AO11:AZ11"/>
+  <mergeCells count="344">
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="Y50:AF50"/>
+    <mergeCell ref="AG50:AN50"/>
+    <mergeCell ref="AO50:AZ50"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="Y48:AF48"/>
+    <mergeCell ref="AG48:AN48"/>
+    <mergeCell ref="AO48:AZ48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y49:AF49"/>
+    <mergeCell ref="AG49:AN49"/>
+    <mergeCell ref="AO49:AZ49"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="Y12:AF12"/>
     <mergeCell ref="AG12:AN12"/>
     <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="Y46:AF46"/>
+    <mergeCell ref="AG46:AN46"/>
+    <mergeCell ref="AO46:AZ46"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="Y54:AF54"/>
+    <mergeCell ref="AG54:AN54"/>
+    <mergeCell ref="AO54:AZ54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="Y55:AF55"/>
+    <mergeCell ref="AG55:AN55"/>
+    <mergeCell ref="AO55:AZ55"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Y52:AF52"/>
+    <mergeCell ref="AG52:AN52"/>
+    <mergeCell ref="AO52:AZ52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Y53:AF53"/>
+    <mergeCell ref="AG53:AN53"/>
+    <mergeCell ref="AO53:AZ53"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="Y45:AF45"/>
+    <mergeCell ref="AG45:AN45"/>
+    <mergeCell ref="AO45:AZ45"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="Y51:AF51"/>
+    <mergeCell ref="AG51:AN51"/>
+    <mergeCell ref="AO51:AZ51"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:X47"/>
+    <mergeCell ref="Y47:AF47"/>
+    <mergeCell ref="AG47:AN47"/>
+    <mergeCell ref="AO47:AZ47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Y44:AF44"/>
+    <mergeCell ref="AG44:AN44"/>
+    <mergeCell ref="AO44:AZ44"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="Y43:AF43"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="Y41:AF41"/>
+    <mergeCell ref="AG41:AN41"/>
+    <mergeCell ref="AO41:AZ41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Y42:AF42"/>
+    <mergeCell ref="AG42:AN42"/>
+    <mergeCell ref="AO42:AZ42"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="Y39:AF39"/>
+    <mergeCell ref="AG39:AN39"/>
+    <mergeCell ref="AO39:AZ39"/>
     <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="Y40:AF40"/>
+    <mergeCell ref="AG40:AN40"/>
+    <mergeCell ref="AO40:AZ40"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="J13:Q13"/>
     <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A8:H8"/>
@@ -12589,99 +13176,192 @@
     <mergeCell ref="U11:X11"/>
     <mergeCell ref="Y11:AF11"/>
     <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="J38:Q38"/>
     <mergeCell ref="R38:T38"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Y37:AF37"/>
+    <mergeCell ref="AG37:AN37"/>
+    <mergeCell ref="AO37:AZ37"/>
     <mergeCell ref="U38:X38"/>
     <mergeCell ref="Y38:AF38"/>
     <mergeCell ref="AG38:AN38"/>
     <mergeCell ref="AO38:AZ38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y39:AF39"/>
-    <mergeCell ref="AG39:AN39"/>
-    <mergeCell ref="AO39:AZ39"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AF40"/>
-    <mergeCell ref="AG40:AN40"/>
-    <mergeCell ref="AO40:AZ40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="Y41:AF41"/>
-    <mergeCell ref="AG41:AN41"/>
-    <mergeCell ref="AO41:AZ41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="Y43:AF43"/>
     <mergeCell ref="AG43:AN43"/>
     <mergeCell ref="AO43:AZ43"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Y42:AF42"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Y44:AF44"/>
-    <mergeCell ref="AG44:AN44"/>
-    <mergeCell ref="AO44:AZ44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="Y45:AF45"/>
-    <mergeCell ref="AG45:AN45"/>
-    <mergeCell ref="AO45:AZ45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="Y46:AF46"/>
-    <mergeCell ref="AG46:AN46"/>
-    <mergeCell ref="AO46:AZ46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="Y47:AF47"/>
-    <mergeCell ref="AG47:AN47"/>
-    <mergeCell ref="AO47:AZ47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:X48"/>
-    <mergeCell ref="Y48:AF48"/>
-    <mergeCell ref="AG48:AN48"/>
-    <mergeCell ref="AO48:AZ48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y49:AF49"/>
-    <mergeCell ref="AG49:AN49"/>
-    <mergeCell ref="AO49:AZ49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="600" windowWidth="20115" windowHeight="10845" activeTab="2"/>
+    <workbookView xWindow="2850" yWindow="3720" windowWidth="20115" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
     <sheet name="出力項目一覧_1-a" sheetId="2" r:id="rId2"/>
     <sheet name="出力項目一覧_1-b" sheetId="3" r:id="rId3"/>
+    <sheet name="出力項目一覧_1-c" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">IPO_1!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'出力項目一覧_1-a'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'出力項目一覧_1-b'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'出力項目一覧_1-c'!$1:$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="152">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -515,16 +517,6 @@
   </si>
   <si>
     <t>講演会番号</t>
-  </si>
-  <si>
-    <t>送信フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トップツアー担当者ID</t>
   </si>
   <si>
     <t>登録日時</t>
@@ -858,17 +850,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログテーブルに書き込み、次のレコードの処理を行う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーと判断する。</t>
-    <rPh sb="4" eb="6">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>固定値</t>
     <rPh sb="0" eb="3">
       <t>コテイチ</t>
@@ -876,13 +857,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　のデータは登録されていません。</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -955,23 +929,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(3)請求テーブルを更新。</t>
-    <rPh sb="3" eb="5">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>請求テーブル．講演会番号 = ファイル．Field1</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"精算承認結果ファイル取込"</t>
     <rPh sb="1" eb="3">
       <t>セイサン</t>
@@ -992,37 +949,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>請求テーブルレコード更新処理</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TBL_SEIKYU</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>請求テーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トップツアー精算年月</t>
-    <rPh sb="6" eb="8">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>承認区分</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
@@ -1046,88 +972,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>人件費（非課税）41120200</t>
-    <rPh sb="0" eb="2">
-      <t>ジンケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JR代（非課税）41120200</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>航空券代（非課税）41120200</t>
-    <rPh sb="0" eb="3">
-      <t>コウクウケン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他鉄道等費用（非課税）41120200</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テツドウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>宿泊・交通手数料(非課税)41120200</t>
-    <rPh sb="0" eb="2">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非課税金額合計</t>
-    <rPh sb="0" eb="3">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>課税金額合計</t>
-    <rPh sb="0" eb="2">
-      <t>カゼイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トップツアー請求番号</t>
     <rPh sb="6" eb="8">
       <t>セイキュウ</t>
@@ -1138,19 +982,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケ実車料金(課税)</t>
-    <rPh sb="4" eb="6">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新条件に合致するデータの項目を受信ファイルの値で更新する。</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1209,45 +1040,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会場費（課税）991330401</t>
-    <rPh sb="0" eb="2">
-      <t>カイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員の国内旅費(JR/航空券)</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コクナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リョヒ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>コウクウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員の国内旅費(宿泊)</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コクナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リョヒ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュクハク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログテーブルにデータ登録内容(更新件数等)を登録。</t>
     <rPh sb="10" eb="12">
       <t>トウロク</t>
@@ -1280,29 +1072,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>請求テーブル．TOP請求書番号 = ファイル．Field3</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="15">
-      <t>セイキュウショバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Test1.csv【1行目】講演会番号：QQQQ、TOP請求書番号：ZZZZ</t>
-    <rPh sb="12" eb="13">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>支払番号</t>
     <rPh sb="0" eb="2">
       <t>シハライ</t>
@@ -1332,185 +1101,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>KEI_991330401_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_991330401_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>KOUENKAI_NO</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SEISAN_YM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SHOUNIN_KUBUN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SHOUNIN_DATE</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>KAIJOHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>KIZAIHI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>_TF</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INSHOKUHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HOTELHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JR_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AIR_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTHER_TRAFFIC_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HOTEL_COMMISSION_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_COMMISSION_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_SEISAN_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JINKENHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTHER_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KANRIHI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_41120200_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_TF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KAIJOUHI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>KIZAIHI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>_T</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INSHOKUHI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JINKENHI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OTHER_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KANRIHI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_41120200_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SEIKYU_NO_TOPTOUR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_SEISAN_T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEISANSHO_URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TAXI_TICKET_URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEISAN_KANRYO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MR_JR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MR_HOTEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEND_FLAG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TTANTO_ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1574,223 +1173,133 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会場費（非課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機材費（非課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>飲食費（非課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>991330401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（非課税）小計</t>
-    </r>
+    <t>Field2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照：出力項目一覧_1-c</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受信ファイルの内容で、承認テーブルにデータを新規登録。</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3)承認テーブルを更新。</t>
+    <rPh sb="3" eb="5">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認テーブル．講演会番号 = ファイル．Field1</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認テーブル．TOP請求書番号 = ファイル．Field3</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>セイキュウショバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認テーブルレコード更新処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SHOUNIN_KUBUN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TBL_SHOUNIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>承認テーブルレコード新規登録処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
     <rPh sb="14" eb="16">
-      <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>宿泊費（非課税）4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1120200</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクシー実車料金(非課税)41120200</t>
-    <rPh sb="4" eb="6">
-      <t>ジッシャ</t>
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Field1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Field3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOP請求書番号</t>
+    <rPh sb="3" eb="6">
+      <t>セイキュウショ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>タクチケ発券手数料(非課税)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>41120200</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ハッケン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ精算手数料 (非課税)41120200</t>
-    <rPh sb="4" eb="6">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他費（非課税）41120200</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理費（非課税）41120200</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>41120200(非課税)小計</t>
-    <rPh sb="9" eb="12">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機材費（課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>飲食費（課税）991330401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>991330401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（課税）小計</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>カゼイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>人件費（課税）41120200</t>
-    <rPh sb="0" eb="2">
-      <t>ジンケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他費（課税）41120200</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理費（課税）41120200</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>41120200(課税)小計</t>
-    <rPh sb="9" eb="11">
-      <t>カゼイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ精算手数料(課税)</t>
-    <rPh sb="4" eb="6">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>精算書保存場所URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ管理表保存場所URL</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>精算完了</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Field2</t>
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1798,7 +1307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1876,12 +1385,6 @@
     <font>
       <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2143,7 +1646,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2314,56 +1817,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2377,6 +1836,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -2389,15 +1857,6 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2410,17 +1869,124 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2435,72 +2001,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2531,7 +2031,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2543,12 +2043,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -2560,7 +2054,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2877,9 +2371,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ110"/>
+  <dimension ref="A1:AZ107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -2889,273 +2383,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="72" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="87"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="86" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="86" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="82">
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="67">
         <v>41557</v>
       </c>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="72" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="82">
-        <v>41570</v>
-      </c>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="67">
+        <v>41666</v>
+      </c>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="85" t="s">
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="57" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="62"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="75"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="9" t="s">
@@ -3560,7 +3054,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N16" s="2"/>
       <c r="P16" s="2"/>
@@ -3668,7 +3162,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N18" s="2"/>
       <c r="P18" s="2"/>
@@ -3723,7 +3217,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -3834,7 +3328,7 @@
         <v>42</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4482,7 +3976,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N33" s="2"/>
       <c r="P33" s="2"/>
@@ -4752,7 +4246,7 @@
         <v>33</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N38" s="2"/>
       <c r="P38" s="2"/>
@@ -4860,7 +4354,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -4967,7 +4461,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5073,7 +4567,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -5502,7 +4996,7 @@
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -5558,7 +5052,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -5712,7 +5206,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="O56" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -5869,7 +5363,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="Q59" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -6126,7 +5620,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="O64" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -6279,7 +5773,7 @@
       <c r="K67" s="1"/>
       <c r="M67" s="2"/>
       <c r="N67" s="12" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -6381,7 +5875,7 @@
       <c r="K69" s="1"/>
       <c r="M69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -6486,7 +5980,7 @@
       <c r="M71" s="14"/>
       <c r="N71" s="2"/>
       <c r="O71" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -6540,7 +6034,7 @@
       <c r="M72" s="14"/>
       <c r="N72" s="2"/>
       <c r="P72" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -6591,7 +6085,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -6684,7 +6178,7 @@
       <c r="M75" s="14"/>
       <c r="N75" s="2"/>
       <c r="P75" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
@@ -6773,7 +6267,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -6825,9 +6319,6 @@
       <c r="K78" s="1"/>
       <c r="M78" s="14"/>
       <c r="N78" s="2"/>
-      <c r="P78" t="s">
-        <v>109</v>
-      </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
@@ -6879,7 +6370,7 @@
       <c r="M79" s="14"/>
       <c r="N79" s="2"/>
       <c r="P79" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
@@ -6930,7 +6421,9 @@
       <c r="J80" s="3"/>
       <c r="K80" s="1"/>
       <c r="L80" s="4"/>
-      <c r="P80" s="2"/>
+      <c r="P80" s="53" t="s">
+        <v>137</v>
+      </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
@@ -6980,12 +6473,10 @@
       <c r="I81" s="2"/>
       <c r="J81" s="3"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="M81" s="14"/>
       <c r="N81" s="2"/>
-      <c r="P81" t="s">
-        <v>34</v>
-      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
@@ -7005,7 +6496,6 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
-      <c r="AJ81" s="2"/>
       <c r="AK81" s="2"/>
       <c r="AL81" s="2"/>
       <c r="AM81" s="2"/>
@@ -7037,9 +6527,10 @@
       <c r="K82" s="1"/>
       <c r="M82" s="14"/>
       <c r="N82" s="2"/>
-      <c r="Q82" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="O82" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -7089,13 +6580,9 @@
       <c r="K83" s="1"/>
       <c r="M83" s="14"/>
       <c r="N83" s="2"/>
-      <c r="P83" s="53"/>
-      <c r="Q83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
+      <c r="P83" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
@@ -7143,7 +6630,6 @@
       <c r="M84" s="14"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
@@ -7194,9 +6680,8 @@
       <c r="K85" s="1"/>
       <c r="M85" s="14"/>
       <c r="N85" s="2"/>
-      <c r="O85" t="s">
-        <v>139</v>
-      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" s="12"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -7245,11 +6730,13 @@
       <c r="I86" s="2"/>
       <c r="J86" s="3"/>
       <c r="K86" s="1"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="2"/>
-      <c r="P86" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="M86" s="13"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
@@ -7265,6 +6752,7 @@
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
       <c r="AK86" s="2"/>
       <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
@@ -7294,9 +6782,12 @@
       <c r="I87" s="2"/>
       <c r="J87" s="3"/>
       <c r="K87" s="1"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+      <c r="L87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" t="s">
+        <v>122</v>
+      </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
@@ -7316,6 +6807,7 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
       <c r="AL87" s="2"/>
       <c r="AM87" s="2"/>
@@ -7345,10 +6837,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="3"/>
       <c r="K88" s="1"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="12"/>
+      <c r="L88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -7368,6 +6857,7 @@
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
       <c r="AK88" s="2"/>
       <c r="AL88" s="2"/>
       <c r="AM88" s="2"/>
@@ -7397,10 +6887,11 @@
       <c r="I89" s="2"/>
       <c r="J89" s="3"/>
       <c r="K89" s="1"/>
-      <c r="M89" s="13"/>
+      <c r="L89" s="2"/>
+      <c r="N89" t="s">
+        <v>34</v>
+      </c>
       <c r="O89" s="2"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -7449,13 +6940,10 @@
       <c r="I90" s="2"/>
       <c r="J90" s="3"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M90" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="O90" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -7505,6 +6993,9 @@
       <c r="J91" s="3"/>
       <c r="K91" s="1"/>
       <c r="L91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
@@ -7555,10 +7046,11 @@
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
       <c r="L92" s="2"/>
-      <c r="N92" t="s">
-        <v>34</v>
-      </c>
-      <c r="O92" s="2"/>
+      <c r="N92" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
@@ -7608,9 +7100,10 @@
       <c r="J93" s="3"/>
       <c r="K93" s="1"/>
       <c r="L93" s="2"/>
-      <c r="O93" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="M93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
@@ -7660,9 +7153,8 @@
       <c r="J94" s="3"/>
       <c r="K94" s="1"/>
       <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
@@ -7712,11 +7204,13 @@
       <c r="I95" s="2"/>
       <c r="J95" s="3"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="2"/>
-      <c r="N95" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="P95" s="2"/>
+      <c r="L95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
@@ -7724,9 +7218,6 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
@@ -7766,8 +7257,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="3"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -7777,9 +7267,6 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
@@ -7820,8 +7307,11 @@
       <c r="J97" s="3"/>
       <c r="K97" s="1"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
+      <c r="M97" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="N97" s="2"/>
+      <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
@@ -7829,9 +7319,6 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
@@ -7871,13 +7358,10 @@
       <c r="I98" s="2"/>
       <c r="J98" s="3"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
@@ -7924,9 +7408,9 @@
       <c r="I99" s="2"/>
       <c r="J99" s="3"/>
       <c r="K99" s="1"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
@@ -7973,12 +7457,13 @@
       <c r="I100" s="2"/>
       <c r="J100" s="3"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="4" t="s">
-        <v>93</v>
+      <c r="L100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="N100" s="2"/>
-      <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
@@ -8027,8 +7512,6 @@
       <c r="K101" s="1"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
@@ -8078,6 +7561,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
+      <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
@@ -8125,12 +7609,14 @@
       <c r="J103" s="3"/>
       <c r="K103" s="1"/>
       <c r="L103" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -8179,6 +7665,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
@@ -8226,8 +7713,8 @@
       <c r="J105" s="3"/>
       <c r="K105" s="1"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
@@ -8275,15 +7762,9 @@
       <c r="I106" s="2"/>
       <c r="J106" s="3"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
@@ -8291,6 +7772,9 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
@@ -8319,222 +7803,61 @@
       <c r="AZ106" s="3"/>
     </row>
     <row r="107" spans="1:52">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="AA107" s="2"/>
-      <c r="AB107" s="2"/>
-      <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
-      <c r="AF107" s="2"/>
-      <c r="AG107" s="2"/>
-      <c r="AH107" s="2"/>
-      <c r="AI107" s="2"/>
-      <c r="AJ107" s="2"/>
-      <c r="AK107" s="2"/>
-      <c r="AL107" s="2"/>
-      <c r="AM107" s="2"/>
-      <c r="AN107" s="2"/>
-      <c r="AO107" s="2"/>
-      <c r="AP107" s="3"/>
-      <c r="AQ107" s="1"/>
-      <c r="AR107" s="2"/>
-      <c r="AS107" s="2"/>
-      <c r="AT107" s="2"/>
-      <c r="AU107" s="2"/>
-      <c r="AV107" s="2"/>
-      <c r="AW107" s="2"/>
-      <c r="AX107" s="2"/>
-      <c r="AY107" s="2"/>
-      <c r="AZ107" s="3"/>
-    </row>
-    <row r="108" spans="1:52">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
-      <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="2"/>
-      <c r="AG108" s="2"/>
-      <c r="AH108" s="2"/>
-      <c r="AI108" s="2"/>
-      <c r="AJ108" s="2"/>
-      <c r="AK108" s="2"/>
-      <c r="AL108" s="2"/>
-      <c r="AM108" s="2"/>
-      <c r="AN108" s="2"/>
-      <c r="AO108" s="2"/>
-      <c r="AP108" s="3"/>
-      <c r="AQ108" s="1"/>
-      <c r="AR108" s="2"/>
-      <c r="AS108" s="2"/>
-      <c r="AT108" s="2"/>
-      <c r="AU108" s="2"/>
-      <c r="AV108" s="2"/>
-      <c r="AW108" s="2"/>
-      <c r="AX108" s="2"/>
-      <c r="AY108" s="2"/>
-      <c r="AZ108" s="3"/>
-    </row>
-    <row r="109" spans="1:52">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
-      <c r="AC109" s="2"/>
-      <c r="AD109" s="2"/>
-      <c r="AE109" s="2"/>
-      <c r="AF109" s="2"/>
-      <c r="AG109" s="2"/>
-      <c r="AH109" s="2"/>
-      <c r="AI109" s="2"/>
-      <c r="AJ109" s="2"/>
-      <c r="AK109" s="2"/>
-      <c r="AL109" s="2"/>
-      <c r="AM109" s="2"/>
-      <c r="AN109" s="2"/>
-      <c r="AO109" s="2"/>
-      <c r="AP109" s="3"/>
-      <c r="AQ109" s="1"/>
-      <c r="AR109" s="2"/>
-      <c r="AS109" s="2"/>
-      <c r="AT109" s="2"/>
-      <c r="AU109" s="2"/>
-      <c r="AV109" s="2"/>
-      <c r="AW109" s="2"/>
-      <c r="AX109" s="2"/>
-      <c r="AY109" s="2"/>
-      <c r="AZ109" s="3"/>
-    </row>
-    <row r="110" spans="1:52">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
-      <c r="Z110" s="7"/>
-      <c r="AA110" s="7"/>
-      <c r="AB110" s="7"/>
-      <c r="AC110" s="7"/>
-      <c r="AD110" s="7"/>
-      <c r="AE110" s="7"/>
-      <c r="AF110" s="7"/>
-      <c r="AG110" s="7"/>
-      <c r="AH110" s="7"/>
-      <c r="AI110" s="7"/>
-      <c r="AJ110" s="7"/>
-      <c r="AK110" s="7"/>
-      <c r="AL110" s="7"/>
-      <c r="AM110" s="7"/>
-      <c r="AN110" s="7"/>
-      <c r="AO110" s="7"/>
-      <c r="AP110" s="8"/>
-      <c r="AQ110" s="6"/>
-      <c r="AR110" s="7"/>
-      <c r="AS110" s="7"/>
-      <c r="AT110" s="7"/>
-      <c r="AU110" s="7"/>
-      <c r="AV110" s="7"/>
-      <c r="AW110" s="7"/>
-      <c r="AX110" s="7"/>
-      <c r="AY110" s="7"/>
-      <c r="AZ110" s="8"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="7"/>
+      <c r="AC107" s="7"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7"/>
+      <c r="AF107" s="7"/>
+      <c r="AG107" s="7"/>
+      <c r="AH107" s="7"/>
+      <c r="AI107" s="7"/>
+      <c r="AJ107" s="7"/>
+      <c r="AK107" s="7"/>
+      <c r="AL107" s="7"/>
+      <c r="AM107" s="7"/>
+      <c r="AN107" s="7"/>
+      <c r="AO107" s="7"/>
+      <c r="AP107" s="8"/>
+      <c r="AQ107" s="6"/>
+      <c r="AR107" s="7"/>
+      <c r="AS107" s="7"/>
+      <c r="AT107" s="7"/>
+      <c r="AU107" s="7"/>
+      <c r="AV107" s="7"/>
+      <c r="AW107" s="7"/>
+      <c r="AX107" s="7"/>
+      <c r="AY107" s="7"/>
+      <c r="AZ107" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8551,6 +7874,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8576,205 +7909,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="72" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="87"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="86" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="86" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="82">
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="67">
         <v>41557</v>
       </c>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="72" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:52">
@@ -8782,77 +8115,77 @@
         <v>44</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="104" t="s">
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="101" t="s">
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="102"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="107" t="s">
+      <c r="W8" s="95"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="101" t="s">
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="107" t="s">
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="112"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
@@ -8985,29 +8318,29 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="92" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="101"/>
       <c r="U11" s="19"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
@@ -9050,37 +8383,37 @@
         <f t="shared" ref="A12:A17" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="92" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
       <c r="U12" s="19"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
@@ -9098,7 +8431,7 @@
       <c r="AM12" s="25"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="52" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -9117,31 +8450,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="92" t="s">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="100"/>
+      <c r="T13" s="101"/>
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -9163,7 +8496,7 @@
       <c r="AM13" s="25"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AP13" s="20"/>
       <c r="AQ13" s="20"/>
@@ -9182,31 +8515,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="92" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" s="100"/>
+      <c r="T14" s="101"/>
       <c r="U14" s="27"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -9228,7 +8561,7 @@
       <c r="AM14" s="25"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="52" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AP14" s="20"/>
       <c r="AQ14" s="20"/>
@@ -9247,29 +8580,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="92" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="101"/>
       <c r="U15" s="27"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -9290,49 +8623,49 @@
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="26"/>
-      <c r="AO15" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP15" s="109"/>
-      <c r="AQ15" s="109"/>
-      <c r="AR15" s="109"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
-      <c r="AV15" s="109"/>
-      <c r="AW15" s="109"/>
-      <c r="AX15" s="109"/>
-      <c r="AY15" s="109"/>
-      <c r="AZ15" s="110"/>
+      <c r="AO15" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP15" s="89"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="89"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="89"/>
+      <c r="AY15" s="89"/>
+      <c r="AZ15" s="90"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92" t="s">
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="101"/>
       <c r="U16" s="27"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -9354,7 +8687,7 @@
       <c r="AM16" s="25"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AP16" s="20"/>
       <c r="AQ16" s="20"/>
@@ -9373,29 +8706,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92" t="s">
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="101"/>
       <c r="U17" s="27"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -9417,7 +8750,7 @@
       <c r="AM17" s="25"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AP17" s="20"/>
       <c r="AQ17" s="20"/>
@@ -9433,26 +8766,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
@@ -9469,21 +8797,26 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
     <mergeCell ref="V8:X8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9497,9 +8830,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -9509,287 +8842,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="72" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="87"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="86" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="86" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="82">
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="67">
         <v>41557</v>
       </c>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="72" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="82">
-        <v>41570</v>
-      </c>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="67">
+        <v>41666</v>
+      </c>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="85" t="s">
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="104" t="s">
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="101" t="s">
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="102"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="101" t="s">
+      <c r="W8" s="95"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="112"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
@@ -9922,3242 +9255,630 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="117"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="120"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="120"/>
-      <c r="AW11" s="120"/>
-      <c r="AX11" s="120"/>
-      <c r="AY11" s="120"/>
-      <c r="AZ11" s="121"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="100"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP11" s="119"/>
+      <c r="AQ11" s="119"/>
+      <c r="AR11" s="119"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="119"/>
+      <c r="AU11" s="119"/>
+      <c r="AV11" s="119"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="119"/>
+      <c r="AY11" s="119"/>
+      <c r="AZ11" s="120"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="55">
-        <f>ROW()-10</f>
+        <f t="shared" ref="A12:A19" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="115"/>
-      <c r="Y12" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="130" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH12" s="123"/>
-      <c r="AI12" s="123"/>
-      <c r="AJ12" s="123"/>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP12" s="120"/>
-      <c r="AQ12" s="120"/>
-      <c r="AR12" s="120"/>
-      <c r="AS12" s="120"/>
-      <c r="AT12" s="120"/>
-      <c r="AU12" s="120"/>
-      <c r="AV12" s="120"/>
-      <c r="AW12" s="120"/>
-      <c r="AX12" s="120"/>
-      <c r="AY12" s="120"/>
-      <c r="AZ12" s="121"/>
+      <c r="B12" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="116"/>
+      <c r="AJ12" s="116"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP12" s="119"/>
+      <c r="AQ12" s="119"/>
+      <c r="AR12" s="119"/>
+      <c r="AS12" s="119"/>
+      <c r="AT12" s="119"/>
+      <c r="AU12" s="119"/>
+      <c r="AV12" s="119"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="119"/>
+      <c r="AY12" s="119"/>
+      <c r="AZ12" s="120"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="55">
         <f>ROW()-10</f>
         <v>3</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP13" s="120"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="120"/>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="120"/>
-      <c r="AY13" s="120"/>
-      <c r="AZ13" s="121"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="100"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="123"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="119"/>
+      <c r="AQ13" s="119"/>
+      <c r="AR13" s="119"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="119"/>
+      <c r="AU13" s="119"/>
+      <c r="AV13" s="119"/>
+      <c r="AW13" s="119"/>
+      <c r="AX13" s="119"/>
+      <c r="AY13" s="119"/>
+      <c r="AZ13" s="120"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="55">
-        <f t="shared" ref="A14:A55" si="0">ROW()-10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="97" t="s">
+      <c r="B14" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="130" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
-      <c r="AV14" s="120"/>
-      <c r="AW14" s="120"/>
-      <c r="AX14" s="120"/>
-      <c r="AY14" s="120"/>
-      <c r="AZ14" s="121"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="123"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="119"/>
+      <c r="AQ14" s="119"/>
+      <c r="AR14" s="119"/>
+      <c r="AS14" s="119"/>
+      <c r="AT14" s="119"/>
+      <c r="AU14" s="119"/>
+      <c r="AV14" s="119"/>
+      <c r="AW14" s="119"/>
+      <c r="AX14" s="119"/>
+      <c r="AY14" s="119"/>
+      <c r="AZ14" s="120"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="97" t="s">
+      <c r="B15" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="123"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="120"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="120"/>
-      <c r="AU15" s="120"/>
-      <c r="AV15" s="120"/>
-      <c r="AW15" s="120"/>
-      <c r="AX15" s="120"/>
-      <c r="AY15" s="120"/>
-      <c r="AZ15" s="121"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="122"/>
+      <c r="AJ15" s="122"/>
+      <c r="AK15" s="122"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="119"/>
+      <c r="AQ15" s="119"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="119"/>
+      <c r="AT15" s="119"/>
+      <c r="AU15" s="119"/>
+      <c r="AV15" s="119"/>
+      <c r="AW15" s="119"/>
+      <c r="AX15" s="119"/>
+      <c r="AY15" s="119"/>
+      <c r="AZ15" s="120"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="120"/>
-      <c r="AR16" s="120"/>
-      <c r="AS16" s="120"/>
-      <c r="AT16" s="120"/>
-      <c r="AU16" s="120"/>
-      <c r="AV16" s="120"/>
-      <c r="AW16" s="120"/>
-      <c r="AX16" s="120"/>
-      <c r="AY16" s="120"/>
-      <c r="AZ16" s="121"/>
+      <c r="B16" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="100"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP16" s="119"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="119"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="119"/>
+      <c r="AV16" s="119"/>
+      <c r="AW16" s="119"/>
+      <c r="AX16" s="119"/>
+      <c r="AY16" s="119"/>
+      <c r="AZ16" s="120"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="120"/>
-      <c r="AR17" s="120"/>
-      <c r="AS17" s="120"/>
-      <c r="AT17" s="120"/>
-      <c r="AU17" s="120"/>
-      <c r="AV17" s="120"/>
-      <c r="AW17" s="120"/>
-      <c r="AX17" s="120"/>
-      <c r="AY17" s="120"/>
-      <c r="AZ17" s="121"/>
+      <c r="B17" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" s="100"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="116"/>
+      <c r="AJ17" s="116"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="116"/>
+      <c r="AM17" s="116"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP17" s="119"/>
+      <c r="AQ17" s="119"/>
+      <c r="AR17" s="119"/>
+      <c r="AS17" s="119"/>
+      <c r="AT17" s="119"/>
+      <c r="AU17" s="119"/>
+      <c r="AV17" s="119"/>
+      <c r="AW17" s="119"/>
+      <c r="AX17" s="119"/>
+      <c r="AY17" s="119"/>
+      <c r="AZ17" s="120"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S18" s="95"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="115"/>
-      <c r="Y18" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP18" s="120"/>
-      <c r="AQ18" s="120"/>
-      <c r="AR18" s="120"/>
-      <c r="AS18" s="120"/>
-      <c r="AT18" s="120"/>
-      <c r="AU18" s="120"/>
-      <c r="AV18" s="120"/>
-      <c r="AW18" s="120"/>
-      <c r="AX18" s="120"/>
-      <c r="AY18" s="120"/>
-      <c r="AZ18" s="121"/>
+      <c r="B18" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="115"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="116"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP18" s="119"/>
+      <c r="AQ18" s="119"/>
+      <c r="AR18" s="119"/>
+      <c r="AS18" s="119"/>
+      <c r="AT18" s="119"/>
+      <c r="AU18" s="119"/>
+      <c r="AV18" s="119"/>
+      <c r="AW18" s="119"/>
+      <c r="AX18" s="119"/>
+      <c r="AY18" s="119"/>
+      <c r="AZ18" s="120"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" s="95"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="120"/>
-      <c r="AT19" s="120"/>
-      <c r="AU19" s="120"/>
-      <c r="AV19" s="120"/>
-      <c r="AW19" s="120"/>
-      <c r="AX19" s="120"/>
-      <c r="AY19" s="120"/>
-      <c r="AZ19" s="121"/>
-    </row>
-    <row r="20" spans="1:52">
-      <c r="A20" s="56">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B20" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S20" s="95"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP20" s="120"/>
-      <c r="AQ20" s="120"/>
-      <c r="AR20" s="120"/>
-      <c r="AS20" s="120"/>
-      <c r="AT20" s="120"/>
-      <c r="AU20" s="120"/>
-      <c r="AV20" s="120"/>
-      <c r="AW20" s="120"/>
-      <c r="AX20" s="120"/>
-      <c r="AY20" s="120"/>
-      <c r="AZ20" s="121"/>
-    </row>
-    <row r="21" spans="1:52">
-      <c r="A21" s="55">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B21" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S21" s="95"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP21" s="120"/>
-      <c r="AQ21" s="120"/>
-      <c r="AR21" s="120"/>
-      <c r="AS21" s="120"/>
-      <c r="AT21" s="120"/>
-      <c r="AU21" s="120"/>
-      <c r="AV21" s="120"/>
-      <c r="AW21" s="120"/>
-      <c r="AX21" s="120"/>
-      <c r="AY21" s="120"/>
-      <c r="AZ21" s="121"/>
-    </row>
-    <row r="22" spans="1:52">
-      <c r="A22" s="55">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B22" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S22" s="95"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="115"/>
-      <c r="Y22" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP22" s="120"/>
-      <c r="AQ22" s="120"/>
-      <c r="AR22" s="120"/>
-      <c r="AS22" s="120"/>
-      <c r="AT22" s="120"/>
-      <c r="AU22" s="120"/>
-      <c r="AV22" s="120"/>
-      <c r="AW22" s="120"/>
-      <c r="AX22" s="120"/>
-      <c r="AY22" s="120"/>
-      <c r="AZ22" s="121"/>
-    </row>
-    <row r="23" spans="1:52">
-      <c r="A23" s="55">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP23" s="120"/>
-      <c r="AQ23" s="120"/>
-      <c r="AR23" s="120"/>
-      <c r="AS23" s="120"/>
-      <c r="AT23" s="120"/>
-      <c r="AU23" s="120"/>
-      <c r="AV23" s="120"/>
-      <c r="AW23" s="120"/>
-      <c r="AX23" s="120"/>
-      <c r="AY23" s="120"/>
-      <c r="AZ23" s="121"/>
-    </row>
-    <row r="24" spans="1:52">
-      <c r="A24" s="55">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S24" s="95"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="120"/>
-      <c r="AR24" s="120"/>
-      <c r="AS24" s="120"/>
-      <c r="AT24" s="120"/>
-      <c r="AU24" s="120"/>
-      <c r="AV24" s="120"/>
-      <c r="AW24" s="120"/>
-      <c r="AX24" s="120"/>
-      <c r="AY24" s="120"/>
-      <c r="AZ24" s="121"/>
-    </row>
-    <row r="25" spans="1:52">
-      <c r="A25" s="55">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S25" s="95"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP25" s="120"/>
-      <c r="AQ25" s="120"/>
-      <c r="AR25" s="120"/>
-      <c r="AS25" s="120"/>
-      <c r="AT25" s="120"/>
-      <c r="AU25" s="120"/>
-      <c r="AV25" s="120"/>
-      <c r="AW25" s="120"/>
-      <c r="AX25" s="120"/>
-      <c r="AY25" s="120"/>
-      <c r="AZ25" s="121"/>
-    </row>
-    <row r="26" spans="1:52">
-      <c r="A26" s="55">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S26" s="95"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP26" s="120"/>
-      <c r="AQ26" s="120"/>
-      <c r="AR26" s="120"/>
-      <c r="AS26" s="120"/>
-      <c r="AT26" s="120"/>
-      <c r="AU26" s="120"/>
-      <c r="AV26" s="120"/>
-      <c r="AW26" s="120"/>
-      <c r="AX26" s="120"/>
-      <c r="AY26" s="120"/>
-      <c r="AZ26" s="121"/>
-    </row>
-    <row r="27" spans="1:52">
-      <c r="A27" s="55">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B27" s="89" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S27" s="95"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP27" s="120"/>
-      <c r="AQ27" s="120"/>
-      <c r="AR27" s="120"/>
-      <c r="AS27" s="120"/>
-      <c r="AT27" s="120"/>
-      <c r="AU27" s="120"/>
-      <c r="AV27" s="120"/>
-      <c r="AW27" s="120"/>
-      <c r="AX27" s="120"/>
-      <c r="AY27" s="120"/>
-      <c r="AZ27" s="121"/>
-    </row>
-    <row r="28" spans="1:52">
-      <c r="A28" s="55">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B28" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S28" s="95"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP28" s="120"/>
-      <c r="AQ28" s="120"/>
-      <c r="AR28" s="120"/>
-      <c r="AS28" s="120"/>
-      <c r="AT28" s="120"/>
-      <c r="AU28" s="120"/>
-      <c r="AV28" s="120"/>
-      <c r="AW28" s="120"/>
-      <c r="AX28" s="120"/>
-      <c r="AY28" s="120"/>
-      <c r="AZ28" s="121"/>
-    </row>
-    <row r="29" spans="1:52">
-      <c r="A29" s="55">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="115"/>
-      <c r="Y29" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP29" s="120"/>
-      <c r="AQ29" s="120"/>
-      <c r="AR29" s="120"/>
-      <c r="AS29" s="120"/>
-      <c r="AT29" s="120"/>
-      <c r="AU29" s="120"/>
-      <c r="AV29" s="120"/>
-      <c r="AW29" s="120"/>
-      <c r="AX29" s="120"/>
-      <c r="AY29" s="120"/>
-      <c r="AZ29" s="121"/>
-    </row>
-    <row r="30" spans="1:52">
-      <c r="A30" s="55">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S30" s="95"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP30" s="120"/>
-      <c r="AQ30" s="120"/>
-      <c r="AR30" s="120"/>
-      <c r="AS30" s="120"/>
-      <c r="AT30" s="120"/>
-      <c r="AU30" s="120"/>
-      <c r="AV30" s="120"/>
-      <c r="AW30" s="120"/>
-      <c r="AX30" s="120"/>
-      <c r="AY30" s="120"/>
-      <c r="AZ30" s="121"/>
-    </row>
-    <row r="31" spans="1:52">
-      <c r="A31" s="55">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B31" s="89" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S31" s="95"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="115"/>
-      <c r="Y31" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="117"/>
-      <c r="AL31" s="117"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP31" s="120"/>
-      <c r="AQ31" s="120"/>
-      <c r="AR31" s="120"/>
-      <c r="AS31" s="120"/>
-      <c r="AT31" s="120"/>
-      <c r="AU31" s="120"/>
-      <c r="AV31" s="120"/>
-      <c r="AW31" s="120"/>
-      <c r="AX31" s="120"/>
-      <c r="AY31" s="120"/>
-      <c r="AZ31" s="121"/>
-    </row>
-    <row r="32" spans="1:52">
-      <c r="A32" s="55">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B32" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S32" s="95"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="99"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="117"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="120"/>
-      <c r="AR32" s="120"/>
-      <c r="AS32" s="120"/>
-      <c r="AT32" s="120"/>
-      <c r="AU32" s="120"/>
-      <c r="AV32" s="120"/>
-      <c r="AW32" s="120"/>
-      <c r="AX32" s="120"/>
-      <c r="AY32" s="120"/>
-      <c r="AZ32" s="121"/>
-    </row>
-    <row r="33" spans="1:52">
-      <c r="A33" s="55">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S33" s="95"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="99"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP33" s="120"/>
-      <c r="AQ33" s="120"/>
-      <c r="AR33" s="120"/>
-      <c r="AS33" s="120"/>
-      <c r="AT33" s="120"/>
-      <c r="AU33" s="120"/>
-      <c r="AV33" s="120"/>
-      <c r="AW33" s="120"/>
-      <c r="AX33" s="120"/>
-      <c r="AY33" s="120"/>
-      <c r="AZ33" s="121"/>
-    </row>
-    <row r="34" spans="1:52">
-      <c r="A34" s="55">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B34" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="100"/>
-      <c r="AG34" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="120"/>
-      <c r="AR34" s="120"/>
-      <c r="AS34" s="120"/>
-      <c r="AT34" s="120"/>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="120"/>
-      <c r="AX34" s="120"/>
-      <c r="AY34" s="120"/>
-      <c r="AZ34" s="121"/>
-    </row>
-    <row r="35" spans="1:52">
-      <c r="A35" s="55">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S35" s="95"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="100"/>
-      <c r="AG35" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH35" s="117"/>
-      <c r="AI35" s="117"/>
-      <c r="AJ35" s="117"/>
-      <c r="AK35" s="117"/>
-      <c r="AL35" s="117"/>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP35" s="120"/>
-      <c r="AQ35" s="120"/>
-      <c r="AR35" s="120"/>
-      <c r="AS35" s="120"/>
-      <c r="AT35" s="120"/>
-      <c r="AU35" s="120"/>
-      <c r="AV35" s="120"/>
-      <c r="AW35" s="120"/>
-      <c r="AX35" s="120"/>
-      <c r="AY35" s="120"/>
-      <c r="AZ35" s="121"/>
-    </row>
-    <row r="36" spans="1:52">
-      <c r="A36" s="55">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B36" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S36" s="95"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="115"/>
-      <c r="Y36" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="99"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="100"/>
-      <c r="AG36" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH36" s="117"/>
-      <c r="AI36" s="117"/>
-      <c r="AJ36" s="117"/>
-      <c r="AK36" s="117"/>
-      <c r="AL36" s="117"/>
-      <c r="AM36" s="117"/>
-      <c r="AN36" s="118"/>
-      <c r="AO36" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP36" s="120"/>
-      <c r="AQ36" s="120"/>
-      <c r="AR36" s="120"/>
-      <c r="AS36" s="120"/>
-      <c r="AT36" s="120"/>
-      <c r="AU36" s="120"/>
-      <c r="AV36" s="120"/>
-      <c r="AW36" s="120"/>
-      <c r="AX36" s="120"/>
-      <c r="AY36" s="120"/>
-      <c r="AZ36" s="121"/>
-    </row>
-    <row r="37" spans="1:52">
-      <c r="A37" s="55">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B37" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S37" s="95"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="115"/>
-      <c r="Y37" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z37" s="99"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="99"/>
-      <c r="AC37" s="99"/>
-      <c r="AD37" s="99"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="100"/>
-      <c r="AG37" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH37" s="117"/>
-      <c r="AI37" s="117"/>
-      <c r="AJ37" s="117"/>
-      <c r="AK37" s="117"/>
-      <c r="AL37" s="117"/>
-      <c r="AM37" s="117"/>
-      <c r="AN37" s="118"/>
-      <c r="AO37" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP37" s="120"/>
-      <c r="AQ37" s="120"/>
-      <c r="AR37" s="120"/>
-      <c r="AS37" s="120"/>
-      <c r="AT37" s="120"/>
-      <c r="AU37" s="120"/>
-      <c r="AV37" s="120"/>
-      <c r="AW37" s="120"/>
-      <c r="AX37" s="120"/>
-      <c r="AY37" s="120"/>
-      <c r="AZ37" s="121"/>
-    </row>
-    <row r="38" spans="1:52">
-      <c r="A38" s="55">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B38" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S38" s="95"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="115"/>
-      <c r="Y38" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z38" s="99"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="99"/>
-      <c r="AC38" s="99"/>
-      <c r="AD38" s="99"/>
-      <c r="AE38" s="99"/>
-      <c r="AF38" s="100"/>
-      <c r="AG38" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH38" s="117"/>
-      <c r="AI38" s="117"/>
-      <c r="AJ38" s="117"/>
-      <c r="AK38" s="117"/>
-      <c r="AL38" s="117"/>
-      <c r="AM38" s="117"/>
-      <c r="AN38" s="118"/>
-      <c r="AO38" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP38" s="120"/>
-      <c r="AQ38" s="120"/>
-      <c r="AR38" s="120"/>
-      <c r="AS38" s="120"/>
-      <c r="AT38" s="120"/>
-      <c r="AU38" s="120"/>
-      <c r="AV38" s="120"/>
-      <c r="AW38" s="120"/>
-      <c r="AX38" s="120"/>
-      <c r="AY38" s="120"/>
-      <c r="AZ38" s="121"/>
-    </row>
-    <row r="39" spans="1:52">
-      <c r="A39" s="55">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B39" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S39" s="95"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="115"/>
-      <c r="Y39" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z39" s="99"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="99"/>
-      <c r="AC39" s="99"/>
-      <c r="AD39" s="99"/>
-      <c r="AE39" s="99"/>
-      <c r="AF39" s="100"/>
-      <c r="AG39" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH39" s="117"/>
-      <c r="AI39" s="117"/>
-      <c r="AJ39" s="117"/>
-      <c r="AK39" s="117"/>
-      <c r="AL39" s="117"/>
-      <c r="AM39" s="117"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP39" s="120"/>
-      <c r="AQ39" s="120"/>
-      <c r="AR39" s="120"/>
-      <c r="AS39" s="120"/>
-      <c r="AT39" s="120"/>
-      <c r="AU39" s="120"/>
-      <c r="AV39" s="120"/>
-      <c r="AW39" s="120"/>
-      <c r="AX39" s="120"/>
-      <c r="AY39" s="120"/>
-      <c r="AZ39" s="121"/>
-    </row>
-    <row r="40" spans="1:52">
-      <c r="A40" s="55">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B40" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S40" s="95"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="99"/>
-      <c r="AC40" s="99"/>
-      <c r="AD40" s="99"/>
-      <c r="AE40" s="99"/>
-      <c r="AF40" s="100"/>
-      <c r="AG40" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH40" s="117"/>
-      <c r="AI40" s="117"/>
-      <c r="AJ40" s="117"/>
-      <c r="AK40" s="117"/>
-      <c r="AL40" s="117"/>
-      <c r="AM40" s="117"/>
-      <c r="AN40" s="118"/>
-      <c r="AO40" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP40" s="120"/>
-      <c r="AQ40" s="120"/>
-      <c r="AR40" s="120"/>
-      <c r="AS40" s="120"/>
-      <c r="AT40" s="120"/>
-      <c r="AU40" s="120"/>
-      <c r="AV40" s="120"/>
-      <c r="AW40" s="120"/>
-      <c r="AX40" s="120"/>
-      <c r="AY40" s="120"/>
-      <c r="AZ40" s="121"/>
-    </row>
-    <row r="41" spans="1:52">
-      <c r="A41" s="55">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S41" s="95"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="115"/>
-      <c r="Y41" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z41" s="99"/>
-      <c r="AA41" s="99"/>
-      <c r="AB41" s="99"/>
-      <c r="AC41" s="99"/>
-      <c r="AD41" s="99"/>
-      <c r="AE41" s="99"/>
-      <c r="AF41" s="100"/>
-      <c r="AG41" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH41" s="117"/>
-      <c r="AI41" s="117"/>
-      <c r="AJ41" s="117"/>
-      <c r="AK41" s="117"/>
-      <c r="AL41" s="117"/>
-      <c r="AM41" s="117"/>
-      <c r="AN41" s="118"/>
-      <c r="AO41" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP41" s="120"/>
-      <c r="AQ41" s="120"/>
-      <c r="AR41" s="120"/>
-      <c r="AS41" s="120"/>
-      <c r="AT41" s="120"/>
-      <c r="AU41" s="120"/>
-      <c r="AV41" s="120"/>
-      <c r="AW41" s="120"/>
-      <c r="AX41" s="120"/>
-      <c r="AY41" s="120"/>
-      <c r="AZ41" s="121"/>
-    </row>
-    <row r="42" spans="1:52">
-      <c r="A42" s="55">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B42" s="89" t="s">
+      <c r="B19" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S42" s="95"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="115"/>
-      <c r="Y42" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z42" s="99"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="99"/>
-      <c r="AC42" s="99"/>
-      <c r="AD42" s="99"/>
-      <c r="AE42" s="99"/>
-      <c r="AF42" s="100"/>
-      <c r="AG42" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH42" s="117"/>
-      <c r="AI42" s="117"/>
-      <c r="AJ42" s="117"/>
-      <c r="AK42" s="117"/>
-      <c r="AL42" s="117"/>
-      <c r="AM42" s="117"/>
-      <c r="AN42" s="118"/>
-      <c r="AO42" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP42" s="120"/>
-      <c r="AQ42" s="120"/>
-      <c r="AR42" s="120"/>
-      <c r="AS42" s="120"/>
-      <c r="AT42" s="120"/>
-      <c r="AU42" s="120"/>
-      <c r="AV42" s="120"/>
-      <c r="AW42" s="120"/>
-      <c r="AX42" s="120"/>
-      <c r="AY42" s="120"/>
-      <c r="AZ42" s="121"/>
-    </row>
-    <row r="43" spans="1:52">
-      <c r="A43" s="55">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B43" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S43" s="95"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="115"/>
-      <c r="Y43" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z43" s="99"/>
-      <c r="AA43" s="99"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="99"/>
-      <c r="AD43" s="99"/>
-      <c r="AE43" s="99"/>
-      <c r="AF43" s="100"/>
-      <c r="AG43" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH43" s="117"/>
-      <c r="AI43" s="117"/>
-      <c r="AJ43" s="117"/>
-      <c r="AK43" s="117"/>
-      <c r="AL43" s="117"/>
-      <c r="AM43" s="117"/>
-      <c r="AN43" s="118"/>
-      <c r="AO43" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP43" s="120"/>
-      <c r="AQ43" s="120"/>
-      <c r="AR43" s="120"/>
-      <c r="AS43" s="120"/>
-      <c r="AT43" s="120"/>
-      <c r="AU43" s="120"/>
-      <c r="AV43" s="120"/>
-      <c r="AW43" s="120"/>
-      <c r="AX43" s="120"/>
-      <c r="AY43" s="120"/>
-      <c r="AZ43" s="121"/>
-    </row>
-    <row r="44" spans="1:52">
-      <c r="A44" s="55">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B44" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S44" s="95"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="114"/>
-      <c r="X44" s="115"/>
-      <c r="Y44" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z44" s="99"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="99"/>
-      <c r="AE44" s="99"/>
-      <c r="AF44" s="100"/>
-      <c r="AG44" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH44" s="117"/>
-      <c r="AI44" s="117"/>
-      <c r="AJ44" s="117"/>
-      <c r="AK44" s="117"/>
-      <c r="AL44" s="117"/>
-      <c r="AM44" s="117"/>
-      <c r="AN44" s="118"/>
-      <c r="AO44" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP44" s="120"/>
-      <c r="AQ44" s="120"/>
-      <c r="AR44" s="120"/>
-      <c r="AS44" s="120"/>
-      <c r="AT44" s="120"/>
-      <c r="AU44" s="120"/>
-      <c r="AV44" s="120"/>
-      <c r="AW44" s="120"/>
-      <c r="AX44" s="120"/>
-      <c r="AY44" s="120"/>
-      <c r="AZ44" s="121"/>
-    </row>
-    <row r="45" spans="1:52">
-      <c r="A45" s="55">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B45" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S45" s="95"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="114"/>
-      <c r="W45" s="114"/>
-      <c r="X45" s="115"/>
-      <c r="Y45" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="99"/>
-      <c r="AD45" s="99"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="100"/>
-      <c r="AG45" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH45" s="117"/>
-      <c r="AI45" s="117"/>
-      <c r="AJ45" s="117"/>
-      <c r="AK45" s="117"/>
-      <c r="AL45" s="117"/>
-      <c r="AM45" s="117"/>
-      <c r="AN45" s="118"/>
-      <c r="AO45" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP45" s="120"/>
-      <c r="AQ45" s="120"/>
-      <c r="AR45" s="120"/>
-      <c r="AS45" s="120"/>
-      <c r="AT45" s="120"/>
-      <c r="AU45" s="120"/>
-      <c r="AV45" s="120"/>
-      <c r="AW45" s="120"/>
-      <c r="AX45" s="120"/>
-      <c r="AY45" s="120"/>
-      <c r="AZ45" s="121"/>
-    </row>
-    <row r="46" spans="1:52">
-      <c r="A46" s="55">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B46" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S46" s="95"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="115"/>
-      <c r="Y46" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z46" s="99"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="99"/>
-      <c r="AC46" s="99"/>
-      <c r="AD46" s="99"/>
-      <c r="AE46" s="99"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH46" s="117"/>
-      <c r="AI46" s="117"/>
-      <c r="AJ46" s="117"/>
-      <c r="AK46" s="117"/>
-      <c r="AL46" s="117"/>
-      <c r="AM46" s="117"/>
-      <c r="AN46" s="118"/>
-      <c r="AO46" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP46" s="120"/>
-      <c r="AQ46" s="120"/>
-      <c r="AR46" s="120"/>
-      <c r="AS46" s="120"/>
-      <c r="AT46" s="120"/>
-      <c r="AU46" s="120"/>
-      <c r="AV46" s="120"/>
-      <c r="AW46" s="120"/>
-      <c r="AX46" s="120"/>
-      <c r="AY46" s="120"/>
-      <c r="AZ46" s="121"/>
-    </row>
-    <row r="47" spans="1:52">
-      <c r="A47" s="55">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B47" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S47" s="95"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="113"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="115"/>
-      <c r="Y47" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="99"/>
-      <c r="AC47" s="99"/>
-      <c r="AD47" s="99"/>
-      <c r="AE47" s="99"/>
-      <c r="AF47" s="100"/>
-      <c r="AG47" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH47" s="117"/>
-      <c r="AI47" s="117"/>
-      <c r="AJ47" s="117"/>
-      <c r="AK47" s="117"/>
-      <c r="AL47" s="117"/>
-      <c r="AM47" s="117"/>
-      <c r="AN47" s="118"/>
-      <c r="AO47" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP47" s="120"/>
-      <c r="AQ47" s="120"/>
-      <c r="AR47" s="120"/>
-      <c r="AS47" s="120"/>
-      <c r="AT47" s="120"/>
-      <c r="AU47" s="120"/>
-      <c r="AV47" s="120"/>
-      <c r="AW47" s="120"/>
-      <c r="AX47" s="120"/>
-      <c r="AY47" s="120"/>
-      <c r="AZ47" s="121"/>
-    </row>
-    <row r="48" spans="1:52">
-      <c r="A48" s="55">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B48" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S48" s="95"/>
-      <c r="T48" s="96"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="115"/>
-      <c r="Y48" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z48" s="99"/>
-      <c r="AA48" s="99"/>
-      <c r="AB48" s="99"/>
-      <c r="AC48" s="99"/>
-      <c r="AD48" s="99"/>
-      <c r="AE48" s="99"/>
-      <c r="AF48" s="100"/>
-      <c r="AG48" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH48" s="117"/>
-      <c r="AI48" s="117"/>
-      <c r="AJ48" s="117"/>
-      <c r="AK48" s="117"/>
-      <c r="AL48" s="117"/>
-      <c r="AM48" s="117"/>
-      <c r="AN48" s="118"/>
-      <c r="AO48" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP48" s="120"/>
-      <c r="AQ48" s="120"/>
-      <c r="AR48" s="120"/>
-      <c r="AS48" s="120"/>
-      <c r="AT48" s="120"/>
-      <c r="AU48" s="120"/>
-      <c r="AV48" s="120"/>
-      <c r="AW48" s="120"/>
-      <c r="AX48" s="120"/>
-      <c r="AY48" s="120"/>
-      <c r="AZ48" s="121"/>
-    </row>
-    <row r="49" spans="1:52">
-      <c r="A49" s="55">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B49" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S49" s="95"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="115"/>
-      <c r="Y49" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z49" s="99"/>
-      <c r="AA49" s="99"/>
-      <c r="AB49" s="99"/>
-      <c r="AC49" s="99"/>
-      <c r="AD49" s="99"/>
-      <c r="AE49" s="99"/>
-      <c r="AF49" s="100"/>
-      <c r="AG49" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH49" s="117"/>
-      <c r="AI49" s="117"/>
-      <c r="AJ49" s="117"/>
-      <c r="AK49" s="117"/>
-      <c r="AL49" s="117"/>
-      <c r="AM49" s="117"/>
-      <c r="AN49" s="118"/>
-      <c r="AO49" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP49" s="120"/>
-      <c r="AQ49" s="120"/>
-      <c r="AR49" s="120"/>
-      <c r="AS49" s="120"/>
-      <c r="AT49" s="120"/>
-      <c r="AU49" s="120"/>
-      <c r="AV49" s="120"/>
-      <c r="AW49" s="120"/>
-      <c r="AX49" s="120"/>
-      <c r="AY49" s="120"/>
-      <c r="AZ49" s="121"/>
-    </row>
-    <row r="50" spans="1:52">
-      <c r="A50" s="55">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B50" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S50" s="95"/>
-      <c r="T50" s="96"/>
-      <c r="U50" s="113"/>
-      <c r="V50" s="114"/>
-      <c r="W50" s="114"/>
-      <c r="X50" s="115"/>
-      <c r="Y50" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z50" s="99"/>
-      <c r="AA50" s="99"/>
-      <c r="AB50" s="99"/>
-      <c r="AC50" s="99"/>
-      <c r="AD50" s="99"/>
-      <c r="AE50" s="99"/>
-      <c r="AF50" s="100"/>
-      <c r="AG50" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH50" s="117"/>
-      <c r="AI50" s="117"/>
-      <c r="AJ50" s="117"/>
-      <c r="AK50" s="117"/>
-      <c r="AL50" s="117"/>
-      <c r="AM50" s="117"/>
-      <c r="AN50" s="118"/>
-      <c r="AO50" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP50" s="120"/>
-      <c r="AQ50" s="120"/>
-      <c r="AR50" s="120"/>
-      <c r="AS50" s="120"/>
-      <c r="AT50" s="120"/>
-      <c r="AU50" s="120"/>
-      <c r="AV50" s="120"/>
-      <c r="AW50" s="120"/>
-      <c r="AX50" s="120"/>
-      <c r="AY50" s="120"/>
-      <c r="AZ50" s="121"/>
-    </row>
-    <row r="51" spans="1:52">
-      <c r="A51" s="55">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B51" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S51" s="95"/>
-      <c r="T51" s="96"/>
-      <c r="U51" s="113"/>
-      <c r="V51" s="114"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="115"/>
-      <c r="Y51" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z51" s="99"/>
-      <c r="AA51" s="99"/>
-      <c r="AB51" s="99"/>
-      <c r="AC51" s="99"/>
-      <c r="AD51" s="99"/>
-      <c r="AE51" s="99"/>
-      <c r="AF51" s="100"/>
-      <c r="AG51" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH51" s="117"/>
-      <c r="AI51" s="117"/>
-      <c r="AJ51" s="117"/>
-      <c r="AK51" s="117"/>
-      <c r="AL51" s="117"/>
-      <c r="AM51" s="117"/>
-      <c r="AN51" s="118"/>
-      <c r="AO51" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP51" s="120"/>
-      <c r="AQ51" s="120"/>
-      <c r="AR51" s="120"/>
-      <c r="AS51" s="120"/>
-      <c r="AT51" s="120"/>
-      <c r="AU51" s="120"/>
-      <c r="AV51" s="120"/>
-      <c r="AW51" s="120"/>
-      <c r="AX51" s="120"/>
-      <c r="AY51" s="120"/>
-      <c r="AZ51" s="121"/>
-    </row>
-    <row r="52" spans="1:52">
-      <c r="A52" s="55">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B52" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S52" s="95"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="113"/>
-      <c r="V52" s="114"/>
-      <c r="W52" s="114"/>
-      <c r="X52" s="115"/>
-      <c r="Y52" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z52" s="99"/>
-      <c r="AA52" s="99"/>
-      <c r="AB52" s="99"/>
-      <c r="AC52" s="99"/>
-      <c r="AD52" s="99"/>
-      <c r="AE52" s="99"/>
-      <c r="AF52" s="100"/>
-      <c r="AG52" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH52" s="117"/>
-      <c r="AI52" s="117"/>
-      <c r="AJ52" s="117"/>
-      <c r="AK52" s="117"/>
-      <c r="AL52" s="117"/>
-      <c r="AM52" s="117"/>
-      <c r="AN52" s="118"/>
-      <c r="AO52" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP52" s="120"/>
-      <c r="AQ52" s="120"/>
-      <c r="AR52" s="120"/>
-      <c r="AS52" s="120"/>
-      <c r="AT52" s="120"/>
-      <c r="AU52" s="120"/>
-      <c r="AV52" s="120"/>
-      <c r="AW52" s="120"/>
-      <c r="AX52" s="120"/>
-      <c r="AY52" s="120"/>
-      <c r="AZ52" s="121"/>
-    </row>
-    <row r="53" spans="1:52">
-      <c r="A53" s="55">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="S53" s="95"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="113"/>
-      <c r="V53" s="114"/>
-      <c r="W53" s="114"/>
-      <c r="X53" s="115"/>
-      <c r="Y53" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z53" s="99"/>
-      <c r="AA53" s="99"/>
-      <c r="AB53" s="99"/>
-      <c r="AC53" s="99"/>
-      <c r="AD53" s="99"/>
-      <c r="AE53" s="99"/>
-      <c r="AF53" s="100"/>
-      <c r="AG53" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH53" s="117"/>
-      <c r="AI53" s="117"/>
-      <c r="AJ53" s="117"/>
-      <c r="AK53" s="117"/>
-      <c r="AL53" s="117"/>
-      <c r="AM53" s="117"/>
-      <c r="AN53" s="118"/>
-      <c r="AO53" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP53" s="120"/>
-      <c r="AQ53" s="120"/>
-      <c r="AR53" s="120"/>
-      <c r="AS53" s="120"/>
-      <c r="AT53" s="120"/>
-      <c r="AU53" s="120"/>
-      <c r="AV53" s="120"/>
-      <c r="AW53" s="120"/>
-      <c r="AX53" s="120"/>
-      <c r="AY53" s="120"/>
-      <c r="AZ53" s="121"/>
-    </row>
-    <row r="54" spans="1:52">
-      <c r="A54" s="55">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B54" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="95"/>
-      <c r="T54" s="96"/>
-      <c r="U54" s="113"/>
-      <c r="V54" s="114"/>
-      <c r="W54" s="114"/>
-      <c r="X54" s="115"/>
-      <c r="Y54" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z54" s="127"/>
-      <c r="AA54" s="127"/>
-      <c r="AB54" s="127"/>
-      <c r="AC54" s="127"/>
-      <c r="AD54" s="127"/>
-      <c r="AE54" s="127"/>
-      <c r="AF54" s="128"/>
-      <c r="AG54" s="116"/>
-      <c r="AH54" s="117"/>
-      <c r="AI54" s="117"/>
-      <c r="AJ54" s="117"/>
-      <c r="AK54" s="117"/>
-      <c r="AL54" s="117"/>
-      <c r="AM54" s="117"/>
-      <c r="AN54" s="118"/>
-      <c r="AO54" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP54" s="120"/>
-      <c r="AQ54" s="120"/>
-      <c r="AR54" s="120"/>
-      <c r="AS54" s="120"/>
-      <c r="AT54" s="120"/>
-      <c r="AU54" s="120"/>
-      <c r="AV54" s="120"/>
-      <c r="AW54" s="120"/>
-      <c r="AX54" s="120"/>
-      <c r="AY54" s="120"/>
-      <c r="AZ54" s="121"/>
-    </row>
-    <row r="55" spans="1:52">
-      <c r="A55" s="55">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="K55" s="93"/>
-      <c r="L55" s="93"/>
-      <c r="M55" s="93"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="93"/>
-      <c r="R55" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="S55" s="95"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="113"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="114"/>
-      <c r="X55" s="115"/>
-      <c r="Y55" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z55" s="127"/>
-      <c r="AA55" s="127"/>
-      <c r="AB55" s="127"/>
-      <c r="AC55" s="127"/>
-      <c r="AD55" s="127"/>
-      <c r="AE55" s="127"/>
-      <c r="AF55" s="128"/>
-      <c r="AG55" s="122"/>
-      <c r="AH55" s="123"/>
-      <c r="AI55" s="123"/>
-      <c r="AJ55" s="123"/>
-      <c r="AK55" s="123"/>
-      <c r="AL55" s="123"/>
-      <c r="AM55" s="123"/>
-      <c r="AN55" s="124"/>
-      <c r="AO55" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP55" s="120"/>
-      <c r="AQ55" s="120"/>
-      <c r="AR55" s="120"/>
-      <c r="AS55" s="120"/>
-      <c r="AT55" s="120"/>
-      <c r="AU55" s="120"/>
-      <c r="AV55" s="120"/>
-      <c r="AW55" s="120"/>
-      <c r="AX55" s="120"/>
-      <c r="AY55" s="120"/>
-      <c r="AZ55" s="121"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="S19" s="100"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="122"/>
+      <c r="AI19" s="122"/>
+      <c r="AJ19" s="122"/>
+      <c r="AK19" s="122"/>
+      <c r="AL19" s="122"/>
+      <c r="AM19" s="122"/>
+      <c r="AN19" s="123"/>
+      <c r="AO19" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP19" s="119"/>
+      <c r="AQ19" s="119"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="119"/>
+      <c r="AV19" s="119"/>
+      <c r="AW19" s="119"/>
+      <c r="AX19" s="119"/>
+      <c r="AY19" s="119"/>
+      <c r="AZ19" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="344">
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="Y50:AF50"/>
-    <mergeCell ref="AG50:AN50"/>
-    <mergeCell ref="AO50:AZ50"/>
-    <mergeCell ref="U48:X48"/>
-    <mergeCell ref="Y48:AF48"/>
-    <mergeCell ref="AG48:AN48"/>
-    <mergeCell ref="AO48:AZ48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y49:AF49"/>
-    <mergeCell ref="AG49:AN49"/>
-    <mergeCell ref="AO49:AZ49"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="Y46:AF46"/>
-    <mergeCell ref="AG46:AN46"/>
-    <mergeCell ref="AO46:AZ46"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="Y54:AF54"/>
-    <mergeCell ref="AG54:AN54"/>
-    <mergeCell ref="AO54:AZ54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="Y55:AF55"/>
-    <mergeCell ref="AG55:AN55"/>
-    <mergeCell ref="AO55:AZ55"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Y52:AF52"/>
-    <mergeCell ref="AG52:AN52"/>
-    <mergeCell ref="AO52:AZ52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Y53:AF53"/>
-    <mergeCell ref="AG53:AN53"/>
-    <mergeCell ref="AO53:AZ53"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="Y45:AF45"/>
-    <mergeCell ref="AG45:AN45"/>
-    <mergeCell ref="AO45:AZ45"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="Y51:AF51"/>
-    <mergeCell ref="AG51:AN51"/>
-    <mergeCell ref="AO51:AZ51"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="Y47:AF47"/>
-    <mergeCell ref="AG47:AN47"/>
-    <mergeCell ref="AO47:AZ47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Y44:AF44"/>
-    <mergeCell ref="AG44:AN44"/>
-    <mergeCell ref="AO44:AZ44"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="Y43:AF43"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="Y41:AF41"/>
-    <mergeCell ref="AG41:AN41"/>
-    <mergeCell ref="AO41:AZ41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Y42:AF42"/>
-    <mergeCell ref="AG42:AN42"/>
-    <mergeCell ref="AO42:AZ42"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y39:AF39"/>
-    <mergeCell ref="AG39:AN39"/>
-    <mergeCell ref="AO39:AZ39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AF40"/>
-    <mergeCell ref="AG40:AN40"/>
-    <mergeCell ref="AO40:AZ40"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
+  <mergeCells count="92">
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
     <mergeCell ref="R11:T11"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A8:H8"/>
@@ -13176,192 +9897,1183 @@
     <mergeCell ref="U11:X11"/>
     <mergeCell ref="Y11:AF11"/>
     <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="J16:Q16"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="J19:Q19"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="Y13:AF13"/>
     <mergeCell ref="AG13:AN13"/>
     <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="87"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="67">
+        <v>41666</v>
+      </c>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="8" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A8" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="95"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93"/>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="38"/>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="50"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="55">
+        <f>ROW()-10</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="100"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="119"/>
+      <c r="AQ11" s="119"/>
+      <c r="AR11" s="119"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="119"/>
+      <c r="AU11" s="119"/>
+      <c r="AV11" s="119"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="119"/>
+      <c r="AY11" s="119"/>
+      <c r="AZ11" s="120"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" s="55">
+        <f t="shared" ref="A12:A19" si="0">ROW()-10</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="123"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="119"/>
+      <c r="AQ12" s="119"/>
+      <c r="AR12" s="119"/>
+      <c r="AS12" s="119"/>
+      <c r="AT12" s="119"/>
+      <c r="AU12" s="119"/>
+      <c r="AV12" s="119"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="119"/>
+      <c r="AY12" s="119"/>
+      <c r="AZ12" s="120"/>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" s="55">
+        <f>ROW()-10</f>
+        <v>3</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="100"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="123"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="119"/>
+      <c r="AQ13" s="119"/>
+      <c r="AR13" s="119"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="119"/>
+      <c r="AU13" s="119"/>
+      <c r="AV13" s="119"/>
+      <c r="AW13" s="119"/>
+      <c r="AX13" s="119"/>
+      <c r="AY13" s="119"/>
+      <c r="AZ13" s="120"/>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" s="55">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="100"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="123"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="119"/>
+      <c r="AQ14" s="119"/>
+      <c r="AR14" s="119"/>
+      <c r="AS14" s="119"/>
+      <c r="AT14" s="119"/>
+      <c r="AU14" s="119"/>
+      <c r="AV14" s="119"/>
+      <c r="AW14" s="119"/>
+      <c r="AX14" s="119"/>
+      <c r="AY14" s="119"/>
+      <c r="AZ14" s="120"/>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="100"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="122"/>
+      <c r="AJ15" s="122"/>
+      <c r="AK15" s="122"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="119"/>
+      <c r="AQ15" s="119"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="119"/>
+      <c r="AT15" s="119"/>
+      <c r="AU15" s="119"/>
+      <c r="AV15" s="119"/>
+      <c r="AW15" s="119"/>
+      <c r="AX15" s="119"/>
+      <c r="AY15" s="119"/>
+      <c r="AZ15" s="120"/>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP16" s="119"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="119"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="119"/>
+      <c r="AV16" s="119"/>
+      <c r="AW16" s="119"/>
+      <c r="AX16" s="119"/>
+      <c r="AY16" s="119"/>
+      <c r="AZ16" s="120"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="55">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" s="100"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="122"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="122"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP17" s="119"/>
+      <c r="AQ17" s="119"/>
+      <c r="AR17" s="119"/>
+      <c r="AS17" s="119"/>
+      <c r="AT17" s="119"/>
+      <c r="AU17" s="119"/>
+      <c r="AV17" s="119"/>
+      <c r="AW17" s="119"/>
+      <c r="AX17" s="119"/>
+      <c r="AY17" s="119"/>
+      <c r="AZ17" s="120"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="55">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="115"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="116"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP18" s="119"/>
+      <c r="AQ18" s="119"/>
+      <c r="AR18" s="119"/>
+      <c r="AS18" s="119"/>
+      <c r="AT18" s="119"/>
+      <c r="AU18" s="119"/>
+      <c r="AV18" s="119"/>
+      <c r="AW18" s="119"/>
+      <c r="AX18" s="119"/>
+      <c r="AY18" s="119"/>
+      <c r="AZ18" s="120"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="55">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="S19" s="100"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="122"/>
+      <c r="AI19" s="122"/>
+      <c r="AJ19" s="122"/>
+      <c r="AK19" s="122"/>
+      <c r="AL19" s="122"/>
+      <c r="AM19" s="122"/>
+      <c r="AN19" s="123"/>
+      <c r="AO19" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP19" s="119"/>
+      <c r="AQ19" s="119"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="119"/>
+      <c r="AV19" s="119"/>
+      <c r="AW19" s="119"/>
+      <c r="AX19" s="119"/>
+      <c r="AY19" s="119"/>
+      <c r="AZ19" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
     <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
     <mergeCell ref="Y16:AF16"/>
     <mergeCell ref="AG16:AN16"/>
     <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="U14:X14"/>
     <mergeCell ref="Y14:AF14"/>
     <mergeCell ref="AG14:AN14"/>
     <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:AF37"/>
-    <mergeCell ref="AG37:AN37"/>
-    <mergeCell ref="AO37:AZ37"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Y38:AF38"/>
-    <mergeCell ref="AG38:AN38"/>
-    <mergeCell ref="AO38:AZ38"/>
-    <mergeCell ref="AG43:AN43"/>
-    <mergeCell ref="AO43:AZ43"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(45_精算承認結果ファイル取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="3720" windowWidth="20115" windowHeight="9075"/>
+    <workbookView xWindow="13155" yWindow="180" windowWidth="11370" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="159">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -204,16 +204,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>受信フォルダのファイルを作業フォルダへコピーする。</t>
-    <rPh sb="0" eb="2">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -227,16 +217,6 @@
   </si>
   <si>
     <t>7)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作業フォルダのファイルを削除。</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1302,12 +1282,215 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>受信フォルダのファイルを作業フォルダ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、バックアップフォルダ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>へコピーする。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※作業フォルダ内のファイルを一度全て削除してから、受信ファイルをコピーする。</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2014/10/11変更</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※バックアップフォルダに同じ名前のファイルが既に存在した場合</t>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックアップファイル名に年月日時分秒を付加する。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジフン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名：元のファイル名 + 「_yyyyMMddHHmmss」</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>バックアップフォルダ：Web.configの</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PATH_RECEIVE_BKUP</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に設定されているディレクトリ</t>
+    </r>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受信フォルダのファイル、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作業フォルダのファイルを削除。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※受信フォルダから削除するのは、3)でコピーしたファイルのみが対象。</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1384,6 +1567,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1646,7 +1844,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1817,25 +2015,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,110 +2121,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1967,6 +2150,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1977,8 +2163,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1989,17 +2181,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2009,6 +2216,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2022,27 +2241,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -2057,6 +2255,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2371,7 +2581,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ107"/>
+  <dimension ref="A1:AZ117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
@@ -2383,273 +2593,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41557</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67">
-        <v>41666</v>
-      </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81">
+        <v>41923</v>
+      </c>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57" t="s">
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="70" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="75"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="61"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="9" t="s">
@@ -2945,7 +3155,7 @@
         <v>18</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3054,7 +3264,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N16" s="2"/>
       <c r="P16" s="2"/>
@@ -3162,7 +3372,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N18" s="2"/>
       <c r="P18" s="2"/>
@@ -3217,7 +3427,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -3325,10 +3535,10 @@
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3437,7 +3647,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -3491,7 +3701,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -3595,7 +3805,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="4"/>
       <c r="O26" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -3702,10 +3912,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -3868,7 +4078,7 @@
         <v>23</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3976,7 +4186,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N33" s="2"/>
       <c r="P33" s="2"/>
@@ -4084,10 +4294,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4141,7 +4350,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="P36" s="5"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -4191,7 +4400,12 @@
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="128" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4210,7 +4424,9 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="129" t="s">
+        <v>152</v>
+      </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
@@ -4242,14 +4458,10 @@
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="P38" s="5"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -4300,7 +4512,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -4310,9 +4524,6 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -4353,10 +4564,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="1"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -4365,9 +4574,6 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -4377,6 +4583,7 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
@@ -4407,9 +4614,10 @@
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4417,9 +4625,6 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -4429,6 +4634,7 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
@@ -4459,9 +4665,8 @@
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="4" t="s">
-        <v>89</v>
+      <c r="N42" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -4472,8 +4677,6 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
@@ -4483,6 +4686,7 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
@@ -4513,8 +4717,9 @@
       <c r="J43" s="3"/>
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -4524,8 +4729,6 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -4535,6 +4738,7 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
@@ -4565,10 +4769,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s">
-        <v>90</v>
-      </c>
+      <c r="N44" s="12"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -4578,9 +4779,6 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
@@ -4590,6 +4788,7 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
@@ -4619,9 +4818,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -4642,6 +4839,7 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
@@ -4671,13 +4869,14 @@
       <c r="I46" s="2"/>
       <c r="J46" s="3"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
-      <c r="O46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="L46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -4697,6 +4896,7 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
@@ -4727,6 +4927,9 @@
       <c r="J47" s="3"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -4746,6 +4949,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
@@ -4776,13 +4980,11 @@
       <c r="J48" s="3"/>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="O48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="M48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -4832,7 +5034,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -4885,13 +5087,11 @@
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="N50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -4899,7 +5099,6 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
@@ -4952,7 +5151,6 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
@@ -4994,10 +5192,12 @@
       <c r="J52" s="3"/>
       <c r="K52" s="1"/>
       <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s">
+        <v>88</v>
+      </c>
       <c r="O52" s="2"/>
-      <c r="P52" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -5047,13 +5247,13 @@
       <c r="J53" s="3"/>
       <c r="K53" s="1"/>
       <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
       <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="12" t="s">
-        <v>84</v>
-      </c>
+      <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -5099,8 +5299,12 @@
       <c r="J54" s="3"/>
       <c r="K54" s="1"/>
       <c r="L54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="O54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -5150,11 +5354,6 @@
       <c r="J55" s="3"/>
       <c r="K55" s="1"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="O55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -5205,8 +5404,11 @@
       <c r="K56" s="1"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="O56" s="12" t="s">
-        <v>97</v>
+      <c r="O56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -5257,8 +5459,9 @@
       <c r="J57" s="3"/>
       <c r="K57" s="1"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="O57" s="12"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -5309,8 +5512,12 @@
       <c r="K58" s="1"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="P58" t="s">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -5362,9 +5569,10 @@
       <c r="K59" s="1"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="Q59" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -5413,10 +5621,11 @@
       <c r="J60" s="3"/>
       <c r="K60" s="1"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="Q60" t="s">
-        <v>40</v>
-      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -5465,10 +5674,13 @@
       <c r="J61" s="3"/>
       <c r="K61" s="1"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
+      <c r="T61" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
@@ -5513,10 +5725,9 @@
       <c r="I62" s="2"/>
       <c r="J62" s="3"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="4"/>
-      <c r="P62" s="53" t="s">
-        <v>76</v>
-      </c>
+      <c r="L62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -5536,7 +5747,6 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" s="2"/>
@@ -5568,7 +5778,10 @@
       <c r="K63" s="1"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="O63" s="12"/>
+      <c r="O63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
@@ -5620,7 +5833,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="O64" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -5722,7 +5935,10 @@
       <c r="J66" s="3"/>
       <c r="K66" s="1"/>
       <c r="L66" s="2"/>
-      <c r="P66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -5771,11 +5987,11 @@
       <c r="I67" s="2"/>
       <c r="J67" s="3"/>
       <c r="K67" s="1"/>
+      <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -5823,9 +6039,11 @@
       <c r="I68" s="2"/>
       <c r="J68" s="3"/>
       <c r="K68" s="1"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="12"/>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s">
+        <v>38</v>
+      </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -5873,11 +6091,8 @@
       <c r="I69" s="2"/>
       <c r="J69" s="3"/>
       <c r="K69" s="1"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="O69" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
@@ -5925,10 +6140,10 @@
       <c r="I70" s="2"/>
       <c r="J70" s="3"/>
       <c r="K70" s="1"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
+      <c r="L70" s="4"/>
+      <c r="P70" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
@@ -5948,6 +6163,7 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" s="2"/>
@@ -5977,12 +6193,9 @@
       <c r="I71" s="2"/>
       <c r="J71" s="3"/>
       <c r="K71" s="1"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="O71" s="12"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
@@ -6031,14 +6244,17 @@
       <c r="I72" s="2"/>
       <c r="J72" s="3"/>
       <c r="K72" s="1"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="2"/>
-      <c r="P72" s="2" t="s">
-        <v>140</v>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="O72" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
@@ -6081,15 +6297,15 @@
       <c r="I73" s="2"/>
       <c r="J73" s="3"/>
       <c r="K73" s="1"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="O73" s="12"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
@@ -6132,8 +6348,15 @@
       <c r="I74" s="2"/>
       <c r="J74" s="3"/>
       <c r="K74" s="1"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
@@ -6175,11 +6398,17 @@
       <c r="I75" s="2"/>
       <c r="J75" s="3"/>
       <c r="K75" s="1"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="2"/>
-      <c r="P75" s="53" t="s">
-        <v>81</v>
-      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -6221,8 +6450,15 @@
       <c r="I76" s="2"/>
       <c r="J76" s="3"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="2"/>
       <c r="M76" s="2"/>
+      <c r="N76" s="12"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -6264,10 +6500,9 @@
       <c r="I77" s="2"/>
       <c r="J77" s="3"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -6319,6 +6554,8 @@
       <c r="K78" s="1"/>
       <c r="M78" s="14"/>
       <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
@@ -6369,9 +6606,10 @@
       <c r="K79" s="1"/>
       <c r="M79" s="14"/>
       <c r="N79" s="2"/>
-      <c r="P79" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="O79" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
@@ -6420,16 +6658,14 @@
       <c r="I80" s="2"/>
       <c r="J80" s="3"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="4"/>
-      <c r="P80" s="53" t="s">
-        <v>137</v>
+      <c r="M80" s="14"/>
+      <c r="N80" s="2"/>
+      <c r="P80" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
@@ -6443,7 +6679,6 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
-      <c r="AJ80" s="2"/>
       <c r="AK80" s="2"/>
       <c r="AL80" s="2"/>
       <c r="AM80" s="2"/>
@@ -6476,13 +6711,12 @@
       <c r="M81" s="14"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
+      <c r="P81" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
@@ -6527,16 +6761,6 @@
       <c r="K82" s="1"/>
       <c r="M82" s="14"/>
       <c r="N82" s="2"/>
-      <c r="O82" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
@@ -6580,12 +6804,9 @@
       <c r="K83" s="1"/>
       <c r="M83" s="14"/>
       <c r="N83" s="2"/>
-      <c r="P83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
+      <c r="P83" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
@@ -6627,16 +6848,8 @@
       <c r="I84" s="2"/>
       <c r="J84" s="3"/>
       <c r="K84" s="1"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -6678,10 +6891,11 @@
       <c r="I85" s="2"/>
       <c r="J85" s="3"/>
       <c r="K85" s="1"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="12"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="O85" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -6730,9 +6944,8 @@
       <c r="I86" s="2"/>
       <c r="J86" s="3"/>
       <c r="K86" s="1"/>
-      <c r="M86" s="13"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="12"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
@@ -6752,7 +6965,6 @@
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
       <c r="AK86" s="2"/>
       <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
@@ -6782,11 +6994,10 @@
       <c r="I87" s="2"/>
       <c r="J87" s="3"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M87" t="s">
-        <v>122</v>
+      <c r="M87" s="14"/>
+      <c r="N87" s="2"/>
+      <c r="P87" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
@@ -6807,7 +7018,6 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
-      <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
       <c r="AL87" s="2"/>
       <c r="AM87" s="2"/>
@@ -6837,7 +7047,10 @@
       <c r="I88" s="2"/>
       <c r="J88" s="3"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="P88" s="53" t="s">
+        <v>135</v>
+      </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -6887,11 +7100,11 @@
       <c r="I89" s="2"/>
       <c r="J89" s="3"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="2"/>
-      <c r="N89" t="s">
-        <v>34</v>
-      </c>
+      <c r="M89" s="14"/>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -6910,7 +7123,6 @@
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
-      <c r="AJ89" s="2"/>
       <c r="AK89" s="2"/>
       <c r="AL89" s="2"/>
       <c r="AM89" s="2"/>
@@ -6940,10 +7152,12 @@
       <c r="I90" s="2"/>
       <c r="J90" s="3"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="2"/>
-      <c r="O90" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="M90" s="14"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -6962,7 +7176,6 @@
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
-      <c r="AJ90" s="2"/>
       <c r="AK90" s="2"/>
       <c r="AL90" s="2"/>
       <c r="AM90" s="2"/>
@@ -6992,14 +7205,11 @@
       <c r="I91" s="2"/>
       <c r="J91" s="3"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="2"/>
+      <c r="M91" s="14"/>
       <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
+      <c r="P91" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
@@ -7015,7 +7225,6 @@
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
-      <c r="AJ91" s="2"/>
       <c r="AK91" s="2"/>
       <c r="AL91" s="2"/>
       <c r="AM91" s="2"/>
@@ -7045,11 +7254,9 @@
       <c r="I92" s="2"/>
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="2"/>
-      <c r="N92" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="P92" s="2"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
@@ -7069,7 +7276,6 @@
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
-      <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
       <c r="AL92" s="2"/>
       <c r="AM92" s="2"/>
@@ -7099,10 +7305,10 @@
       <c r="I93" s="2"/>
       <c r="J93" s="3"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+      <c r="P93" s="12"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
@@ -7122,7 +7328,6 @@
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
-      <c r="AJ93" s="2"/>
       <c r="AK93" s="2"/>
       <c r="AL93" s="2"/>
       <c r="AM93" s="2"/>
@@ -7152,9 +7357,9 @@
       <c r="I94" s="2"/>
       <c r="J94" s="3"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="M94" s="13"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="12"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
@@ -7205,12 +7410,11 @@
       <c r="J95" s="3"/>
       <c r="K95" s="1"/>
       <c r="L95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="M95" t="s">
+        <v>120</v>
+      </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
@@ -7218,6 +7422,9 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
@@ -7257,9 +7464,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="3"/>
       <c r="K96" s="1"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+      <c r="L96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
@@ -7267,6 +7472,9 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
@@ -7307,18 +7515,19 @@
       <c r="J97" s="3"/>
       <c r="K97" s="1"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
+      <c r="N97" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
@@ -7359,16 +7568,18 @@
       <c r="J98" s="3"/>
       <c r="K98" s="1"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
+      <c r="O98" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
@@ -7409,8 +7620,9 @@
       <c r="J99" s="3"/>
       <c r="K99" s="1"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
@@ -7418,6 +7630,9 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
@@ -7457,13 +7672,11 @@
       <c r="I100" s="2"/>
       <c r="J100" s="3"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="N100" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
@@ -7471,6 +7684,9 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
@@ -7512,6 +7728,8 @@
       <c r="K101" s="1"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
@@ -7519,6 +7737,9 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
@@ -7561,7 +7782,6 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
-      <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
@@ -7569,6 +7789,9 @@
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
@@ -7609,14 +7832,12 @@
       <c r="J103" s="3"/>
       <c r="K103" s="1"/>
       <c r="L103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="M103" s="128" t="s">
+        <v>26</v>
       </c>
       <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -7633,8 +7854,9 @@
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
-      <c r="AJ103" s="2"/>
-      <c r="AK103" s="2"/>
+      <c r="AJ103" s="129" t="s">
+        <v>152</v>
+      </c>
       <c r="AL103" s="2"/>
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
@@ -7663,9 +7885,10 @@
       <c r="I104" s="2"/>
       <c r="J104" s="3"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
+      <c r="M104" s="130"/>
       <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
@@ -7713,8 +7936,10 @@
       <c r="J105" s="3"/>
       <c r="K105" s="1"/>
       <c r="L105" s="2"/>
+      <c r="M105" s="131" t="s">
+        <v>156</v>
+      </c>
       <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
@@ -7765,6 +7990,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
+      <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
@@ -7772,9 +7998,6 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
@@ -7803,61 +8026,577 @@
       <c r="AZ106" s="3"/>
     </row>
     <row r="107" spans="1:52">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
-      <c r="Z107" s="7"/>
-      <c r="AA107" s="7"/>
-      <c r="AB107" s="7"/>
-      <c r="AC107" s="7"/>
-      <c r="AD107" s="7"/>
-      <c r="AE107" s="7"/>
-      <c r="AF107" s="7"/>
-      <c r="AG107" s="7"/>
-      <c r="AH107" s="7"/>
-      <c r="AI107" s="7"/>
-      <c r="AJ107" s="7"/>
-      <c r="AK107" s="7"/>
-      <c r="AL107" s="7"/>
-      <c r="AM107" s="7"/>
-      <c r="AN107" s="7"/>
-      <c r="AO107" s="7"/>
-      <c r="AP107" s="8"/>
-      <c r="AQ107" s="6"/>
-      <c r="AR107" s="7"/>
-      <c r="AS107" s="7"/>
-      <c r="AT107" s="7"/>
-      <c r="AU107" s="7"/>
-      <c r="AV107" s="7"/>
-      <c r="AW107" s="7"/>
-      <c r="AX107" s="7"/>
-      <c r="AY107" s="7"/>
-      <c r="AZ107" s="8"/>
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2"/>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="2"/>
+      <c r="AN107" s="2"/>
+      <c r="AO107" s="2"/>
+      <c r="AP107" s="3"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="2"/>
+      <c r="AS107" s="2"/>
+      <c r="AT107" s="2"/>
+      <c r="AU107" s="2"/>
+      <c r="AV107" s="2"/>
+      <c r="AW107" s="2"/>
+      <c r="AX107" s="2"/>
+      <c r="AY107" s="2"/>
+      <c r="AZ107" s="3"/>
+    </row>
+    <row r="108" spans="1:52">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK108" s="2"/>
+      <c r="AL108" s="2"/>
+      <c r="AM108" s="2"/>
+      <c r="AN108" s="2"/>
+      <c r="AO108" s="2"/>
+      <c r="AP108" s="3"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="2"/>
+      <c r="AS108" s="2"/>
+      <c r="AT108" s="2"/>
+      <c r="AU108" s="2"/>
+      <c r="AV108" s="2"/>
+      <c r="AW108" s="2"/>
+      <c r="AX108" s="2"/>
+      <c r="AY108" s="2"/>
+      <c r="AZ108" s="3"/>
+    </row>
+    <row r="109" spans="1:52">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2"/>
+      <c r="AH109" s="2"/>
+      <c r="AI109" s="2"/>
+      <c r="AJ109" s="2"/>
+      <c r="AK109" s="2"/>
+      <c r="AL109" s="2"/>
+      <c r="AM109" s="2"/>
+      <c r="AN109" s="2"/>
+      <c r="AO109" s="2"/>
+      <c r="AP109" s="3"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="2"/>
+      <c r="AS109" s="2"/>
+      <c r="AT109" s="2"/>
+      <c r="AU109" s="2"/>
+      <c r="AV109" s="2"/>
+      <c r="AW109" s="2"/>
+      <c r="AX109" s="2"/>
+      <c r="AY109" s="2"/>
+      <c r="AZ109" s="3"/>
+    </row>
+    <row r="110" spans="1:52">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
+      <c r="AK110" s="2"/>
+      <c r="AL110" s="2"/>
+      <c r="AM110" s="2"/>
+      <c r="AN110" s="2"/>
+      <c r="AO110" s="2"/>
+      <c r="AP110" s="3"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="2"/>
+      <c r="AS110" s="2"/>
+      <c r="AT110" s="2"/>
+      <c r="AU110" s="2"/>
+      <c r="AV110" s="2"/>
+      <c r="AW110" s="2"/>
+      <c r="AX110" s="2"/>
+      <c r="AY110" s="2"/>
+      <c r="AZ110" s="3"/>
+    </row>
+    <row r="111" spans="1:52">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2"/>
+      <c r="AO111" s="2"/>
+      <c r="AP111" s="3"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="2"/>
+      <c r="AS111" s="2"/>
+      <c r="AT111" s="2"/>
+      <c r="AU111" s="2"/>
+      <c r="AV111" s="2"/>
+      <c r="AW111" s="2"/>
+      <c r="AX111" s="2"/>
+      <c r="AY111" s="2"/>
+      <c r="AZ111" s="3"/>
+    </row>
+    <row r="112" spans="1:52">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="2"/>
+      <c r="AN112" s="2"/>
+      <c r="AO112" s="2"/>
+      <c r="AP112" s="3"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="2"/>
+      <c r="AS112" s="2"/>
+      <c r="AT112" s="2"/>
+      <c r="AU112" s="2"/>
+      <c r="AV112" s="2"/>
+      <c r="AW112" s="2"/>
+      <c r="AX112" s="2"/>
+      <c r="AY112" s="2"/>
+      <c r="AZ112" s="3"/>
+    </row>
+    <row r="113" spans="1:52">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2"/>
+      <c r="AH113" s="2"/>
+      <c r="AI113" s="2"/>
+      <c r="AJ113" s="2"/>
+      <c r="AK113" s="2"/>
+      <c r="AL113" s="2"/>
+      <c r="AM113" s="2"/>
+      <c r="AN113" s="2"/>
+      <c r="AO113" s="2"/>
+      <c r="AP113" s="3"/>
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="2"/>
+      <c r="AS113" s="2"/>
+      <c r="AT113" s="2"/>
+      <c r="AU113" s="2"/>
+      <c r="AV113" s="2"/>
+      <c r="AW113" s="2"/>
+      <c r="AX113" s="2"/>
+      <c r="AY113" s="2"/>
+      <c r="AZ113" s="3"/>
+    </row>
+    <row r="114" spans="1:52">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="2"/>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="2"/>
+      <c r="AJ114" s="2"/>
+      <c r="AK114" s="2"/>
+      <c r="AL114" s="2"/>
+      <c r="AM114" s="2"/>
+      <c r="AN114" s="2"/>
+      <c r="AO114" s="2"/>
+      <c r="AP114" s="3"/>
+      <c r="AQ114" s="1"/>
+      <c r="AR114" s="2"/>
+      <c r="AS114" s="2"/>
+      <c r="AT114" s="2"/>
+      <c r="AU114" s="2"/>
+      <c r="AV114" s="2"/>
+      <c r="AW114" s="2"/>
+      <c r="AX114" s="2"/>
+      <c r="AY114" s="2"/>
+      <c r="AZ114" s="3"/>
+    </row>
+    <row r="115" spans="1:52">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2"/>
+      <c r="AI115" s="2"/>
+      <c r="AJ115" s="2"/>
+      <c r="AK115" s="2"/>
+      <c r="AL115" s="2"/>
+      <c r="AM115" s="2"/>
+      <c r="AN115" s="2"/>
+      <c r="AO115" s="2"/>
+      <c r="AP115" s="3"/>
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="2"/>
+      <c r="AS115" s="2"/>
+      <c r="AT115" s="2"/>
+      <c r="AU115" s="2"/>
+      <c r="AV115" s="2"/>
+      <c r="AW115" s="2"/>
+      <c r="AX115" s="2"/>
+      <c r="AY115" s="2"/>
+      <c r="AZ115" s="3"/>
+    </row>
+    <row r="116" spans="1:52">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2"/>
+      <c r="AG116" s="2"/>
+      <c r="AH116" s="2"/>
+      <c r="AI116" s="2"/>
+      <c r="AJ116" s="2"/>
+      <c r="AK116" s="2"/>
+      <c r="AL116" s="2"/>
+      <c r="AM116" s="2"/>
+      <c r="AN116" s="2"/>
+      <c r="AO116" s="2"/>
+      <c r="AP116" s="3"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="2"/>
+      <c r="AS116" s="2"/>
+      <c r="AT116" s="2"/>
+      <c r="AU116" s="2"/>
+      <c r="AV116" s="2"/>
+      <c r="AW116" s="2"/>
+      <c r="AX116" s="2"/>
+      <c r="AY116" s="2"/>
+      <c r="AZ116" s="3"/>
+    </row>
+    <row r="117" spans="1:52">
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="7"/>
+      <c r="AA117" s="7"/>
+      <c r="AB117" s="7"/>
+      <c r="AC117" s="7"/>
+      <c r="AD117" s="7"/>
+      <c r="AE117" s="7"/>
+      <c r="AF117" s="7"/>
+      <c r="AG117" s="7"/>
+      <c r="AH117" s="7"/>
+      <c r="AI117" s="7"/>
+      <c r="AJ117" s="7"/>
+      <c r="AK117" s="7"/>
+      <c r="AL117" s="7"/>
+      <c r="AM117" s="7"/>
+      <c r="AN117" s="7"/>
+      <c r="AO117" s="7"/>
+      <c r="AP117" s="8"/>
+      <c r="AQ117" s="6"/>
+      <c r="AR117" s="7"/>
+      <c r="AS117" s="7"/>
+      <c r="AT117" s="7"/>
+      <c r="AU117" s="7"/>
+      <c r="AV117" s="7"/>
+      <c r="AW117" s="7"/>
+      <c r="AX117" s="7"/>
+      <c r="AY117" s="7"/>
+      <c r="AZ117" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7874,16 +8613,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7909,290 +8638,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41557</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="106" t="s">
+      <c r="W8" s="101"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="111"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -8202,7 +8931,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -8212,7 +8941,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -8221,7 +8950,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -8231,7 +8960,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -8241,7 +8970,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -8274,12 +9003,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -8318,35 +9047,35 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
+      <c r="B11" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
       <c r="U11" s="19"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
@@ -8364,7 +9093,7 @@
       <c r="AM11" s="25"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AP11" s="20"/>
       <c r="AQ11" s="20"/>
@@ -8383,37 +9112,37 @@
         <f t="shared" ref="A12:A17" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
+      <c r="B12" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
       <c r="U12" s="19"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
@@ -8431,7 +9160,7 @@
       <c r="AM12" s="25"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -8450,31 +9179,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101"/>
+      <c r="B13" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -8496,7 +9225,7 @@
       <c r="AM13" s="25"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AP13" s="20"/>
       <c r="AQ13" s="20"/>
@@ -8515,31 +9244,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
+      <c r="B14" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
       <c r="U14" s="27"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -8561,7 +9290,7 @@
       <c r="AM14" s="25"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AP14" s="20"/>
       <c r="AQ14" s="20"/>
@@ -8580,29 +9309,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101"/>
+      <c r="B15" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
       <c r="U15" s="27"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -8623,49 +9352,49 @@
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="26"/>
-      <c r="AO15" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="89"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="90"/>
+      <c r="AO15" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP15" s="108"/>
+      <c r="AQ15" s="108"/>
+      <c r="AR15" s="108"/>
+      <c r="AS15" s="108"/>
+      <c r="AT15" s="108"/>
+      <c r="AU15" s="108"/>
+      <c r="AV15" s="108"/>
+      <c r="AW15" s="108"/>
+      <c r="AX15" s="108"/>
+      <c r="AY15" s="108"/>
+      <c r="AZ15" s="109"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
+      <c r="B16" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
       <c r="U16" s="27"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -8687,7 +9416,7 @@
       <c r="AM16" s="25"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AP16" s="20"/>
       <c r="AQ16" s="20"/>
@@ -8706,29 +9435,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
+      <c r="B17" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
       <c r="U17" s="27"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -8750,7 +9479,7 @@
       <c r="AM17" s="25"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP17" s="20"/>
       <c r="AQ17" s="20"/>
@@ -8766,21 +9495,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
@@ -8797,26 +9531,21 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
     <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8842,294 +9571,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41557</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81">
         <v>41666</v>
       </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57" t="s">
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="106" t="s">
+      <c r="W8" s="101"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="111"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -9139,7 +9868,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -9149,7 +9878,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -9158,7 +9887,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -9168,7 +9897,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -9178,7 +9907,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -9211,12 +9940,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -9255,512 +9984,512 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="116"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="119"/>
-      <c r="AU11" s="119"/>
-      <c r="AV11" s="119"/>
-      <c r="AW11" s="119"/>
-      <c r="AX11" s="119"/>
-      <c r="AY11" s="119"/>
-      <c r="AZ11" s="120"/>
+      <c r="B11" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="114"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="55">
         <f t="shared" ref="A12:A19" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="116"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="119"/>
-      <c r="AR12" s="119"/>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="119"/>
-      <c r="AU12" s="119"/>
-      <c r="AV12" s="119"/>
-      <c r="AW12" s="119"/>
-      <c r="AX12" s="119"/>
-      <c r="AY12" s="119"/>
-      <c r="AZ12" s="120"/>
+      <c r="B12" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="123"/>
+      <c r="AO12" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="114"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="55">
         <f>ROW()-10</f>
         <v>3</v>
       </c>
-      <c r="B13" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="109" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
-      <c r="AL13" s="122"/>
-      <c r="AM13" s="122"/>
-      <c r="AN13" s="123"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="119"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="119"/>
-      <c r="AV13" s="119"/>
-      <c r="AW13" s="119"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="120"/>
+      <c r="B13" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="114"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH14" s="122"/>
-      <c r="AI14" s="122"/>
-      <c r="AJ14" s="122"/>
-      <c r="AK14" s="122"/>
-      <c r="AL14" s="122"/>
-      <c r="AM14" s="122"/>
-      <c r="AN14" s="123"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="119"/>
-      <c r="AQ14" s="119"/>
-      <c r="AR14" s="119"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="119"/>
-      <c r="AW14" s="119"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="120"/>
+      <c r="B14" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="114"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH15" s="122"/>
-      <c r="AI15" s="122"/>
-      <c r="AJ15" s="122"/>
-      <c r="AK15" s="122"/>
-      <c r="AL15" s="122"/>
-      <c r="AM15" s="122"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="119"/>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="119"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="120"/>
+      <c r="B15" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="114"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="120"/>
+      <c r="B16" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="123"/>
+      <c r="AO16" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="114"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="116"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="120"/>
+      <c r="B17" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="122"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="122"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="109" t="s">
-        <v>58</v>
+      <c r="B18" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="Z18" s="124"/>
       <c r="AA18" s="124"/>
@@ -9769,65 +10498,65 @@
       <c r="AD18" s="124"/>
       <c r="AE18" s="124"/>
       <c r="AF18" s="125"/>
-      <c r="AG18" s="115"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="116"/>
-      <c r="AJ18" s="116"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="116"/>
-      <c r="AN18" s="117"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="122"/>
+      <c r="AJ18" s="122"/>
+      <c r="AK18" s="122"/>
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="122"/>
+      <c r="AN18" s="123"/>
       <c r="AO18" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP18" s="119"/>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="119"/>
-      <c r="AT18" s="119"/>
-      <c r="AU18" s="119"/>
-      <c r="AV18" s="119"/>
-      <c r="AW18" s="119"/>
-      <c r="AX18" s="119"/>
-      <c r="AY18" s="119"/>
-      <c r="AZ18" s="120"/>
+        <v>57</v>
+      </c>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="114"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="S19" s="100"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="109" t="s">
-        <v>101</v>
+      <c r="B19" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19" s="94"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="Z19" s="124"/>
       <c r="AA19" s="124"/>
@@ -9837,45 +10566,88 @@
       <c r="AE19" s="124"/>
       <c r="AF19" s="125"/>
       <c r="AG19" s="127"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="122"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="122"/>
-      <c r="AL19" s="122"/>
-      <c r="AM19" s="122"/>
-      <c r="AN19" s="123"/>
-      <c r="AO19" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP19" s="119"/>
-      <c r="AQ19" s="119"/>
-      <c r="AR19" s="119"/>
-      <c r="AS19" s="119"/>
-      <c r="AT19" s="119"/>
-      <c r="AU19" s="119"/>
-      <c r="AV19" s="119"/>
-      <c r="AW19" s="119"/>
-      <c r="AX19" s="119"/>
-      <c r="AY19" s="119"/>
-      <c r="AZ19" s="120"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
     <mergeCell ref="R11:T11"/>
@@ -9892,65 +10664,22 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
     <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
     <mergeCell ref="AG13:AN13"/>
     <mergeCell ref="AO13:AZ13"/>
   </mergeCells>
@@ -9977,290 +10706,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41666</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="106" t="s">
+      <c r="W8" s="101"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="111"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -10270,7 +10999,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -10280,7 +11009,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -10289,7 +11018,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -10299,7 +11028,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -10309,7 +11038,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -10342,12 +11071,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -10386,370 +11115,370 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="121" t="s">
+      <c r="B11" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="119"/>
-      <c r="AU11" s="119"/>
-      <c r="AV11" s="119"/>
-      <c r="AW11" s="119"/>
-      <c r="AX11" s="119"/>
-      <c r="AY11" s="119"/>
-      <c r="AZ11" s="120"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH11" s="119"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="119"/>
+      <c r="AK11" s="119"/>
+      <c r="AL11" s="119"/>
+      <c r="AM11" s="119"/>
+      <c r="AN11" s="120"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="114"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="55">
         <f t="shared" ref="A12:A19" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="121" t="s">
+      <c r="B12" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="122"/>
-      <c r="AL12" s="122"/>
-      <c r="AM12" s="122"/>
-      <c r="AN12" s="123"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="119"/>
-      <c r="AR12" s="119"/>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="119"/>
-      <c r="AU12" s="119"/>
-      <c r="AV12" s="119"/>
-      <c r="AW12" s="119"/>
-      <c r="AX12" s="119"/>
-      <c r="AY12" s="119"/>
-      <c r="AZ12" s="120"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="119"/>
+      <c r="AK12" s="119"/>
+      <c r="AL12" s="119"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="120"/>
+      <c r="AO12" s="112"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="114"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="55">
         <f>ROW()-10</f>
         <v>3</v>
       </c>
-      <c r="B13" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="109" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
-      <c r="AL13" s="122"/>
-      <c r="AM13" s="122"/>
-      <c r="AN13" s="123"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="119"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="119"/>
-      <c r="AV13" s="119"/>
-      <c r="AW13" s="119"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="120"/>
+      <c r="B13" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="114"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH14" s="122"/>
-      <c r="AI14" s="122"/>
-      <c r="AJ14" s="122"/>
-      <c r="AK14" s="122"/>
-      <c r="AL14" s="122"/>
-      <c r="AM14" s="122"/>
-      <c r="AN14" s="123"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="119"/>
-      <c r="AQ14" s="119"/>
-      <c r="AR14" s="119"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="119"/>
-      <c r="AW14" s="119"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="120"/>
+      <c r="B14" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="114"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH15" s="122"/>
-      <c r="AI15" s="122"/>
-      <c r="AJ15" s="122"/>
-      <c r="AK15" s="122"/>
-      <c r="AL15" s="122"/>
-      <c r="AM15" s="122"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="119"/>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="119"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="120"/>
+      <c r="B15" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="114"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="109" t="s">
-        <v>58</v>
+      <c r="B16" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="Z16" s="124"/>
       <c r="AA16" s="124"/>
@@ -10758,65 +11487,65 @@
       <c r="AD16" s="124"/>
       <c r="AE16" s="124"/>
       <c r="AF16" s="125"/>
-      <c r="AG16" s="115"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="117"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="123"/>
       <c r="AO16" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="120"/>
+        <v>57</v>
+      </c>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="114"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="109" t="s">
-        <v>101</v>
+      <c r="B17" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="Z17" s="124"/>
       <c r="AA17" s="124"/>
@@ -10826,62 +11555,62 @@
       <c r="AE17" s="124"/>
       <c r="AF17" s="125"/>
       <c r="AG17" s="127"/>
-      <c r="AH17" s="122"/>
-      <c r="AI17" s="122"/>
-      <c r="AJ17" s="122"/>
-      <c r="AK17" s="122"/>
-      <c r="AL17" s="122"/>
-      <c r="AM17" s="122"/>
-      <c r="AN17" s="123"/>
-      <c r="AO17" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="120"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="119"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="109" t="s">
-        <v>58</v>
+      <c r="B18" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="Z18" s="124"/>
       <c r="AA18" s="124"/>
@@ -10890,65 +11619,65 @@
       <c r="AD18" s="124"/>
       <c r="AE18" s="124"/>
       <c r="AF18" s="125"/>
-      <c r="AG18" s="115"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="116"/>
-      <c r="AJ18" s="116"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="116"/>
-      <c r="AN18" s="117"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="122"/>
+      <c r="AJ18" s="122"/>
+      <c r="AK18" s="122"/>
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="122"/>
+      <c r="AN18" s="123"/>
       <c r="AO18" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP18" s="119"/>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="119"/>
-      <c r="AT18" s="119"/>
-      <c r="AU18" s="119"/>
-      <c r="AV18" s="119"/>
-      <c r="AW18" s="119"/>
-      <c r="AX18" s="119"/>
-      <c r="AY18" s="119"/>
-      <c r="AZ18" s="120"/>
+        <v>57</v>
+      </c>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="114"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="S19" s="100"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="109" t="s">
-        <v>101</v>
+      <c r="B19" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19" s="94"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="Z19" s="124"/>
       <c r="AA19" s="124"/>
@@ -10958,37 +11687,101 @@
       <c r="AE19" s="124"/>
       <c r="AF19" s="125"/>
       <c r="AG19" s="127"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="122"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="122"/>
-      <c r="AL19" s="122"/>
-      <c r="AM19" s="122"/>
-      <c r="AN19" s="123"/>
-      <c r="AO19" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP19" s="119"/>
-      <c r="AQ19" s="119"/>
-      <c r="AR19" s="119"/>
-      <c r="AS19" s="119"/>
-      <c r="AT19" s="119"/>
-      <c r="AU19" s="119"/>
-      <c r="AV19" s="119"/>
-      <c r="AW19" s="119"/>
-      <c r="AX19" s="119"/>
-      <c r="AY19" s="119"/>
-      <c r="AZ19" s="120"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
     <mergeCell ref="AO17:AZ17"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J18:Q18"/>
@@ -11003,77 +11796,13 @@
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="Y17:AF17"/>
     <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
